--- a/data_month/zb/工业/股份合作工业企业主要经济指标.xlsx
+++ b/data_month/zb/工业/股份合作工业企业主要经济指标.xlsx
@@ -1260,7 +1260,7 @@
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="n">
-        <v>7.449999999999999</v>
+        <v>4.410000000000007</v>
       </c>
       <c r="AE4" t="n">
         <v>29.24</v>
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.0500000000001</v>
+        <v>2.670000000000332</v>
       </c>
       <c r="C5" t="n">
         <v>913.95</v>
@@ -1386,7 +1386,7 @@
         <v>17.11</v>
       </c>
       <c r="E5" t="n">
-        <v>16.1700000000001</v>
+        <v>5.350000000000103</v>
       </c>
       <c r="F5" t="n">
         <v>1074.94</v>
@@ -1395,7 +1395,7 @@
         <v>16.83</v>
       </c>
       <c r="H5" t="n">
-        <v>1.56</v>
+        <v>0.1999999999999997</v>
       </c>
       <c r="I5" t="n">
         <v>8.42</v>
@@ -1404,7 +1404,7 @@
         <v>10.05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8499999999999996</v>
+        <v>0.8100000000000005</v>
       </c>
       <c r="L5" t="n">
         <v>7.81</v>
@@ -1440,7 +1440,7 @@
         <v>-0.72</v>
       </c>
       <c r="W5" t="n">
-        <v>2.059999999999997</v>
+        <v>0.07999999999998564</v>
       </c>
       <c r="X5" t="n">
         <v>39.03</v>
@@ -1485,7 +1485,7 @@
         <v>1253.13</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.23</v>
+        <v>0.02999999999999881</v>
       </c>
       <c r="AQ5" t="n">
         <v>56.61</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>171.13</v>
+        <v>149.3799999999991</v>
       </c>
       <c r="C6" t="n">
         <v>1136.37</v>
@@ -1581,7 +1581,7 @@
         <v>16.83</v>
       </c>
       <c r="E6" t="n">
-        <v>200.1999999999998</v>
+        <v>162.5699999999994</v>
       </c>
       <c r="F6" t="n">
         <v>1337.35</v>
@@ -1626,7 +1626,7 @@
         <v>235.75</v>
       </c>
       <c r="T6" t="n">
-        <v>3.300000000000001</v>
+        <v>2.020000000000001</v>
       </c>
       <c r="U6" t="n">
         <v>19.67</v>
@@ -1635,7 +1635,7 @@
         <v>0.93</v>
       </c>
       <c r="W6" t="n">
-        <v>7.18</v>
+        <v>2.900000000000035</v>
       </c>
       <c r="X6" t="n">
         <v>49.23</v>
@@ -1650,7 +1650,7 @@
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
-        <v>7.390000000000001</v>
+        <v>4.229999999999989</v>
       </c>
       <c r="AE6" t="n">
         <v>46.99</v>
@@ -1680,7 +1680,7 @@
         <v>1276.92</v>
       </c>
       <c r="AP6" t="n">
-        <v>10.2</v>
+        <v>7.680000000000001</v>
       </c>
       <c r="AQ6" t="n">
         <v>69.20999999999999</v>
@@ -1701,7 +1701,7 @@
         <v>1551.4</v>
       </c>
       <c r="AY6" t="n">
-        <v>3.650000000000002</v>
+        <v>1.570000000000018</v>
       </c>
       <c r="AZ6" t="n">
         <v>22.58</v>
@@ -1719,7 +1719,7 @@
         <v>2401</v>
       </c>
       <c r="BE6" t="n">
-        <v>7.079999999999998</v>
+        <v>6.43999999999997</v>
       </c>
       <c r="BF6" t="n">
         <v>47.64</v>
@@ -1785,7 +1785,7 @@
         <v>15.7</v>
       </c>
       <c r="H7" t="n">
-        <v>1.709999999999999</v>
+        <v>0.869999999999999</v>
       </c>
       <c r="I7" t="n">
         <v>11.83</v>
@@ -1794,7 +1794,7 @@
         <v>7.73</v>
       </c>
       <c r="K7" t="n">
-        <v>0.620000000000001</v>
+        <v>0.3399999999999998</v>
       </c>
       <c r="L7" t="n">
         <v>10.35</v>
@@ -1830,7 +1830,7 @@
         <v>0.19</v>
       </c>
       <c r="W7" t="n">
-        <v>6.280000000000001</v>
+        <v>1.159999999999998</v>
       </c>
       <c r="X7" t="n">
         <v>57.91</v>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.57000000000008</v>
+        <v>6.560000000000024</v>
       </c>
       <c r="C8" t="n">
         <v>1524.02</v>
@@ -1971,7 +1971,7 @@
         <v>15.32</v>
       </c>
       <c r="E8" t="n">
-        <v>35.8299999999997</v>
+        <v>12.42999999999802</v>
       </c>
       <c r="F8" t="n">
         <v>1793.18</v>
@@ -1989,7 +1989,7 @@
         <v>5.16</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7899999999999991</v>
+        <v>0.1699999999999982</v>
       </c>
       <c r="L8" t="n">
         <v>11.44</v>
@@ -2025,7 +2025,7 @@
         <v>-0.89</v>
       </c>
       <c r="W8" t="n">
-        <v>4.009999999999998</v>
+        <v>1.690000000000002</v>
       </c>
       <c r="X8" t="n">
         <v>66.53</v>
@@ -2040,7 +2040,7 @@
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
-        <v>1.070000000000007</v>
+        <v>0.9900000000000231</v>
       </c>
       <c r="AE8" t="n">
         <v>63.92</v>
@@ -2091,7 +2091,7 @@
         <v>1565.7</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.6200000000000041</v>
+        <v>0.1400000000000131</v>
       </c>
       <c r="AZ8" t="n">
         <v>29.76</v>
@@ -2109,7 +2109,7 @@
         <v>2457.64</v>
       </c>
       <c r="BE8" t="n">
-        <v>6.990000000000002</v>
+        <v>4.149999999999999</v>
       </c>
       <c r="BF8" t="n">
         <v>63.99</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>185.5</v>
+        <v>119.2399999999998</v>
       </c>
       <c r="C9" t="n">
         <v>1750.85</v>
@@ -2166,7 +2166,7 @@
         <v>14.74</v>
       </c>
       <c r="E9" t="n">
-        <v>215.02</v>
+        <v>106.8000000000037</v>
       </c>
       <c r="F9" t="n">
         <v>2058.55</v>
@@ -2175,7 +2175,7 @@
         <v>14.44</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3299999999999998</v>
+        <v>0.05999999999999425</v>
       </c>
       <c r="I9" t="n">
         <v>15.13</v>
@@ -2184,7 +2184,7 @@
         <v>4.44</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4500000000000011</v>
+        <v>0.1100000000000047</v>
       </c>
       <c r="L9" t="n">
         <v>12.27</v>
@@ -2220,7 +2220,7 @@
         <v>0.43</v>
       </c>
       <c r="W9" t="n">
-        <v>8.160000000000004</v>
+        <v>0.1400000000000077</v>
       </c>
       <c r="X9" t="n">
         <v>77.66</v>
@@ -2235,7 +2235,7 @@
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="n">
-        <v>7.959999999999994</v>
+        <v>3.79999999999994</v>
       </c>
       <c r="AE9" t="n">
         <v>74.26000000000001</v>
@@ -2265,7 +2265,7 @@
         <v>1316.25</v>
       </c>
       <c r="AP9" t="n">
-        <v>11.56999999999999</v>
+        <v>8.689999999999989</v>
       </c>
       <c r="AQ9" t="n">
         <v>106.47</v>
@@ -2286,7 +2286,7 @@
         <v>1582.14</v>
       </c>
       <c r="AY9" t="n">
-        <v>4.029999999999994</v>
+        <v>2.50999999999996</v>
       </c>
       <c r="AZ9" t="n">
         <v>34.3</v>
@@ -2304,7 +2304,7 @@
         <v>2483.44</v>
       </c>
       <c r="BE9" t="n">
-        <v>5.899999999999999</v>
+        <v>0.3299999999999983</v>
       </c>
       <c r="BF9" t="n">
         <v>74.23999999999999</v>
@@ -2379,7 +2379,7 @@
         <v>4.81</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1499999999999986</v>
+        <v>0.0399999999999939</v>
       </c>
       <c r="L10" t="n">
         <v>12.71</v>
@@ -2406,7 +2406,7 @@
         <v>247.53</v>
       </c>
       <c r="T10" t="n">
-        <v>2.829999999999998</v>
+        <v>2.590000000000002</v>
       </c>
       <c r="U10" t="n">
         <v>33.06</v>
@@ -2415,7 +2415,7 @@
         <v>-1.79</v>
       </c>
       <c r="W10" t="n">
-        <v>4.629999999999987</v>
+        <v>0.1999999999999655</v>
       </c>
       <c r="X10" t="n">
         <v>90.20999999999999</v>
@@ -2481,7 +2481,7 @@
         <v>1592.3</v>
       </c>
       <c r="AY10" t="n">
-        <v>3.710000000000001</v>
+        <v>0.3000000000000109</v>
       </c>
       <c r="AZ10" t="n">
         <v>37.46</v>
@@ -2499,7 +2499,7 @@
         <v>2519.26</v>
       </c>
       <c r="BE10" t="n">
-        <v>3.270000000000003</v>
+        <v>2.940000000000005</v>
       </c>
       <c r="BF10" t="n">
         <v>84.31999999999999</v>
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>174.5700000000002</v>
+        <v>87.2500000000006</v>
       </c>
       <c r="C11" t="n">
         <v>2187.22</v>
@@ -2556,7 +2556,7 @@
         <v>13.99</v>
       </c>
       <c r="E11" t="n">
-        <v>201.4900000000002</v>
+        <v>69.21000000000062</v>
       </c>
       <c r="F11" t="n">
         <v>2579.21</v>
@@ -2565,7 +2565,7 @@
         <v>14.03</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4400000000000008</v>
+        <v>0.3600000000000076</v>
       </c>
       <c r="I11" t="n">
         <v>19.42</v>
@@ -2574,7 +2574,7 @@
         <v>3.46</v>
       </c>
       <c r="K11" t="n">
-        <v>12.18</v>
+        <v>11.58</v>
       </c>
       <c r="L11" t="n">
         <v>13.11</v>
@@ -2610,7 +2610,7 @@
         <v>-1.85</v>
       </c>
       <c r="W11" t="n">
-        <v>12.71000000000001</v>
+        <v>2.630000000000083</v>
       </c>
       <c r="X11" t="n">
         <v>104.19</v>
@@ -2655,7 +2655,7 @@
         <v>1338.67</v>
       </c>
       <c r="AP11" t="n">
-        <v>11.78</v>
+        <v>10.41999999999996</v>
       </c>
       <c r="AQ11" t="n">
         <v>130.31</v>
@@ -2676,7 +2676,7 @@
         <v>1590.65</v>
       </c>
       <c r="AY11" t="n">
-        <v>2.07</v>
+        <v>1.469999999999978</v>
       </c>
       <c r="AZ11" t="n">
         <v>41.22</v>
@@ -2751,7 +2751,7 @@
         <v>12.53</v>
       </c>
       <c r="E12" t="n">
-        <v>113.6099999999998</v>
+        <v>11.3299999999993</v>
       </c>
       <c r="F12" t="n">
         <v>2796.51</v>
@@ -2760,7 +2760,7 @@
         <v>13.52</v>
       </c>
       <c r="H12" t="n">
-        <v>2.35</v>
+        <v>0.7099999999999871</v>
       </c>
       <c r="I12" t="n">
         <v>21.49</v>
@@ -2796,7 +2796,7 @@
         <v>229.05</v>
       </c>
       <c r="T12" t="n">
-        <v>2.600000000000001</v>
+        <v>0.3800000000000021</v>
       </c>
       <c r="U12" t="n">
         <v>38.3</v>
@@ -2805,7 +2805,7 @@
         <v>-1.08</v>
       </c>
       <c r="W12" t="n">
-        <v>9.789999999999999</v>
+        <v>1.709999999999976</v>
       </c>
       <c r="X12" t="n">
         <v>118.67</v>
@@ -2820,7 +2820,7 @@
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="n">
-        <v>2.209999999999988</v>
+        <v>0.6499999999999282</v>
       </c>
       <c r="AE12" t="n">
         <v>102.39</v>
@@ -2871,7 +2871,7 @@
         <v>1537.69</v>
       </c>
       <c r="AY12" t="n">
-        <v>3.6</v>
+        <v>1.53</v>
       </c>
       <c r="AZ12" t="n">
         <v>43.17</v>
@@ -2889,7 +2889,7 @@
         <v>2453.23</v>
       </c>
       <c r="BE12" t="n">
-        <v>1.720000000000001</v>
+        <v>1.400000000000009</v>
       </c>
       <c r="BF12" t="n">
         <v>102.66</v>
@@ -2937,7 +2937,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.31</v>
+        <v>89.40000000000018</v>
       </c>
       <c r="C13" t="n">
         <v>305.83</v>
@@ -2946,7 +2946,7 @@
         <v>13.91</v>
       </c>
       <c r="E13" t="n">
-        <v>213.7099999999999</v>
+        <v>100.1000000000001</v>
       </c>
       <c r="F13" t="n">
         <v>358.48</v>
@@ -2955,7 +2955,7 @@
         <v>13.77</v>
       </c>
       <c r="H13" t="n">
-        <v>1.59</v>
+        <v>0.100000000000003</v>
       </c>
       <c r="I13" t="n">
         <v>2.61</v>
@@ -2991,7 +2991,7 @@
         <v>212.21</v>
       </c>
       <c r="T13" t="n">
-        <v>3.199999999999999</v>
+        <v>0.2199999999999958</v>
       </c>
       <c r="U13" t="n">
         <v>4.91</v>
@@ -3000,7 +3000,7 @@
         <v>1.87</v>
       </c>
       <c r="W13" t="n">
-        <v>8.359999999999999</v>
+        <v>4.940000000000047</v>
       </c>
       <c r="X13" t="n">
         <v>11.77</v>
@@ -3015,7 +3015,7 @@
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="n">
-        <v>7.720000000000001</v>
+        <v>1.220000000000138</v>
       </c>
       <c r="AE13" t="n">
         <v>13.28</v>
@@ -3045,7 +3045,7 @@
         <v>1176.1</v>
       </c>
       <c r="AP13" t="n">
-        <v>10.68</v>
+        <v>4.239999999999999</v>
       </c>
       <c r="AQ13" t="n">
         <v>19.4</v>
@@ -3066,7 +3066,7 @@
         <v>1351.44</v>
       </c>
       <c r="AY13" t="n">
-        <v>3.75</v>
+        <v>0.1499999999999999</v>
       </c>
       <c r="AZ13" t="n">
         <v>5.64</v>
@@ -3084,7 +3084,7 @@
         <v>2171</v>
       </c>
       <c r="BE13" t="n">
-        <v>6.229999999999999</v>
+        <v>1.30999999999999</v>
       </c>
       <c r="BF13" t="n">
         <v>13.57</v>
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>174.99</v>
+        <v>85.58999999999983</v>
       </c>
       <c r="C14" t="n">
         <v>515.26</v>
@@ -3141,7 +3141,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>207.1700000000001</v>
+        <v>6.969999999999899</v>
       </c>
       <c r="F14" t="n">
         <v>602.12</v>
@@ -3150,7 +3150,7 @@
         <v>13.9</v>
       </c>
       <c r="H14" t="n">
-        <v>1.47</v>
+        <v>1.369999999999997</v>
       </c>
       <c r="I14" t="n">
         <v>4.37</v>
@@ -3186,7 +3186,7 @@
         <v>224.14</v>
       </c>
       <c r="T14" t="n">
-        <v>2.84</v>
+        <v>1.80000000000001</v>
       </c>
       <c r="U14" t="n">
         <v>8.039999999999999</v>
@@ -3195,7 +3195,7 @@
         <v>0.3</v>
       </c>
       <c r="W14" t="n">
-        <v>7.900000000000002</v>
+        <v>1.24999999999998</v>
       </c>
       <c r="X14" t="n">
         <v>20.49</v>
@@ -3210,7 +3210,7 @@
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="n">
-        <v>6.719999999999999</v>
+        <v>1.209999999999987</v>
       </c>
       <c r="AE14" t="n">
         <v>20.83</v>
@@ -3261,7 +3261,7 @@
         <v>1399.92</v>
       </c>
       <c r="AY14" t="n">
-        <v>3.050000000000001</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="AZ14" t="n">
         <v>9.199999999999999</v>
@@ -3279,7 +3279,7 @@
         <v>2240.23</v>
       </c>
       <c r="BE14" t="n">
-        <v>3.220000000000001</v>
+        <v>0.3500000000000059</v>
       </c>
       <c r="BF14" t="n">
         <v>22.4</v>
@@ -3336,7 +3336,7 @@
         <v>15.8</v>
       </c>
       <c r="E15" t="n">
-        <v>23.5799999999999</v>
+        <v>16.61</v>
       </c>
       <c r="F15" t="n">
         <v>849.55</v>
@@ -3381,7 +3381,7 @@
         <v>230.15</v>
       </c>
       <c r="T15" t="n">
-        <v>2.710000000000001</v>
+        <v>0.4699999999999989</v>
       </c>
       <c r="U15" t="n">
         <v>10.79</v>
@@ -3435,7 +3435,7 @@
         <v>1228.89</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.09999999999999964</v>
+        <v>0.009999999999996231</v>
       </c>
       <c r="AQ15" t="n">
         <v>42.46</v>
@@ -3474,7 +3474,7 @@
         <v>2287.63</v>
       </c>
       <c r="BE15" t="n">
-        <v>3.700000000000001</v>
+        <v>0.1299999999999941</v>
       </c>
       <c r="BF15" t="n">
         <v>31.69</v>
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>197.2199999999999</v>
+        <v>86.97999999999951</v>
       </c>
       <c r="C16" t="n">
         <v>956.8</v>
@@ -3540,7 +3540,7 @@
         <v>15.7</v>
       </c>
       <c r="H16" t="n">
-        <v>1.569999999999999</v>
+        <v>0.649999999999999</v>
       </c>
       <c r="I16" t="n">
         <v>8.039999999999999</v>
@@ -3576,7 +3576,7 @@
         <v>234.2</v>
       </c>
       <c r="T16" t="n">
-        <v>0.6499999999999981</v>
+        <v>0.1799999999999992</v>
       </c>
       <c r="U16" t="n">
         <v>13.63</v>
@@ -3585,7 +3585,7 @@
         <v>0.5</v>
       </c>
       <c r="W16" t="n">
-        <v>9.18</v>
+        <v>0.580000000000005</v>
       </c>
       <c r="X16" t="n">
         <v>42.43</v>
@@ -3630,7 +3630,7 @@
         <v>1251.28</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.3699999999999992</v>
+        <v>0.1500000000000075</v>
       </c>
       <c r="AQ16" t="n">
         <v>54.26</v>
@@ -3651,7 +3651,7 @@
         <v>1467.84</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.2700000000000009</v>
+        <v>0.0200000000000031</v>
       </c>
       <c r="AZ16" t="n">
         <v>15.8</v>
@@ -3669,7 +3669,7 @@
         <v>2347.77</v>
       </c>
       <c r="BE16" t="n">
-        <v>7.300000000000004</v>
+        <v>2.160000000000003</v>
       </c>
       <c r="BF16" t="n">
         <v>42.74</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>179.54</v>
+        <v>9.880000000000194</v>
       </c>
       <c r="C17" t="n">
         <v>1189.03</v>
@@ -3726,7 +3726,7 @@
         <v>15.8</v>
       </c>
       <c r="E17" t="n">
-        <v>209.3199999999999</v>
+        <v>202.1199999999999</v>
       </c>
       <c r="F17" t="n">
         <v>1389.22</v>
@@ -3735,7 +3735,7 @@
         <v>15.8</v>
       </c>
       <c r="H17" t="n">
-        <v>1.44</v>
+        <v>0.100000000000001</v>
       </c>
       <c r="I17" t="n">
         <v>10.11</v>
@@ -3771,7 +3771,7 @@
         <v>237.18</v>
       </c>
       <c r="T17" t="n">
-        <v>2.710000000000001</v>
+        <v>0.1100000000000088</v>
       </c>
       <c r="U17" t="n">
         <v>16.99</v>
@@ -3780,7 +3780,7 @@
         <v>0.4</v>
       </c>
       <c r="W17" t="n">
-        <v>7.530000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X17" t="n">
         <v>54.24</v>
@@ -3825,7 +3825,7 @@
         <v>1285.68</v>
       </c>
       <c r="AP17" t="n">
-        <v>10.52999999999999</v>
+        <v>9.529999999999985</v>
       </c>
       <c r="AQ17" t="n">
         <v>66.69</v>
@@ -3846,7 +3846,7 @@
         <v>1487.6</v>
       </c>
       <c r="AY17" t="n">
-        <v>3.18</v>
+        <v>2.84999999999999</v>
       </c>
       <c r="AZ17" t="n">
         <v>19.39</v>
@@ -3930,7 +3930,7 @@
         <v>15.8</v>
       </c>
       <c r="H18" t="n">
-        <v>0.360000000000001</v>
+        <v>0.159999999999999</v>
       </c>
       <c r="I18" t="n">
         <v>11.67</v>
@@ -3939,7 +3939,7 @@
         <v>15.4</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6199999999999992</v>
+        <v>0.109999999999998</v>
       </c>
       <c r="L18" t="n">
         <v>9.619999999999999</v>
@@ -3975,7 +3975,7 @@
         <v>0.7</v>
       </c>
       <c r="W18" t="n">
-        <v>2.479999999999999</v>
+        <v>1.479999999999999</v>
       </c>
       <c r="X18" t="n">
         <v>65.77</v>
@@ -3990,7 +3990,7 @@
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="n">
-        <v>0.480000000000004</v>
+        <v>0.40000000000002</v>
       </c>
       <c r="AE18" t="n">
         <v>54.88</v>
@@ -4059,7 +4059,7 @@
         <v>2383.89</v>
       </c>
       <c r="BE18" t="n">
-        <v>3.99</v>
+        <v>1.190000000000016</v>
       </c>
       <c r="BF18" t="n">
         <v>60.7</v>
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18.96000000000001</v>
+        <v>2.520000000000012</v>
       </c>
       <c r="C19" t="n">
         <v>1614.51</v>
@@ -4116,7 +4116,7 @@
         <v>15.8</v>
       </c>
       <c r="E19" t="n">
-        <v>23.1899999999998</v>
+        <v>6.229999999999198</v>
       </c>
       <c r="F19" t="n">
         <v>1887.47</v>
@@ -4125,7 +4125,7 @@
         <v>16.1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.429999999999999</v>
+        <v>0.06999999999999801</v>
       </c>
       <c r="I19" t="n">
         <v>13.48</v>
@@ -4134,7 +4134,7 @@
         <v>13.1</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1800000000000015</v>
+        <v>0.07000000000000349</v>
       </c>
       <c r="L19" t="n">
         <v>10.24</v>
@@ -4161,7 +4161,7 @@
         <v>234.56</v>
       </c>
       <c r="T19" t="n">
-        <v>0.4500000000000028</v>
+        <v>0.1100000000000064</v>
       </c>
       <c r="U19" t="n">
         <v>22.78</v>
@@ -4170,7 +4170,7 @@
         <v>1.2</v>
       </c>
       <c r="W19" t="n">
-        <v>9.710000000000001</v>
+        <v>0.2900000000000058</v>
       </c>
       <c r="X19" t="n">
         <v>77.73999999999999</v>
@@ -4215,7 +4215,7 @@
         <v>1295.34</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.669999999999991</v>
+        <v>0.1299999999999331</v>
       </c>
       <c r="AQ19" t="n">
         <v>89.58</v>
@@ -4236,7 +4236,7 @@
         <v>1488.61</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.640000000000001</v>
+        <v>0.5600000000000063</v>
       </c>
       <c r="AZ19" t="n">
         <v>26.01</v>
@@ -4254,7 +4254,7 @@
         <v>2407.78</v>
       </c>
       <c r="BE19" t="n">
-        <v>8.22999999999999</v>
+        <v>0.9499999999999864</v>
       </c>
       <c r="BF19" t="n">
         <v>69.06999999999999</v>
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>190.9100000000001</v>
+        <v>156.1700000000001</v>
       </c>
       <c r="C20" t="n">
         <v>1853.45</v>
@@ -4311,7 +4311,7 @@
         <v>15.8</v>
       </c>
       <c r="E20" t="n">
-        <v>225.1800000000001</v>
+        <v>174.8200000000024</v>
       </c>
       <c r="F20" t="n">
         <v>2161.99</v>
@@ -4320,7 +4320,7 @@
         <v>15.8</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.2800000000000069</v>
       </c>
       <c r="I20" t="n">
         <v>15.35</v>
@@ -4329,7 +4329,7 @@
         <v>8.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5700000000000003</v>
+        <v>0.02999999999999581</v>
       </c>
       <c r="L20" t="n">
         <v>10.94</v>
@@ -4356,7 +4356,7 @@
         <v>237.71</v>
       </c>
       <c r="T20" t="n">
-        <v>2.84</v>
+        <v>1.88999999999998</v>
       </c>
       <c r="U20" t="n">
         <v>25.89</v>
@@ -4380,7 +4380,7 @@
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="n">
-        <v>7.260000000000005</v>
+        <v>6.900000000000021</v>
       </c>
       <c r="AE20" t="n">
         <v>73.05</v>
@@ -4410,7 +4410,7 @@
         <v>1310.09</v>
       </c>
       <c r="AP20" t="n">
-        <v>10.82000000000001</v>
+        <v>9.220000000000162</v>
       </c>
       <c r="AQ20" t="n">
         <v>101.45</v>
@@ -4431,7 +4431,7 @@
         <v>1505.28</v>
       </c>
       <c r="AY20" t="n">
-        <v>2.73</v>
+        <v>0.2899999999999885</v>
       </c>
       <c r="AZ20" t="n">
         <v>29.48</v>
@@ -4515,7 +4515,7 @@
         <v>16.61</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7700000000000011</v>
+        <v>0.2800000000000002</v>
       </c>
       <c r="I21" t="n">
         <v>17.44</v>
@@ -4524,7 +4524,7 @@
         <v>15.72</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5499999999999989</v>
+        <v>0.1300000000000043</v>
       </c>
       <c r="L21" t="n">
         <v>11.76</v>
@@ -4644,7 +4644,7 @@
         <v>2466.4</v>
       </c>
       <c r="BE21" t="n">
-        <v>1.509999999999991</v>
+        <v>0.7099999999999229</v>
       </c>
       <c r="BF21" t="n">
         <v>88.81999999999999</v>
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>44.06</v>
+        <v>6.4100000000003</v>
       </c>
       <c r="C22" t="n">
         <v>2328.77</v>
@@ -4701,7 +4701,7 @@
         <v>16.73</v>
       </c>
       <c r="E22" t="n">
-        <v>70.29999999999981</v>
+        <v>32.18000000000014</v>
       </c>
       <c r="F22" t="n">
         <v>2719.45</v>
@@ -4710,7 +4710,7 @@
         <v>16.85</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5199999999999958</v>
+        <v>0.2399999999999956</v>
       </c>
       <c r="I22" t="n">
         <v>19.06</v>
@@ -4746,7 +4746,7 @@
         <v>239.71</v>
       </c>
       <c r="T22" t="n">
-        <v>3.230000000000001</v>
+        <v>1.250000000000001</v>
       </c>
       <c r="U22" t="n">
         <v>31.25</v>
@@ -4755,7 +4755,7 @@
         <v>1.88</v>
       </c>
       <c r="W22" t="n">
-        <v>12.02999999999999</v>
+        <v>11.70999999999999</v>
       </c>
       <c r="X22" t="n">
         <v>119.78</v>
@@ -4770,7 +4770,7 @@
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="n">
-        <v>6.22000000000001</v>
+        <v>1.390000000000055</v>
       </c>
       <c r="AE22" t="n">
         <v>92.5</v>
@@ -4800,7 +4800,7 @@
         <v>1337.97</v>
       </c>
       <c r="AP22" t="n">
-        <v>7.119999999999989</v>
+        <v>5.880000000000022</v>
       </c>
       <c r="AQ22" t="n">
         <v>126.03</v>
@@ -4821,7 +4821,7 @@
         <v>1541.28</v>
       </c>
       <c r="AY22" t="n">
-        <v>1.380000000000003</v>
+        <v>0.120000000000005</v>
       </c>
       <c r="AZ22" t="n">
         <v>36.31</v>
@@ -4839,7 +4839,7 @@
         <v>2507.24</v>
       </c>
       <c r="BE22" t="n">
-        <v>2.650000000000002</v>
+        <v>0.03000000000005398</v>
       </c>
       <c r="BF22" t="n">
         <v>99.26000000000001</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.73999999999998</v>
+        <v>4.369999999999481</v>
       </c>
       <c r="C23" t="n">
         <v>2615.54</v>
@@ -4914,7 +4914,7 @@
         <v>11.9</v>
       </c>
       <c r="K23" t="n">
-        <v>3.6</v>
+        <v>3.519999999999995</v>
       </c>
       <c r="L23" t="n">
         <v>11.68</v>
@@ -4941,7 +4941,7 @@
         <v>233.88</v>
       </c>
       <c r="T23" t="n">
-        <v>4.23</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="U23" t="n">
         <v>36.9</v>
@@ -4965,7 +4965,7 @@
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="n">
-        <v>11.9</v>
+        <v>1.069999999999965</v>
       </c>
       <c r="AE23" t="n">
         <v>107.89</v>
@@ -4995,7 +4995,7 @@
         <v>1371.02</v>
       </c>
       <c r="AP23" t="n">
-        <v>18.13</v>
+        <v>4.200000000000014</v>
       </c>
       <c r="AQ23" t="n">
         <v>143.9</v>
@@ -5016,7 +5016,7 @@
         <v>1597.51</v>
       </c>
       <c r="AY23" t="n">
-        <v>0.219999999999998</v>
+        <v>0.099999999999993</v>
       </c>
       <c r="AZ23" t="n">
         <v>41.73</v>
@@ -5034,7 +5034,7 @@
         <v>2638.69</v>
       </c>
       <c r="BE23" t="n">
-        <v>11.21</v>
+        <v>6.249999999999922</v>
       </c>
       <c r="BF23" t="n">
         <v>112.19</v>
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>177.45</v>
+        <v>77.45000000000024</v>
       </c>
       <c r="C24" t="n">
         <v>341.91</v>
@@ -5091,7 +5091,7 @@
         <v>23.32</v>
       </c>
       <c r="E24" t="n">
-        <v>204.17</v>
+        <v>129.3699999999994</v>
       </c>
       <c r="F24" t="n">
         <v>397.77</v>
@@ -5100,7 +5100,7 @@
         <v>22.88</v>
       </c>
       <c r="H24" t="n">
-        <v>1.44</v>
+        <v>0.6799999999999879</v>
       </c>
       <c r="I24" t="n">
         <v>2.65</v>
@@ -5136,7 +5136,7 @@
         <v>214.74</v>
       </c>
       <c r="T24" t="n">
-        <v>2.949999999999999</v>
+        <v>0.9499999999999995</v>
       </c>
       <c r="U24" t="n">
         <v>4.33</v>
@@ -5160,7 +5160,7 @@
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="n">
-        <v>6.94</v>
+        <v>0.190000000000045</v>
       </c>
       <c r="AE24" t="n">
         <v>13.75</v>
@@ -5190,7 +5190,7 @@
         <v>1262.84</v>
       </c>
       <c r="AP24" t="n">
-        <v>10.18</v>
+        <v>1.779999999999971</v>
       </c>
       <c r="AQ24" t="n">
         <v>20.87</v>
@@ -5211,7 +5211,7 @@
         <v>1440.07</v>
       </c>
       <c r="AY24" t="n">
-        <v>3.37</v>
+        <v>2.610000000000013</v>
       </c>
       <c r="AZ24" t="n">
         <v>5.14</v>
@@ -5229,7 +5229,7 @@
         <v>2354.93</v>
       </c>
       <c r="BE24" t="n">
-        <v>6.890000000000001</v>
+        <v>0.6100000000000252</v>
       </c>
       <c r="BF24" t="n">
         <v>12.85</v>
@@ -5331,7 +5331,7 @@
         <v>215.12</v>
       </c>
       <c r="T25" t="n">
-        <v>2.620000000000001</v>
+        <v>0.6700000000000019</v>
       </c>
       <c r="U25" t="n">
         <v>7.27</v>
@@ -5355,7 +5355,7 @@
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="n">
-        <v>0.4800000000000013</v>
+        <v>0.2899999999999563</v>
       </c>
       <c r="AE25" t="n">
         <v>22.06</v>
@@ -5385,7 +5385,7 @@
         <v>1289.82</v>
       </c>
       <c r="AP25" t="n">
-        <v>10.18</v>
+        <v>4.200000000000014</v>
       </c>
       <c r="AQ25" t="n">
         <v>32.6</v>
@@ -5406,7 +5406,7 @@
         <v>1475.52</v>
       </c>
       <c r="AY25" t="n">
-        <v>3.1</v>
+        <v>0.1699999999999959</v>
       </c>
       <c r="AZ25" t="n">
         <v>8.550000000000001</v>
@@ -5490,7 +5490,7 @@
         <v>22.66</v>
       </c>
       <c r="H26" t="n">
-        <v>1.71</v>
+        <v>0.51</v>
       </c>
       <c r="I26" t="n">
         <v>6.07</v>
@@ -5601,7 +5601,7 @@
         <v>1500.74</v>
       </c>
       <c r="AY26" t="n">
-        <v>2.65</v>
+        <v>2.480000000000004</v>
       </c>
       <c r="AZ26" t="n">
         <v>11.78</v>
@@ -5619,7 +5619,7 @@
         <v>2465.58</v>
       </c>
       <c r="BE26" t="n">
-        <v>0.7800000000000011</v>
+        <v>0.1500000000000021</v>
       </c>
       <c r="BF26" t="n">
         <v>29.4</v>
@@ -5676,7 +5676,7 @@
         <v>22.48</v>
       </c>
       <c r="E27" t="n">
-        <v>12.25999999999999</v>
+        <v>4.379999999999995</v>
       </c>
       <c r="F27" t="n">
         <v>1206.11</v>
@@ -5694,7 +5694,7 @@
         <v>6.07</v>
       </c>
       <c r="K27" t="n">
-        <v>0.8599999999999994</v>
+        <v>0.1600000000000002</v>
       </c>
       <c r="L27" t="n">
         <v>6.72</v>
@@ -5721,7 +5721,7 @@
         <v>223.91</v>
       </c>
       <c r="T27" t="n">
-        <v>2.239999999999998</v>
+        <v>0.720000000000002</v>
       </c>
       <c r="U27" t="n">
         <v>12.87</v>
@@ -5730,7 +5730,7 @@
         <v>0.55</v>
       </c>
       <c r="W27" t="n">
-        <v>2.090000000000012</v>
+        <v>0.3700000000000125</v>
       </c>
       <c r="X27" t="n">
         <v>49.79</v>
@@ -5745,7 +5745,7 @@
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="n">
-        <v>0.5599999999999987</v>
+        <v>0.2199999999999988</v>
       </c>
       <c r="AE27" t="n">
         <v>39.55</v>
@@ -5775,7 +5775,7 @@
         <v>1352.74</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.169999999999989</v>
+        <v>0.2099999999999882</v>
       </c>
       <c r="AQ27" t="n">
         <v>56.04</v>
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>184.75</v>
+        <v>162.5900000000004</v>
       </c>
       <c r="C28" t="n">
         <v>1301.51</v>
@@ -5871,7 +5871,7 @@
         <v>22.86</v>
       </c>
       <c r="E28" t="n">
-        <v>215.01</v>
+        <v>189.61</v>
       </c>
       <c r="F28" t="n">
         <v>1508.8</v>
@@ -5880,7 +5880,7 @@
         <v>21.94</v>
       </c>
       <c r="H28" t="n">
-        <v>1.66</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="I28" t="n">
         <v>9.99</v>
@@ -5889,7 +5889,7 @@
         <v>6.02</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7400000000000002</v>
+        <v>0.0700000000000002</v>
       </c>
       <c r="L28" t="n">
         <v>7.56</v>
@@ -5925,7 +5925,7 @@
         <v>8.42</v>
       </c>
       <c r="W28" t="n">
-        <v>10.31</v>
+        <v>4.529999999999953</v>
       </c>
       <c r="X28" t="n">
         <v>64.61</v>
@@ -5940,7 +5940,7 @@
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="n">
-        <v>0.2499999999999929</v>
+        <v>0.02999999999999409</v>
       </c>
       <c r="AE28" t="n">
         <v>49.93</v>
@@ -5970,7 +5970,7 @@
         <v>1376.72</v>
       </c>
       <c r="AP28" t="n">
-        <v>10.41</v>
+        <v>7.650000000000045</v>
       </c>
       <c r="AQ28" t="n">
         <v>68.77</v>
@@ -5991,7 +5991,7 @@
         <v>1558.34</v>
       </c>
       <c r="AY28" t="n">
-        <v>3.050000000000001</v>
+        <v>1.090000000000005</v>
       </c>
       <c r="AZ28" t="n">
         <v>18.77</v>
@@ -6009,7 +6009,7 @@
         <v>2572.15</v>
       </c>
       <c r="BE28" t="n">
-        <v>8.270000000000003</v>
+        <v>8.230000000000025</v>
       </c>
       <c r="BF28" t="n">
         <v>49.67</v>
@@ -6075,7 +6075,7 @@
         <v>22.81</v>
       </c>
       <c r="H29" t="n">
-        <v>1.48</v>
+        <v>0.24</v>
       </c>
       <c r="I29" t="n">
         <v>11.62</v>
@@ -6084,7 +6084,7 @@
         <v>4.9</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4100000000000001</v>
+        <v>0.1099999999999995</v>
       </c>
       <c r="L29" t="n">
         <v>8.58</v>
@@ -6135,7 +6135,7 @@
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="n">
-        <v>7.960000000000001</v>
+        <v>7.400000000000027</v>
       </c>
       <c r="AE29" t="n">
         <v>59.24</v>
@@ -6315,7 +6315,7 @@
         <v>7.5</v>
       </c>
       <c r="W30" t="n">
-        <v>1.190000000000001</v>
+        <v>0.9900000000000051</v>
       </c>
       <c r="X30" t="n">
         <v>89.34</v>
@@ -6330,7 +6330,7 @@
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="n">
-        <v>7.479999999999997</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="AE30" t="n">
         <v>67.88</v>
@@ -6360,7 +6360,7 @@
         <v>1408.85</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.7199999999999793</v>
+        <v>0.3999999999999364</v>
       </c>
       <c r="AQ30" t="n">
         <v>92.93000000000001</v>
@@ -6381,7 +6381,7 @@
         <v>1607.93</v>
       </c>
       <c r="AY30" t="n">
-        <v>3.120000000000001</v>
+        <v>2.760000000000001</v>
       </c>
       <c r="AZ30" t="n">
         <v>25.78</v>
@@ -6465,7 +6465,7 @@
         <v>22.42</v>
       </c>
       <c r="H31" t="n">
-        <v>0.140000000000001</v>
+        <v>0.01000000000000201</v>
       </c>
       <c r="I31" t="n">
         <v>15.3</v>
@@ -6474,7 +6474,7 @@
         <v>8</v>
       </c>
       <c r="K31" t="n">
-        <v>1.040000000000001</v>
+        <v>0.8400000000000052</v>
       </c>
       <c r="L31" t="n">
         <v>9.74</v>
@@ -6501,7 +6501,7 @@
         <v>234.88</v>
       </c>
       <c r="T31" t="n">
-        <v>0.109999999999999</v>
+        <v>0.06999999999999097</v>
       </c>
       <c r="U31" t="n">
         <v>25.43</v>
@@ -6510,7 +6510,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="W31" t="n">
-        <v>10.81</v>
+        <v>6.349999999999989</v>
       </c>
       <c r="X31" t="n">
         <v>102.62</v>
@@ -6525,7 +6525,7 @@
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="n">
-        <v>1.690000000000005</v>
+        <v>1.670000000000023</v>
       </c>
       <c r="AE31" t="n">
         <v>77.39</v>
@@ -6555,7 +6555,7 @@
         <v>1444.2</v>
       </c>
       <c r="AP31" t="n">
-        <v>10.83</v>
+        <v>8.430000000000147</v>
       </c>
       <c r="AQ31" t="n">
         <v>105.24</v>
@@ -6594,7 +6594,7 @@
         <v>2697.9</v>
       </c>
       <c r="BE31" t="n">
-        <v>7.75</v>
+        <v>0.550000000000012</v>
       </c>
       <c r="BF31" t="n">
         <v>77.61</v>
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>11.23999999999981</v>
+        <v>2.41999999999959</v>
       </c>
       <c r="C32" t="n">
         <v>2313.17</v>
@@ -6651,7 +6651,7 @@
         <v>24.18</v>
       </c>
       <c r="E32" t="n">
-        <v>14.9200000000001</v>
+        <v>3.279999999999859</v>
       </c>
       <c r="F32" t="n">
         <v>2682.19</v>
@@ -6660,7 +6660,7 @@
         <v>23.73</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02000000000000091</v>
+        <v>0.009999999999998899</v>
       </c>
       <c r="I32" t="n">
         <v>17.29</v>
@@ -6696,7 +6696,7 @@
         <v>240.02</v>
       </c>
       <c r="T32" t="n">
-        <v>2.530000000000001</v>
+        <v>2.150000000000017</v>
       </c>
       <c r="U32" t="n">
         <v>30.15</v>
@@ -6771,7 +6771,7 @@
         <v>1715.79</v>
       </c>
       <c r="AY32" t="n">
-        <v>2.890000000000004</v>
+        <v>0.3700000000000161</v>
       </c>
       <c r="AZ32" t="n">
         <v>34.54</v>
@@ -6837,7 +6837,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>178.8500000000004</v>
+        <v>155.9400000000017</v>
       </c>
       <c r="C33" t="n">
         <v>2599.04</v>
@@ -6846,7 +6846,7 @@
         <v>24.55</v>
       </c>
       <c r="E33" t="n">
-        <v>220.4299999999998</v>
+        <v>184.0299999999998</v>
       </c>
       <c r="F33" t="n">
         <v>3012.6</v>
@@ -6855,7 +6855,7 @@
         <v>24.11</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1799999999999982</v>
+        <v>0.1199999999999986</v>
       </c>
       <c r="I33" t="n">
         <v>19.45</v>
@@ -6864,7 +6864,7 @@
         <v>9.960000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>10.57</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="L33" t="n">
         <v>11.6</v>
@@ -6915,7 +6915,7 @@
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="n">
-        <v>9.930000000000007</v>
+        <v>5.250000000000015</v>
       </c>
       <c r="AE33" t="n">
         <v>99.56999999999999</v>
@@ -6945,7 +6945,7 @@
         <v>1518.54</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.8600000000000012</v>
+        <v>0.3200000000000021</v>
       </c>
       <c r="AQ33" t="n">
         <v>131.62</v>
@@ -6984,7 +6984,7 @@
         <v>2879.59</v>
       </c>
       <c r="BE33" t="n">
-        <v>0.5400000000000063</v>
+        <v>0.2200000000000131</v>
       </c>
       <c r="BF33" t="n">
         <v>97.47</v>
@@ -7050,7 +7050,7 @@
         <v>24.24</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4300000000000008</v>
+        <v>0.09000000000000541</v>
       </c>
       <c r="I34" t="n">
         <v>22.37</v>
@@ -7086,7 +7086,7 @@
         <v>225.64</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7100000000000009</v>
+        <v>0.340000000000003</v>
       </c>
       <c r="U34" t="n">
         <v>36.45</v>
@@ -7095,7 +7095,7 @@
         <v>14.74</v>
       </c>
       <c r="W34" t="n">
-        <v>13.59</v>
+        <v>3.15000000000003</v>
       </c>
       <c r="X34" t="n">
         <v>160.04</v>
@@ -7140,7 +7140,7 @@
         <v>1480.1</v>
       </c>
       <c r="AP34" t="n">
-        <v>6.07</v>
+        <v>4.249999999999993</v>
       </c>
       <c r="AQ34" t="n">
         <v>146.54</v>
@@ -7161,7 +7161,7 @@
         <v>1720.32</v>
       </c>
       <c r="AY34" t="n">
-        <v>1.31</v>
+        <v>0.7100000000000199</v>
       </c>
       <c r="AZ34" t="n">
         <v>41.8</v>
@@ -7179,7 +7179,7 @@
         <v>2860.73</v>
       </c>
       <c r="BE34" t="n">
-        <v>2.42</v>
+        <v>1.219999999999955</v>
       </c>
       <c r="BF34" t="n">
         <v>106.33</v>
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>196.78</v>
+        <v>75.7300000000004</v>
       </c>
       <c r="C35" t="n">
         <v>376.24</v>
@@ -7236,7 +7236,7 @@
         <v>25.46</v>
       </c>
       <c r="E35" t="n">
-        <v>225.6300000000001</v>
+        <v>96.4899999999999</v>
       </c>
       <c r="F35" t="n">
         <v>435.19</v>
@@ -7245,7 +7245,7 @@
         <v>24.49</v>
       </c>
       <c r="H35" t="n">
-        <v>1.35</v>
+        <v>0.4899999999999858</v>
       </c>
       <c r="I35" t="n">
         <v>2.73</v>
@@ -7281,7 +7281,7 @@
         <v>210.23</v>
       </c>
       <c r="T35" t="n">
-        <v>2.49</v>
+        <v>0.75999999999999</v>
       </c>
       <c r="U35" t="n">
         <v>4.6</v>
@@ -7290,7 +7290,7 @@
         <v>27.42</v>
       </c>
       <c r="W35" t="n">
-        <v>8.539999999999999</v>
+        <v>1.909999999999979</v>
       </c>
       <c r="X35" t="n">
         <v>17.39</v>
@@ -7305,7 +7305,7 @@
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="n">
-        <v>7.34</v>
+        <v>1.250000000000018</v>
       </c>
       <c r="AE35" t="n">
         <v>14.05</v>
@@ -7335,7 +7335,7 @@
         <v>1356</v>
       </c>
       <c r="AP35" t="n">
-        <v>10.02</v>
+        <v>3.949999999999999</v>
       </c>
       <c r="AQ35" t="n">
         <v>21.06</v>
@@ -7356,7 +7356,7 @@
         <v>1499.76</v>
       </c>
       <c r="AY35" t="n">
-        <v>2.87</v>
+        <v>0.399999999999995</v>
       </c>
       <c r="AZ35" t="n">
         <v>5.75</v>
@@ -7374,7 +7374,7 @@
         <v>2500.91</v>
       </c>
       <c r="BE35" t="n">
-        <v>6.67</v>
+        <v>0.7100000000000248</v>
       </c>
       <c r="BF35" t="n">
         <v>13.11</v>
@@ -7476,7 +7476,7 @@
         <v>220.94</v>
       </c>
       <c r="T36" t="n">
-        <v>2.120000000000001</v>
+        <v>0.3400000000000021</v>
       </c>
       <c r="U36" t="n">
         <v>7.79</v>
@@ -7500,7 +7500,7 @@
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="n">
-        <v>7.199999999999999</v>
+        <v>0.639999999999975</v>
       </c>
       <c r="AE36" t="n">
         <v>22.43</v>
@@ -7530,7 +7530,7 @@
         <v>1391.01</v>
       </c>
       <c r="AP36" t="n">
-        <v>9.759999999999998</v>
+        <v>1.86</v>
       </c>
       <c r="AQ36" t="n">
         <v>32.53</v>
@@ -7551,7 +7551,7 @@
         <v>1527.3</v>
       </c>
       <c r="AY36" t="n">
-        <v>2.53</v>
+        <v>0.1700000000000097</v>
       </c>
       <c r="AZ36" t="n">
         <v>9.49</v>
@@ -7617,7 +7617,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13.2500000000002</v>
+        <v>4.050000000000383</v>
       </c>
       <c r="C37" t="n">
         <v>909.52</v>
@@ -7626,7 +7626,7 @@
         <v>30.29</v>
       </c>
       <c r="E37" t="n">
-        <v>17</v>
+        <v>2.500000000000227</v>
       </c>
       <c r="F37" t="n">
         <v>1048.65</v>
@@ -7680,7 +7680,7 @@
         <v>27.62</v>
       </c>
       <c r="W37" t="n">
-        <v>1.720000000000001</v>
+        <v>0.150000000000001</v>
       </c>
       <c r="X37" t="n">
         <v>44.05</v>
@@ -7764,7 +7764,7 @@
         <v>2587</v>
       </c>
       <c r="BE37" t="n">
-        <v>0.6600000000000001</v>
+        <v>0.1799999999999997</v>
       </c>
       <c r="BF37" t="n">
         <v>29.06</v>
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.669999999999902</v>
+        <v>1.61999999999952</v>
       </c>
       <c r="C38" t="n">
         <v>1176.22</v>
@@ -7821,7 +7821,7 @@
         <v>28.87</v>
       </c>
       <c r="E38" t="n">
-        <v>8.399999999999977</v>
+        <v>3.399999999999523</v>
       </c>
       <c r="F38" t="n">
         <v>1350.58</v>
@@ -7830,7 +7830,7 @@
         <v>27.66</v>
       </c>
       <c r="H38" t="n">
-        <v>0.379999999999999</v>
+        <v>0.339999999999999</v>
       </c>
       <c r="I38" t="n">
         <v>7.88</v>
@@ -7839,7 +7839,7 @@
         <v>16.22</v>
       </c>
       <c r="K38" t="n">
-        <v>0.3900000000000006</v>
+        <v>0.03000000000000473</v>
       </c>
       <c r="L38" t="n">
         <v>6.39</v>
@@ -7866,7 +7866,7 @@
         <v>227.6</v>
       </c>
       <c r="T38" t="n">
-        <v>0.609999999999999</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="U38" t="n">
         <v>13.22</v>
@@ -7875,7 +7875,7 @@
         <v>24.13</v>
       </c>
       <c r="W38" t="n">
-        <v>0.3499999999999996</v>
+        <v>0.0499999999999976</v>
       </c>
       <c r="X38" t="n">
         <v>59.1</v>
@@ -7941,7 +7941,7 @@
         <v>1595.78</v>
       </c>
       <c r="AY38" t="n">
-        <v>0.629999999999999</v>
+        <v>0.02999999999999836</v>
       </c>
       <c r="AZ38" t="n">
         <v>15.88</v>
@@ -7959,7 +7959,7 @@
         <v>2629.58</v>
       </c>
       <c r="BE38" t="n">
-        <v>1.030000000000001</v>
+        <v>0.01000000000000142</v>
       </c>
       <c r="BF38" t="n">
         <v>38.3</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>211.2</v>
+        <v>192.5700000000008</v>
       </c>
       <c r="C39" t="n">
         <v>1454.58</v>
@@ -8016,7 +8016,7 @@
         <v>28.38</v>
       </c>
       <c r="E39" t="n">
-        <v>242.27</v>
+        <v>211.1700000000002</v>
       </c>
       <c r="F39" t="n">
         <v>1676.39</v>
@@ -8025,7 +8025,7 @@
         <v>27.36</v>
       </c>
       <c r="H39" t="n">
-        <v>1.530000000000001</v>
+        <v>0.07000000000000495</v>
       </c>
       <c r="I39" t="n">
         <v>10.17</v>
@@ -8034,7 +8034,7 @@
         <v>17.03</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1399999999999987</v>
+        <v>0.01999999999999501</v>
       </c>
       <c r="L39" t="n">
         <v>7.5</v>
@@ -8061,7 +8061,7 @@
         <v>236.63</v>
       </c>
       <c r="T39" t="n">
-        <v>2.4</v>
+        <v>0.8900000000000012</v>
       </c>
       <c r="U39" t="n">
         <v>16.82</v>
@@ -8070,7 +8070,7 @@
         <v>22.86</v>
       </c>
       <c r="W39" t="n">
-        <v>11.31999999999999</v>
+        <v>10.36999999999999</v>
       </c>
       <c r="X39" t="n">
         <v>73.67</v>
@@ -8085,7 +8085,7 @@
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="n">
-        <v>7.68</v>
+        <v>4.20000000000001</v>
       </c>
       <c r="AE39" t="n">
         <v>50.93</v>
@@ -8115,7 +8115,7 @@
         <v>1463.29</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.6099999999999994</v>
+        <v>0.1499999999999986</v>
       </c>
       <c r="AQ39" t="n">
         <v>68.83</v>
@@ -8136,7 +8136,7 @@
         <v>1608.41</v>
       </c>
       <c r="AY39" t="n">
-        <v>2.720000000000002</v>
+        <v>1.700000000000008</v>
       </c>
       <c r="AZ39" t="n">
         <v>19.9</v>
@@ -8154,7 +8154,7 @@
         <v>2675.14</v>
       </c>
       <c r="BE39" t="n">
-        <v>8.269999999999996</v>
+        <v>6.309999999999992</v>
       </c>
       <c r="BF39" t="n">
         <v>47.23</v>
@@ -8202,7 +8202,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>211.0699999999999</v>
+        <v>5.539999999999822</v>
       </c>
       <c r="C40" t="n">
         <v>1723.8</v>
@@ -8211,7 +8211,7 @@
         <v>28.24</v>
       </c>
       <c r="E40" t="n">
-        <v>240.72</v>
+        <v>6.849999999999994</v>
       </c>
       <c r="F40" t="n">
         <v>1978.73</v>
@@ -8229,7 +8229,7 @@
         <v>15.26</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4300000000000006</v>
+        <v>0.01000000000000448</v>
       </c>
       <c r="L40" t="n">
         <v>8.609999999999999</v>
@@ -8265,7 +8265,7 @@
         <v>20.32</v>
       </c>
       <c r="W40" t="n">
-        <v>10.48</v>
+        <v>0.06000000000001116</v>
       </c>
       <c r="X40" t="n">
         <v>87.81999999999999</v>
@@ -8280,7 +8280,7 @@
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="n">
-        <v>7.399999999999999</v>
+        <v>0.5899999999999963</v>
       </c>
       <c r="AE40" t="n">
         <v>59.5</v>
@@ -8310,7 +8310,7 @@
         <v>1487.82</v>
       </c>
       <c r="AP40" t="n">
-        <v>9.359999999999999</v>
+        <v>8.070000000000004</v>
       </c>
       <c r="AQ40" t="n">
         <v>82.36</v>
@@ -8349,7 +8349,7 @@
         <v>2722.46</v>
       </c>
       <c r="BE40" t="n">
-        <v>7.050000000000004</v>
+        <v>0.1800000000000104</v>
       </c>
       <c r="BF40" t="n">
         <v>56.97</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>14.9200000000001</v>
+        <v>3.840000000000454</v>
       </c>
       <c r="C41" t="n">
         <v>2001.76</v>
@@ -8406,7 +8406,7 @@
         <v>28.71</v>
       </c>
       <c r="E41" t="n">
-        <v>25.53999999999982</v>
+        <v>11.83999999999984</v>
       </c>
       <c r="F41" t="n">
         <v>2296.73</v>
@@ -8415,7 +8415,7 @@
         <v>27.65</v>
       </c>
       <c r="H41" t="n">
-        <v>1.58</v>
+        <v>1.180000000000008</v>
       </c>
       <c r="I41" t="n">
         <v>13.8</v>
@@ -8424,7 +8424,7 @@
         <v>16.46</v>
       </c>
       <c r="K41" t="n">
-        <v>6.63</v>
+        <v>5.749999999999989</v>
       </c>
       <c r="L41" t="n">
         <v>9.02</v>
@@ -8451,7 +8451,7 @@
         <v>238.96</v>
       </c>
       <c r="T41" t="n">
-        <v>2.620000000000001</v>
+        <v>1.500000000000001</v>
       </c>
       <c r="U41" t="n">
         <v>22.47</v>
@@ -8475,7 +8475,7 @@
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="n">
-        <v>1.810000000000002</v>
+        <v>0.6300000000000097</v>
       </c>
       <c r="AE41" t="n">
         <v>70.28</v>
@@ -8526,7 +8526,7 @@
         <v>1649.46</v>
       </c>
       <c r="AY41" t="n">
-        <v>3.190000000000001</v>
+        <v>1.230000000000021</v>
       </c>
       <c r="AZ41" t="n">
         <v>26.58</v>
@@ -8544,7 +8544,7 @@
         <v>2752.76</v>
       </c>
       <c r="BE41" t="n">
-        <v>0.9899999999999949</v>
+        <v>0.8099999999999845</v>
       </c>
       <c r="BF41" t="n">
         <v>65.8</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>11.70999999999998</v>
+        <v>2.329999999999703</v>
       </c>
       <c r="C42" t="n">
         <v>2282.55</v>
@@ -8655,7 +8655,7 @@
         <v>18.47</v>
       </c>
       <c r="W42" t="n">
-        <v>2.04000000000001</v>
+        <v>0.4100000000000108</v>
       </c>
       <c r="X42" t="n">
         <v>117.71</v>
@@ -8670,7 +8670,7 @@
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="n">
-        <v>8.819999999999993</v>
+        <v>2.16999999999998</v>
       </c>
       <c r="AE42" t="n">
         <v>80.65000000000001</v>
@@ -8721,7 +8721,7 @@
         <v>1663.4</v>
       </c>
       <c r="AY42" t="n">
-        <v>3.109999999999999</v>
+        <v>0.409999999999993</v>
       </c>
       <c r="AZ42" t="n">
         <v>30.37</v>
@@ -8739,7 +8739,7 @@
         <v>2782.46</v>
       </c>
       <c r="BE42" t="n">
-        <v>7.670000000000002</v>
+        <v>3.710000000000022</v>
       </c>
       <c r="BF42" t="n">
         <v>75.76000000000001</v>
@@ -8787,7 +8787,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>14.15000000000012</v>
+        <v>2.44000000000014</v>
       </c>
       <c r="C43" t="n">
         <v>2574.49</v>
@@ -8796,7 +8796,7 @@
         <v>27.52</v>
       </c>
       <c r="E43" t="n">
-        <v>16.76999999999998</v>
+        <v>5.269999999999182</v>
       </c>
       <c r="F43" t="n">
         <v>2957.43</v>
@@ -8805,7 +8805,7 @@
         <v>26.52</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5199999999999989</v>
+        <v>0.3199999999999952</v>
       </c>
       <c r="I43" t="n">
         <v>17.73</v>
@@ -8814,7 +8814,7 @@
         <v>17.73</v>
       </c>
       <c r="K43" t="n">
-        <v>7.58</v>
+        <v>3.860000000000001</v>
       </c>
       <c r="L43" t="n">
         <v>10.31</v>
@@ -8841,7 +8841,7 @@
         <v>241.9</v>
       </c>
       <c r="T43" t="n">
-        <v>2.690000000000001</v>
+        <v>2.090000000000005</v>
       </c>
       <c r="U43" t="n">
         <v>28.98</v>
@@ -8850,7 +8850,7 @@
         <v>19.95</v>
       </c>
       <c r="W43" t="n">
-        <v>2.199999999999982</v>
+        <v>0.1599999999999722</v>
       </c>
       <c r="X43" t="n">
         <v>132.8</v>
@@ -8895,7 +8895,7 @@
         <v>1548.18</v>
       </c>
       <c r="AP43" t="n">
-        <v>11.28999999999999</v>
+        <v>7.929999999999948</v>
       </c>
       <c r="AQ43" t="n">
         <v>117.79</v>
@@ -8982,7 +8982,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>45.40999999999971</v>
+        <v>23.93999999999917</v>
       </c>
       <c r="C44" t="n">
         <v>2897.85</v>
@@ -8991,7 +8991,7 @@
         <v>27.61</v>
       </c>
       <c r="E44" t="n">
-        <v>64.03999999999951</v>
+        <v>25.71000000000158</v>
       </c>
       <c r="F44" t="n">
         <v>3329.41</v>
@@ -9000,7 +9000,7 @@
         <v>26.77</v>
       </c>
       <c r="H44" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.170000000000001</v>
       </c>
       <c r="I44" t="n">
         <v>19.99</v>
@@ -9009,7 +9009,7 @@
         <v>16.15</v>
       </c>
       <c r="K44" t="n">
-        <v>8.289999999999999</v>
+        <v>0.7099999999999991</v>
       </c>
       <c r="L44" t="n">
         <v>10.38</v>
@@ -9045,7 +9045,7 @@
         <v>19.63</v>
       </c>
       <c r="W44" t="n">
-        <v>8.240000000000009</v>
+        <v>5.56000000000011</v>
       </c>
       <c r="X44" t="n">
         <v>153.95</v>
@@ -9060,7 +9060,7 @@
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="n">
-        <v>4.70999999999999</v>
+        <v>0.119999999999939</v>
       </c>
       <c r="AE44" t="n">
         <v>103.67</v>
@@ -9111,7 +9111,7 @@
         <v>1730.22</v>
       </c>
       <c r="AY44" t="n">
-        <v>1.239999999999998</v>
+        <v>1.19999999999999</v>
       </c>
       <c r="AZ44" t="n">
         <v>37.7</v>
@@ -9129,7 +9129,7 @@
         <v>2914.17</v>
       </c>
       <c r="BE44" t="n">
-        <v>1.359999999999998</v>
+        <v>0.1099999999999981</v>
       </c>
       <c r="BF44" t="n">
         <v>94.23999999999999</v>
@@ -9195,7 +9195,7 @@
         <v>25</v>
       </c>
       <c r="H45" t="n">
-        <v>2.28</v>
+        <v>1.079999999999997</v>
       </c>
       <c r="I45" t="n">
         <v>23.17</v>
@@ -9204,7 +9204,7 @@
         <v>15.56</v>
       </c>
       <c r="K45" t="n">
-        <v>3.19</v>
+        <v>1.060000000000003</v>
       </c>
       <c r="L45" t="n">
         <v>11.3</v>
@@ -9231,7 +9231,7 @@
         <v>247.86</v>
       </c>
       <c r="T45" t="n">
-        <v>3.97</v>
+        <v>1.250000000000008</v>
       </c>
       <c r="U45" t="n">
         <v>36.53</v>
@@ -9240,7 +9240,7 @@
         <v>18.22</v>
       </c>
       <c r="W45" t="n">
-        <v>14.81</v>
+        <v>0.5299999999999638</v>
       </c>
       <c r="X45" t="n">
         <v>183.27</v>
@@ -9255,7 +9255,7 @@
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="n">
-        <v>12</v>
+        <v>2.340000000000142</v>
       </c>
       <c r="AE45" t="n">
         <v>118.81</v>
@@ -9285,7 +9285,7 @@
         <v>1599.87</v>
       </c>
       <c r="AP45" t="n">
-        <v>17.99</v>
+        <v>2.22999999999994</v>
       </c>
       <c r="AQ45" t="n">
         <v>151.31</v>
@@ -9324,7 +9324,7 @@
         <v>2983.74</v>
       </c>
       <c r="BE45" t="n">
-        <v>0.4100000000000001</v>
+        <v>0.08000000000000579</v>
       </c>
       <c r="BF45" t="n">
         <v>109.83</v>
@@ -9372,7 +9372,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>174.47</v>
+        <v>133.3499999999992</v>
       </c>
       <c r="C46" t="n">
         <v>385.45</v>
@@ -9381,7 +9381,7 @@
         <v>25.33</v>
       </c>
       <c r="E46" t="n">
-        <v>199.52</v>
+        <v>176.5199999999988</v>
       </c>
       <c r="F46" t="n">
         <v>446.44</v>
@@ -9426,7 +9426,7 @@
         <v>203.11</v>
       </c>
       <c r="T46" t="n">
-        <v>2.16</v>
+        <v>0.9099999999999921</v>
       </c>
       <c r="U46" t="n">
         <v>4.48</v>
@@ -9435,7 +9435,7 @@
         <v>12.85</v>
       </c>
       <c r="W46" t="n">
-        <v>10.08</v>
+        <v>2.450000000000081</v>
       </c>
       <c r="X46" t="n">
         <v>17.12</v>
@@ -9450,7 +9450,7 @@
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="n">
-        <v>6.73</v>
+        <v>0.1599999999998833</v>
       </c>
       <c r="AE46" t="n">
         <v>13.39</v>
@@ -9480,7 +9480,7 @@
         <v>1380.02</v>
       </c>
       <c r="AP46" t="n">
-        <v>8.560000000000002</v>
+        <v>4.100000000000122</v>
       </c>
       <c r="AQ46" t="n">
         <v>20.69</v>
@@ -9501,7 +9501,7 @@
         <v>1503.57</v>
       </c>
       <c r="AY46" t="n">
-        <v>2.53</v>
+        <v>0.2499999999999993</v>
       </c>
       <c r="AZ46" t="n">
         <v>5.53</v>
@@ -9519,7 +9519,7 @@
         <v>2518.82</v>
       </c>
       <c r="BE46" t="n">
-        <v>5.56</v>
+        <v>4.249999999999993</v>
       </c>
       <c r="BF46" t="n">
         <v>12.89</v>
@@ -9621,7 +9621,7 @@
         <v>200.23</v>
       </c>
       <c r="T47" t="n">
-        <v>1.71</v>
+        <v>0.8000000000000078</v>
       </c>
       <c r="U47" t="n">
         <v>7.18</v>
@@ -9645,7 +9645,7 @@
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="n">
-        <v>6.469999999999999</v>
+        <v>3.850000000000035</v>
       </c>
       <c r="AE47" t="n">
         <v>23.39</v>
@@ -9675,7 +9675,7 @@
         <v>1349.87</v>
       </c>
       <c r="AP47" t="n">
-        <v>7.84</v>
+        <v>1.509999999999938</v>
       </c>
       <c r="AQ47" t="n">
         <v>31.28</v>
@@ -9696,7 +9696,7 @@
         <v>1466.38</v>
       </c>
       <c r="AY47" t="n">
-        <v>2.05</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="AZ47" t="n">
         <v>8.85</v>
@@ -9762,7 +9762,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>191.05</v>
+        <v>116.53</v>
       </c>
       <c r="C48" t="n">
         <v>831.45</v>
@@ -9780,7 +9780,7 @@
         <v>22.58</v>
       </c>
       <c r="H48" t="n">
-        <v>1.02</v>
+        <v>0.25</v>
       </c>
       <c r="I48" t="n">
         <v>5.95</v>
@@ -9825,7 +9825,7 @@
         <v>21.43</v>
       </c>
       <c r="W48" t="n">
-        <v>10.69</v>
+        <v>8.01</v>
       </c>
       <c r="X48" t="n">
         <v>40.09</v>
@@ -9891,7 +9891,7 @@
         <v>1421.02</v>
       </c>
       <c r="AY48" t="n">
-        <v>0.660000000000001</v>
+        <v>0.4800000000000013</v>
       </c>
       <c r="AZ48" t="n">
         <v>11.6</v>
@@ -9909,7 +9909,7 @@
         <v>2345.86</v>
       </c>
       <c r="BE48" t="n">
-        <v>0.5400000000000027</v>
+        <v>0.1800000000000067</v>
       </c>
       <c r="BF48" t="n">
         <v>26.8</v>
@@ -9966,7 +9966,7 @@
         <v>25.3</v>
       </c>
       <c r="E49" t="n">
-        <v>30.15000000000009</v>
+        <v>23.94999999999969</v>
       </c>
       <c r="F49" t="n">
         <v>1244.26</v>
@@ -9975,7 +9975,7 @@
         <v>24.3</v>
       </c>
       <c r="H49" t="n">
-        <v>0.54</v>
+        <v>0.03999999999999998</v>
       </c>
       <c r="I49" t="n">
         <v>7.65</v>
@@ -9984,7 +9984,7 @@
         <v>24.8</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5900000000000012</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="L49" t="n">
         <v>7.48</v>
@@ -10011,7 +10011,7 @@
         <v>200.28</v>
       </c>
       <c r="T49" t="n">
-        <v>0.6499999999999981</v>
+        <v>0.2199999999999971</v>
       </c>
       <c r="U49" t="n">
         <v>12.19</v>
@@ -10020,7 +10020,7 @@
         <v>22.14</v>
       </c>
       <c r="W49" t="n">
-        <v>10.25</v>
+        <v>0.2300000000000004</v>
       </c>
       <c r="X49" t="n">
         <v>52.14</v>
@@ -10035,7 +10035,7 @@
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="n">
-        <v>1.690000000000001</v>
+        <v>0.8099999999999916</v>
       </c>
       <c r="AE49" t="n">
         <v>37.26</v>
@@ -10086,7 +10086,7 @@
         <v>1477.12</v>
       </c>
       <c r="AY49" t="n">
-        <v>0.6399999999999992</v>
+        <v>0.06999999999999806</v>
       </c>
       <c r="AZ49" t="n">
         <v>15.31</v>
@@ -10104,7 +10104,7 @@
         <v>2428.83</v>
       </c>
       <c r="BE49" t="n">
-        <v>1.869999999999997</v>
+        <v>0.2499999999999799</v>
       </c>
       <c r="BF49" t="n">
         <v>33.6</v>
@@ -10152,7 +10152,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>205.0699999999999</v>
+        <v>91.8299999999999</v>
       </c>
       <c r="C50" t="n">
         <v>1369.8</v>
@@ -10161,7 +10161,7 @@
         <v>26.19</v>
       </c>
       <c r="E50" t="n">
-        <v>239.04</v>
+        <v>127.7400000000002</v>
       </c>
       <c r="F50" t="n">
         <v>1570.61</v>
@@ -10170,7 +10170,7 @@
         <v>25.31</v>
       </c>
       <c r="H50" t="n">
-        <v>1.55</v>
+        <v>0.14</v>
       </c>
       <c r="I50" t="n">
         <v>10.1</v>
@@ -10179,7 +10179,7 @@
         <v>31.34</v>
       </c>
       <c r="K50" t="n">
-        <v>0.6599999999999993</v>
+        <v>0.06999999999999407</v>
       </c>
       <c r="L50" t="n">
         <v>9.09</v>
@@ -10206,7 +10206,7 @@
         <v>203.39</v>
       </c>
       <c r="T50" t="n">
-        <v>2.030000000000001</v>
+        <v>0.7200000000000117</v>
       </c>
       <c r="U50" t="n">
         <v>15.29</v>
@@ -10215,7 +10215,7 @@
         <v>19.73</v>
       </c>
       <c r="W50" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.4499999999999993</v>
       </c>
       <c r="X50" t="n">
         <v>65.76000000000001</v>
@@ -10230,7 +10230,7 @@
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="n">
-        <v>6.879999999999995</v>
+        <v>1.440000000000003</v>
       </c>
       <c r="AE50" t="n">
         <v>47.9</v>
@@ -10260,7 +10260,7 @@
         <v>1373.24</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.6199999999999957</v>
+        <v>0.1799999999999696</v>
       </c>
       <c r="AQ50" t="n">
         <v>62.9</v>
@@ -10281,7 +10281,7 @@
         <v>1502.79</v>
       </c>
       <c r="AY50" t="n">
-        <v>2.25</v>
+        <v>0.3300000000000025</v>
       </c>
       <c r="AZ50" t="n">
         <v>18.56</v>
@@ -10299,7 +10299,7 @@
         <v>2476.49</v>
       </c>
       <c r="BE50" t="n">
-        <v>7.509999999999998</v>
+        <v>2.910000000000031</v>
       </c>
       <c r="BF50" t="n">
         <v>43.73</v>
@@ -10365,7 +10365,7 @@
         <v>25.08</v>
       </c>
       <c r="H51" t="n">
-        <v>1.52</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I51" t="n">
         <v>11.9</v>
@@ -10374,7 +10374,7 @@
         <v>28.79</v>
       </c>
       <c r="K51" t="n">
-        <v>0.4900000000000002</v>
+        <v>0.28000000000001</v>
       </c>
       <c r="L51" t="n">
         <v>9.23</v>
@@ -10455,7 +10455,7 @@
         <v>1407.22</v>
       </c>
       <c r="AP51" t="n">
-        <v>8.949999999999989</v>
+        <v>7.130000000000045</v>
       </c>
       <c r="AQ51" t="n">
         <v>74.89</v>
@@ -10476,7 +10476,7 @@
         <v>1522.16</v>
       </c>
       <c r="AY51" t="n">
-        <v>0.8099999999999992</v>
+        <v>0.4799999999999967</v>
       </c>
       <c r="AZ51" t="n">
         <v>21.82</v>
@@ -10494,7 +10494,7 @@
         <v>2521.54</v>
       </c>
       <c r="BE51" t="n">
-        <v>6.660000000000004</v>
+        <v>1.020000000000003</v>
       </c>
       <c r="BF51" t="n">
         <v>50.65</v>
@@ -10542,7 +10542,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>16.63999999999962</v>
+        <v>1.729999999998773</v>
       </c>
       <c r="C52" t="n">
         <v>1893.91</v>
@@ -10551,7 +10551,7 @@
         <v>26.21</v>
       </c>
       <c r="E52" t="n">
-        <v>13.33000000000013</v>
+        <v>6.480000000000221</v>
       </c>
       <c r="F52" t="n">
         <v>2169.85</v>
@@ -10560,7 +10560,7 @@
         <v>24.82</v>
       </c>
       <c r="H52" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="I52" t="n">
         <v>13.6</v>
@@ -10569,7 +10569,7 @@
         <v>26.39</v>
       </c>
       <c r="K52" t="n">
-        <v>0.4100000000000001</v>
+        <v>0.05999999999999467</v>
       </c>
       <c r="L52" t="n">
         <v>10.37</v>
@@ -10596,7 +10596,7 @@
         <v>209.86</v>
       </c>
       <c r="T52" t="n">
-        <v>2.169999999999998</v>
+        <v>0.2800000000000009</v>
       </c>
       <c r="U52" t="n">
         <v>20.43</v>
@@ -10620,7 +10620,7 @@
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="n">
-        <v>2.390000000000008</v>
+        <v>0.4999999999999976</v>
       </c>
       <c r="AE52" t="n">
         <v>66.48999999999999</v>
@@ -10671,7 +10671,7 @@
         <v>1548.75</v>
       </c>
       <c r="AY52" t="n">
-        <v>2.949999999999999</v>
+        <v>0.5200000000000018</v>
       </c>
       <c r="AZ52" t="n">
         <v>25.29</v>
@@ -10689,7 +10689,7 @@
         <v>2562.53</v>
       </c>
       <c r="BE52" t="n">
-        <v>1.539999999999999</v>
+        <v>0.519999999999996</v>
       </c>
       <c r="BF52" t="n">
         <v>59</v>
@@ -10737,7 +10737,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>224.77</v>
+        <v>188.0300000000032</v>
       </c>
       <c r="C53" t="n">
         <v>2172.66</v>
@@ -10755,7 +10755,7 @@
         <v>24.89</v>
       </c>
       <c r="H53" t="n">
-        <v>1.58</v>
+        <v>0.6200000000000001</v>
       </c>
       <c r="I53" t="n">
         <v>15.72</v>
@@ -10791,7 +10791,7 @@
         <v>214.27</v>
       </c>
       <c r="T53" t="n">
-        <v>0.2900000000000027</v>
+        <v>0.01000000000000179</v>
       </c>
       <c r="U53" t="n">
         <v>23.52</v>
@@ -10800,7 +10800,7 @@
         <v>19.82</v>
       </c>
       <c r="W53" t="n">
-        <v>0.8400000000000194</v>
+        <v>0.680000000000101</v>
       </c>
       <c r="X53" t="n">
         <v>110.82</v>
@@ -10815,7 +10815,7 @@
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="n">
-        <v>8.340000000000003</v>
+        <v>2.559999999999992</v>
       </c>
       <c r="AE53" t="n">
         <v>76.36</v>
@@ -10884,7 +10884,7 @@
         <v>2605.82</v>
       </c>
       <c r="BE53" t="n">
-        <v>6.960000000000001</v>
+        <v>1.820000000000008</v>
       </c>
       <c r="BF53" t="n">
         <v>68.65000000000001</v>
@@ -10941,7 +10941,7 @@
         <v>25.58</v>
       </c>
       <c r="E54" t="n">
-        <v>11.3100000000004</v>
+        <v>3.790000000000873</v>
       </c>
       <c r="F54" t="n">
         <v>2815</v>
@@ -10959,7 +10959,7 @@
         <v>26.31</v>
       </c>
       <c r="K54" t="n">
-        <v>0.3099999999999987</v>
+        <v>0.08999999999999803</v>
       </c>
       <c r="L54" t="n">
         <v>12.23</v>
@@ -10995,7 +10995,7 @@
         <v>19.56</v>
       </c>
       <c r="W54" t="n">
-        <v>3.589999999999991</v>
+        <v>0.4699999999997915</v>
       </c>
       <c r="X54" t="n">
         <v>128.14</v>
@@ -11040,7 +11040,7 @@
         <v>1464.71</v>
       </c>
       <c r="AP54" t="n">
-        <v>10.5</v>
+        <v>6.540000000000042</v>
       </c>
       <c r="AQ54" t="n">
         <v>110.89</v>
@@ -11061,7 +11061,7 @@
         <v>1598.27</v>
       </c>
       <c r="AY54" t="n">
-        <v>2.73</v>
+        <v>2.569999999999988</v>
       </c>
       <c r="AZ54" t="n">
         <v>33.27</v>
@@ -11136,7 +11136,7 @@
         <v>25.74</v>
       </c>
       <c r="E55" t="n">
-        <v>23.81999999999971</v>
+        <v>3.079999999998792</v>
       </c>
       <c r="F55" t="n">
         <v>3161.87</v>
@@ -11145,7 +11145,7 @@
         <v>24.92</v>
       </c>
       <c r="H55" t="n">
-        <v>1.859999999999999</v>
+        <v>0.7399999999999951</v>
       </c>
       <c r="I55" t="n">
         <v>21.02</v>
@@ -11154,7 +11154,7 @@
         <v>31.7</v>
       </c>
       <c r="K55" t="n">
-        <v>1.300000000000002</v>
+        <v>0.7200000000000091</v>
       </c>
       <c r="L55" t="n">
         <v>12.27</v>
@@ -11181,7 +11181,7 @@
         <v>219.37</v>
       </c>
       <c r="T55" t="n">
-        <v>0.4800000000000004</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="U55" t="n">
         <v>29.34</v>
@@ -11190,7 +11190,7 @@
         <v>18.74</v>
       </c>
       <c r="W55" t="n">
-        <v>6.159999999999997</v>
+        <v>0.620000000000074</v>
       </c>
       <c r="X55" t="n">
         <v>149.53</v>
@@ -11205,7 +11205,7 @@
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="n">
-        <v>4.920000000000002</v>
+        <v>1.320000000000037</v>
       </c>
       <c r="AE55" t="n">
         <v>99.13</v>
@@ -11274,7 +11274,7 @@
         <v>2741.88</v>
       </c>
       <c r="BE55" t="n">
-        <v>4.920000000000002</v>
+        <v>3.92000000000003</v>
       </c>
       <c r="BF55" t="n">
         <v>87.15000000000001</v>
@@ -11322,7 +11322,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>284.4400000000001</v>
+        <v>246.1200000000005</v>
       </c>
       <c r="C56" t="n">
         <v>2813.1</v>
@@ -11331,7 +11331,7 @@
         <v>28.04</v>
       </c>
       <c r="E56" t="n">
-        <v>314.3600000000003</v>
+        <v>271.8700000000037</v>
       </c>
       <c r="F56" t="n">
         <v>3262.31</v>
@@ -11340,7 +11340,7 @@
         <v>27.69</v>
       </c>
       <c r="H56" t="n">
-        <v>1.160000000000001</v>
+        <v>0.140000000000005</v>
       </c>
       <c r="I56" t="n">
         <v>26.09</v>
@@ -11349,7 +11349,7 @@
         <v>46.41</v>
       </c>
       <c r="K56" t="n">
-        <v>1.779999999999999</v>
+        <v>0.4799999999999969</v>
       </c>
       <c r="L56" t="n">
         <v>11.89</v>
@@ -11376,7 +11376,7 @@
         <v>189.86</v>
       </c>
       <c r="T56" t="n">
-        <v>2.66</v>
+        <v>1.7</v>
       </c>
       <c r="U56" t="n">
         <v>29.9</v>
@@ -11385,7 +11385,7 @@
         <v>18.7</v>
       </c>
       <c r="W56" t="n">
-        <v>6.580000000000004</v>
+        <v>0.420000000000007</v>
       </c>
       <c r="X56" t="n">
         <v>166.59</v>
@@ -11400,7 +11400,7 @@
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="n">
-        <v>4.969999999999999</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="AE56" t="n">
         <v>108.29</v>
@@ -11430,7 +11430,7 @@
         <v>1354.07</v>
       </c>
       <c r="AP56" t="n">
-        <v>9.330000000000004</v>
+        <v>2.810000000000008</v>
       </c>
       <c r="AQ56" t="n">
         <v>132.17</v>
@@ -11451,7 +11451,7 @@
         <v>1542.49</v>
       </c>
       <c r="AY56" t="n">
-        <v>3.94</v>
+        <v>3.58</v>
       </c>
       <c r="AZ56" t="n">
         <v>36.35</v>
@@ -11544,7 +11544,7 @@
         <v>18.87</v>
       </c>
       <c r="K57" t="n">
-        <v>1.03</v>
+        <v>0.07000000000000628</v>
       </c>
       <c r="L57" t="n">
         <v>3.98</v>
@@ -11571,7 +11571,7 @@
         <v>173.38</v>
       </c>
       <c r="T57" t="n">
-        <v>1.79</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="U57" t="n">
         <v>4.23</v>
@@ -11580,7 +11580,7 @@
         <v>34.71</v>
       </c>
       <c r="W57" t="n">
-        <v>8.17</v>
+        <v>0.329999999999975</v>
       </c>
       <c r="X57" t="n">
         <v>19.08</v>
@@ -11595,7 +11595,7 @@
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="n">
-        <v>5.859999999999999</v>
+        <v>0.7400000000000091</v>
       </c>
       <c r="AE57" t="n">
         <v>13.41</v>
@@ -11625,7 +11625,7 @@
         <v>1215.41</v>
       </c>
       <c r="AP57" t="n">
-        <v>7.290000000000001</v>
+        <v>1.669999999999985</v>
       </c>
       <c r="AQ57" t="n">
         <v>18.36</v>
@@ -11664,7 +11664,7 @@
         <v>2215.35</v>
       </c>
       <c r="BE57" t="n">
-        <v>4.119999999999999</v>
+        <v>0.3700000000000014</v>
       </c>
       <c r="BF57" t="n">
         <v>10.63</v>
@@ -11739,7 +11739,7 @@
         <v>20.91</v>
       </c>
       <c r="K58" t="n">
-        <v>0.9299999999999997</v>
+        <v>0.3099999999999903</v>
       </c>
       <c r="L58" t="n">
         <v>4.71</v>
@@ -11775,7 +11775,7 @@
         <v>26.37</v>
       </c>
       <c r="W58" t="n">
-        <v>1.389999999999999</v>
+        <v>0.22000000000001</v>
       </c>
       <c r="X58" t="n">
         <v>31.88</v>
@@ -11925,7 +11925,7 @@
         <v>27.48</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8600000000000003</v>
+        <v>0.2199999999999998</v>
       </c>
       <c r="I59" t="n">
         <v>6.95</v>
@@ -11934,7 +11934,7 @@
         <v>27.29</v>
       </c>
       <c r="K59" t="n">
-        <v>0.6800000000000006</v>
+        <v>0.300000000000004</v>
       </c>
       <c r="L59" t="n">
         <v>4.74</v>
@@ -11970,7 +11970,7 @@
         <v>26.07</v>
       </c>
       <c r="W59" t="n">
-        <v>1.780000000000001</v>
+        <v>0.1699999999999919</v>
       </c>
       <c r="X59" t="n">
         <v>45.36</v>
@@ -12054,7 +12054,7 @@
         <v>2197.51</v>
       </c>
       <c r="BE59" t="n">
-        <v>1.899999999999999</v>
+        <v>1.339999999999991</v>
       </c>
       <c r="BF59" t="n">
         <v>20.66</v>
@@ -12102,7 +12102,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>29.62</v>
+        <v>10.77999999999996</v>
       </c>
       <c r="C60" t="n">
         <v>1103.03</v>
@@ -12111,7 +12111,7 @@
         <v>27.57</v>
       </c>
       <c r="E60" t="n">
-        <v>24.49999999999991</v>
+        <v>1.25999999999995</v>
       </c>
       <c r="F60" t="n">
         <v>1258.82</v>
@@ -12120,7 +12120,7 @@
         <v>27.69</v>
       </c>
       <c r="H60" t="n">
-        <v>0.6399999999999997</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="I60" t="n">
         <v>7.88</v>
@@ -12156,7 +12156,7 @@
         <v>176.48</v>
       </c>
       <c r="T60" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="U60" t="n">
         <v>10.41</v>
@@ -12165,7 +12165,7 @@
         <v>25.88</v>
       </c>
       <c r="W60" t="n">
-        <v>9.719999999999999</v>
+        <v>6.769999999999991</v>
       </c>
       <c r="X60" t="n">
         <v>60.38</v>
@@ -12180,7 +12180,7 @@
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="n">
-        <v>1.690000000000001</v>
+        <v>0.2500000000000102</v>
       </c>
       <c r="AE60" t="n">
         <v>37.81</v>
@@ -12231,7 +12231,7 @@
         <v>1340.51</v>
       </c>
       <c r="AY60" t="n">
-        <v>0.2999999999999989</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AZ60" t="n">
         <v>13.22</v>
@@ -12297,7 +12297,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>203.72</v>
+        <v>113.5</v>
       </c>
       <c r="C61" t="n">
         <v>1391.29</v>
@@ -12306,7 +12306,7 @@
         <v>27.35</v>
       </c>
       <c r="E61" t="n">
-        <v>235.3700000000001</v>
+        <v>195.4700000000003</v>
       </c>
       <c r="F61" t="n">
         <v>1584.82</v>
@@ -12315,7 +12315,7 @@
         <v>27.88</v>
       </c>
       <c r="H61" t="n">
-        <v>0.390000000000001</v>
+        <v>0.2900000000000014</v>
       </c>
       <c r="I61" t="n">
         <v>10.01</v>
@@ -12324,7 +12324,7 @@
         <v>28.01</v>
       </c>
       <c r="K61" t="n">
-        <v>0.4500000000000002</v>
+        <v>0.1700000000000026</v>
       </c>
       <c r="L61" t="n">
         <v>6.01</v>
@@ -12351,7 +12351,7 @@
         <v>174.39</v>
       </c>
       <c r="T61" t="n">
-        <v>1.81</v>
+        <v>1.57</v>
       </c>
       <c r="U61" t="n">
         <v>13.34</v>
@@ -12375,7 +12375,7 @@
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="n">
-        <v>6.210000000000001</v>
+        <v>2.329999999999979</v>
       </c>
       <c r="AE61" t="n">
         <v>46.61</v>
@@ -12405,7 +12405,7 @@
         <v>1253.11</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.9199999999999946</v>
+        <v>0.3999999999999702</v>
       </c>
       <c r="AQ61" t="n">
         <v>57.39</v>
@@ -12426,7 +12426,7 @@
         <v>1352.98</v>
       </c>
       <c r="AY61" t="n">
-        <v>2.190000000000001</v>
+        <v>1.590000000000002</v>
       </c>
       <c r="AZ61" t="n">
         <v>16.97</v>
@@ -12444,7 +12444,7 @@
         <v>2265.69</v>
       </c>
       <c r="BE61" t="n">
-        <v>4.709999999999997</v>
+        <v>4.27</v>
       </c>
       <c r="BF61" t="n">
         <v>35.44</v>
@@ -12510,7 +12510,7 @@
         <v>27.85</v>
       </c>
       <c r="H62" t="n">
-        <v>1.489999999999998</v>
+        <v>0.319999999999995</v>
       </c>
       <c r="I62" t="n">
         <v>11.87</v>
@@ -12519,7 +12519,7 @@
         <v>22.25</v>
       </c>
       <c r="K62" t="n">
-        <v>0.2799999999999994</v>
+        <v>0.03999999999999743</v>
       </c>
       <c r="L62" t="n">
         <v>6.53</v>
@@ -12546,7 +12546,7 @@
         <v>178.97</v>
       </c>
       <c r="T62" t="n">
-        <v>1.76</v>
+        <v>0.1300000000000001</v>
       </c>
       <c r="U62" t="n">
         <v>15.82</v>
@@ -12555,7 +12555,7 @@
         <v>31.72</v>
       </c>
       <c r="W62" t="n">
-        <v>11.48</v>
+        <v>4.239999999999998</v>
       </c>
       <c r="X62" t="n">
         <v>91.72</v>
@@ -12600,7 +12600,7 @@
         <v>1268.6</v>
       </c>
       <c r="AP62" t="n">
-        <v>8.869999999999997</v>
+        <v>5.970000000000056</v>
       </c>
       <c r="AQ62" t="n">
         <v>68.40000000000001</v>
@@ -12696,7 +12696,7 @@
         <v>27.92</v>
       </c>
       <c r="E63" t="n">
-        <v>11.30000000000021</v>
+        <v>2.64000000000081</v>
       </c>
       <c r="F63" t="n">
         <v>2205.06</v>
@@ -12705,7 +12705,7 @@
         <v>28.62</v>
       </c>
       <c r="H63" t="n">
-        <v>1.34</v>
+        <v>0.2400000000000031</v>
       </c>
       <c r="I63" t="n">
         <v>14.46</v>
@@ -12714,7 +12714,7 @@
         <v>29.11</v>
       </c>
       <c r="K63" t="n">
-        <v>0.4400000000000012</v>
+        <v>0.1600000000000018</v>
       </c>
       <c r="L63" t="n">
         <v>6.99</v>
@@ -12741,7 +12741,7 @@
         <v>179.73</v>
       </c>
       <c r="T63" t="n">
-        <v>0.3099999999999998</v>
+        <v>0.0499999999999996</v>
       </c>
       <c r="U63" t="n">
         <v>18.2</v>
@@ -12765,7 +12765,7 @@
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
       <c r="AD63" t="n">
-        <v>7.269999999999996</v>
+        <v>2.749999999999983</v>
       </c>
       <c r="AE63" t="n">
         <v>65.40000000000001</v>
@@ -12816,7 +12816,7 @@
         <v>1400.79</v>
       </c>
       <c r="AY63" t="n">
-        <v>0.3500000000000001</v>
+        <v>0.01000000000000201</v>
       </c>
       <c r="AZ63" t="n">
         <v>22.95</v>
@@ -12834,7 +12834,7 @@
         <v>2338.1</v>
       </c>
       <c r="BE63" t="n">
-        <v>0.8299999999999912</v>
+        <v>0.09999999999998366</v>
       </c>
       <c r="BF63" t="n">
         <v>48.76</v>
@@ -12900,7 +12900,7 @@
         <v>28.41</v>
       </c>
       <c r="H64" t="n">
-        <v>0.5200000000000009</v>
+        <v>0.03999999999999471</v>
       </c>
       <c r="I64" t="n">
         <v>15.76</v>
@@ -12909,7 +12909,7 @@
         <v>25.68</v>
       </c>
       <c r="K64" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.09999999999999631</v>
       </c>
       <c r="L64" t="n">
         <v>7.72</v>
@@ -12936,7 +12936,7 @@
         <v>189.51</v>
       </c>
       <c r="T64" t="n">
-        <v>1.699999999999999</v>
+        <v>0.5899999999999994</v>
       </c>
       <c r="U64" t="n">
         <v>20.59</v>
@@ -12945,7 +12945,7 @@
         <v>29.99</v>
       </c>
       <c r="W64" t="n">
-        <v>1.86000000000001</v>
+        <v>0.9800000000000499</v>
       </c>
       <c r="X64" t="n">
         <v>119.54</v>
@@ -13011,7 +13011,7 @@
         <v>1409.03</v>
       </c>
       <c r="AY64" t="n">
-        <v>2.420000000000002</v>
+        <v>2.039999999999996</v>
       </c>
       <c r="AZ64" t="n">
         <v>26.2</v>
@@ -13029,7 +13029,7 @@
         <v>2374.88</v>
       </c>
       <c r="BE64" t="n">
-        <v>6.140000000000001</v>
+        <v>5.010000000000058</v>
       </c>
       <c r="BF64" t="n">
         <v>55.47</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>17.4699999999998</v>
+        <v>9.789999999998599</v>
       </c>
       <c r="C65" t="n">
         <v>2502</v>
@@ -13086,7 +13086,7 @@
         <v>28.36</v>
       </c>
       <c r="E65" t="n">
-        <v>21.64000000000007</v>
+        <v>14.12000000000043</v>
       </c>
       <c r="F65" t="n">
         <v>2838.03</v>
@@ -13095,7 +13095,7 @@
         <v>27.94</v>
       </c>
       <c r="H65" t="n">
-        <v>0.3799999999999992</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="I65" t="n">
         <v>17.39</v>
@@ -13104,7 +13104,7 @@
         <v>20.76</v>
       </c>
       <c r="K65" t="n">
-        <v>0.2699999999999996</v>
+        <v>0.01000000000000145</v>
       </c>
       <c r="L65" t="n">
         <v>7.98</v>
@@ -13140,7 +13140,7 @@
         <v>33.01</v>
       </c>
       <c r="W65" t="n">
-        <v>1.799999999999999</v>
+        <v>0.1599999999999788</v>
       </c>
       <c r="X65" t="n">
         <v>134.23</v>
@@ -13155,7 +13155,7 @@
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
       <c r="AD65" t="n">
-        <v>2.099999999999994</v>
+        <v>1.059999999999974</v>
       </c>
       <c r="AE65" t="n">
         <v>84.81</v>
@@ -13185,7 +13185,7 @@
         <v>1320.81</v>
       </c>
       <c r="AP65" t="n">
-        <v>9.510000000000005</v>
+        <v>6.430000000000007</v>
       </c>
       <c r="AQ65" t="n">
         <v>100.8</v>
@@ -13206,7 +13206,7 @@
         <v>1417.28</v>
       </c>
       <c r="AY65" t="n">
-        <v>2.27</v>
+        <v>0.199999999999998</v>
       </c>
       <c r="AZ65" t="n">
         <v>29.68</v>
@@ -13272,7 +13272,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>170.9099999999999</v>
+        <v>112.5500000000025</v>
       </c>
       <c r="C66" t="n">
         <v>2783.64</v>
@@ -13281,7 +13281,7 @@
         <v>27.27</v>
       </c>
       <c r="E66" t="n">
-        <v>203.5700000000002</v>
+        <v>128.2899999999994</v>
       </c>
       <c r="F66" t="n">
         <v>3167.78</v>
@@ -13299,7 +13299,7 @@
         <v>15.08</v>
       </c>
       <c r="K66" t="n">
-        <v>7.76</v>
+        <v>6.94</v>
       </c>
       <c r="L66" t="n">
         <v>8.81</v>
@@ -13326,7 +13326,7 @@
         <v>198.13</v>
       </c>
       <c r="T66" t="n">
-        <v>0.5200000000000029</v>
+        <v>0.1600000000000034</v>
       </c>
       <c r="U66" t="n">
         <v>25.05</v>
@@ -13335,7 +13335,7 @@
         <v>29.59</v>
       </c>
       <c r="W66" t="n">
-        <v>5.390000000000001</v>
+        <v>1.470000000000045</v>
       </c>
       <c r="X66" t="n">
         <v>151.15</v>
@@ -13350,7 +13350,7 @@
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
       <c r="AD66" t="n">
-        <v>8.990000000000009</v>
+        <v>2.150000000000062</v>
       </c>
       <c r="AE66" t="n">
         <v>94.93000000000001</v>
@@ -13380,7 +13380,7 @@
         <v>1350.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>9.099999999999994</v>
+        <v>0.3599999999999888</v>
       </c>
       <c r="AQ66" t="n">
         <v>112.14</v>
@@ -13401,7 +13401,7 @@
         <v>1441.43</v>
       </c>
       <c r="AY66" t="n">
-        <v>1.91</v>
+        <v>1.510000000000004</v>
       </c>
       <c r="AZ66" t="n">
         <v>32.48</v>
@@ -13467,7 +13467,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>125.6200000000001</v>
+        <v>1.359999999998706</v>
       </c>
       <c r="C67" t="n">
         <v>2974.88</v>
@@ -13485,7 +13485,7 @@
         <v>25.64</v>
       </c>
       <c r="H67" t="n">
-        <v>2.3</v>
+        <v>1.26</v>
       </c>
       <c r="I67" t="n">
         <v>21.6</v>
@@ -13521,7 +13521,7 @@
         <v>182.73</v>
       </c>
       <c r="T67" t="n">
-        <v>0.779999999999998</v>
+        <v>0.009999999999991904</v>
       </c>
       <c r="U67" t="n">
         <v>28.07</v>
@@ -13530,7 +13530,7 @@
         <v>29.71</v>
       </c>
       <c r="W67" t="n">
-        <v>13.46</v>
+        <v>1.059999999999972</v>
       </c>
       <c r="X67" t="n">
         <v>171.69</v>
@@ -13575,7 +13575,7 @@
         <v>1303.94</v>
       </c>
       <c r="AP67" t="n">
-        <v>4.960000000000006</v>
+        <v>4.240000000000029</v>
       </c>
       <c r="AQ67" t="n">
         <v>122.19</v>
@@ -13596,7 +13596,7 @@
         <v>1419.11</v>
       </c>
       <c r="AY67" t="n">
-        <v>2.03</v>
+        <v>0.1199999999999999</v>
       </c>
       <c r="AZ67" t="n">
         <v>34.76</v>
@@ -13614,7 +13614,7 @@
         <v>2400.52</v>
       </c>
       <c r="BE67" t="n">
-        <v>1.680000000000003</v>
+        <v>0.3200000000000174</v>
       </c>
       <c r="BF67" t="n">
         <v>74.93000000000001</v>
@@ -13662,7 +13662,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>298.8000000000001</v>
+        <v>47.5599999999999</v>
       </c>
       <c r="C68" t="n">
         <v>398.13</v>
@@ -13671,7 +13671,7 @@
         <v>34.26</v>
       </c>
       <c r="E68" t="n">
-        <v>340.4299999999999</v>
+        <v>72.13000000000028</v>
       </c>
       <c r="F68" t="n">
         <v>450.14</v>
@@ -13680,7 +13680,7 @@
         <v>33.29</v>
       </c>
       <c r="H68" t="n">
-        <v>1.9</v>
+        <v>0.1199999999999999</v>
       </c>
       <c r="I68" t="n">
         <v>3.02</v>
@@ -13716,7 +13716,7 @@
         <v>158.64</v>
       </c>
       <c r="T68" t="n">
-        <v>2.620000000000001</v>
+        <v>1.060000000000018</v>
       </c>
       <c r="U68" t="n">
         <v>3.71</v>
@@ -13725,7 +13725,7 @@
         <v>20.06</v>
       </c>
       <c r="W68" t="n">
-        <v>20.19</v>
+        <v>2.250000000000002</v>
       </c>
       <c r="X68" t="n">
         <v>16.81</v>
@@ -13740,7 +13740,7 @@
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
       <c r="AD68" t="n">
-        <v>10.38</v>
+        <v>7.460000000000035</v>
       </c>
       <c r="AE68" t="n">
         <v>12.03</v>
@@ -13770,7 +13770,7 @@
         <v>1120.6</v>
       </c>
       <c r="AP68" t="n">
-        <v>10.75</v>
+        <v>0.8299999999999876</v>
       </c>
       <c r="AQ68" t="n">
         <v>16.33</v>
@@ -13791,7 +13791,7 @@
         <v>1206.44</v>
       </c>
       <c r="AY68" t="n">
-        <v>2.99</v>
+        <v>0.6000000000000008</v>
       </c>
       <c r="AZ68" t="n">
         <v>4.82</v>
@@ -13809,7 +13809,7 @@
         <v>2026.83</v>
       </c>
       <c r="BE68" t="n">
-        <v>7.140000000000001</v>
+        <v>3.819999999999954</v>
       </c>
       <c r="BF68" t="n">
         <v>11.32</v>
@@ -13857,7 +13857,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>76.52999999999997</v>
+        <v>28.97000000000007</v>
       </c>
       <c r="C69" t="n">
         <v>1158.84</v>
@@ -13866,7 +13866,7 @@
         <v>29.94</v>
       </c>
       <c r="E69" t="n">
-        <v>93.18000000000006</v>
+        <v>21.04999999999978</v>
       </c>
       <c r="F69" t="n">
         <v>1321.42</v>
@@ -13875,7 +13875,7 @@
         <v>30.08</v>
       </c>
       <c r="H69" t="n">
-        <v>1.089999999999999</v>
+        <v>0.9699999999999991</v>
       </c>
       <c r="I69" t="n">
         <v>8.56</v>
@@ -13920,7 +13920,7 @@
         <v>22.05</v>
       </c>
       <c r="W69" t="n">
-        <v>5.460000000000001</v>
+        <v>3.209999999999999</v>
       </c>
       <c r="X69" t="n">
         <v>57.94</v>
@@ -13965,7 +13965,7 @@
         <v>1205.58</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.47000000000001</v>
+        <v>0.6400000000000223</v>
       </c>
       <c r="AQ69" t="n">
         <v>44.39</v>
@@ -13986,7 +13986,7 @@
         <v>1300.65</v>
       </c>
       <c r="AY69" t="n">
-        <v>1.000000000000001</v>
+        <v>0.0400000000000007</v>
       </c>
       <c r="AZ69" t="n">
         <v>13.48</v>
@@ -14061,7 +14061,7 @@
         <v>28.06</v>
       </c>
       <c r="E70" t="n">
-        <v>27.68999999999971</v>
+        <v>6.63999999999993</v>
       </c>
       <c r="F70" t="n">
         <v>2288.34</v>
@@ -14070,7 +14070,7 @@
         <v>28.04</v>
       </c>
       <c r="H70" t="n">
-        <v>4.699999999999999</v>
+        <v>0.340000000000003</v>
       </c>
       <c r="I70" t="n">
         <v>14.56</v>
@@ -14079,7 +14079,7 @@
         <v>23.49</v>
       </c>
       <c r="K70" t="n">
-        <v>1.39</v>
+        <v>0.2099999999999997</v>
       </c>
       <c r="L70" t="n">
         <v>6.82</v>
@@ -14106,7 +14106,7 @@
         <v>185.45</v>
       </c>
       <c r="T70" t="n">
-        <v>1.399999999999999</v>
+        <v>0.140000000000001</v>
       </c>
       <c r="U70" t="n">
         <v>18.98</v>
@@ -14115,7 +14115,7 @@
         <v>25.36</v>
       </c>
       <c r="W70" t="n">
-        <v>37.53</v>
+        <v>15.69</v>
       </c>
       <c r="X70" t="n">
         <v>106.44</v>
@@ -14160,7 +14160,7 @@
         <v>1285.43</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.699999999999982</v>
+        <v>0.229999999999972</v>
       </c>
       <c r="AQ70" t="n">
         <v>74.43000000000001</v>
@@ -14181,7 +14181,7 @@
         <v>1373.16</v>
       </c>
       <c r="AY70" t="n">
-        <v>1.419999999999997</v>
+        <v>0.3399999999999945</v>
       </c>
       <c r="AZ70" t="n">
         <v>23.79</v>
@@ -14199,7 +14199,7 @@
         <v>2309.88</v>
       </c>
       <c r="BE70" t="n">
-        <v>8.01</v>
+        <v>3.129999999999997</v>
       </c>
       <c r="BF70" t="n">
         <v>47.23</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>346.47</v>
+        <v>234.95</v>
       </c>
       <c r="C71" t="n">
         <v>2897.89</v>
@@ -14256,7 +14256,7 @@
         <v>28.03</v>
       </c>
       <c r="E71" t="n">
-        <v>397.67</v>
+        <v>286.9100000000012</v>
       </c>
       <c r="F71" t="n">
         <v>3342.54</v>
@@ -14265,7 +14265,7 @@
         <v>29.24</v>
       </c>
       <c r="H71" t="n">
-        <v>2.37</v>
+        <v>0.9399999999999982</v>
       </c>
       <c r="I71" t="n">
         <v>20.67</v>
@@ -14274,7 +14274,7 @@
         <v>25.35</v>
       </c>
       <c r="K71" t="n">
-        <v>1.65</v>
+        <v>0.05000000000000032</v>
       </c>
       <c r="L71" t="n">
         <v>6.93</v>
@@ -14301,7 +14301,7 @@
         <v>193.88</v>
       </c>
       <c r="T71" t="n">
-        <v>3.26</v>
+        <v>0.8099999999999989</v>
       </c>
       <c r="U71" t="n">
         <v>30.35</v>
@@ -14325,7 +14325,7 @@
       <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
       <c r="AD71" t="n">
-        <v>12.15</v>
+        <v>1.430000000000001</v>
       </c>
       <c r="AE71" t="n">
         <v>94.88</v>
@@ -14355,7 +14355,7 @@
         <v>1338.31</v>
       </c>
       <c r="AP71" t="n">
-        <v>14.68</v>
+        <v>12.29000000000011</v>
       </c>
       <c r="AQ71" t="n">
         <v>109.33</v>
@@ -14376,7 +14376,7 @@
         <v>1484.24</v>
       </c>
       <c r="AY71" t="n">
-        <v>4.09</v>
+        <v>1.450000000000016</v>
       </c>
       <c r="AZ71" t="n">
         <v>37.35</v>
@@ -14394,7 +14394,7 @@
         <v>2504.33</v>
       </c>
       <c r="BE71" t="n">
-        <v>10.46</v>
+        <v>2.450000000000001</v>
       </c>
       <c r="BF71" t="n">
         <v>74.2</v>
@@ -14442,7 +14442,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>347.5799999999999</v>
+        <v>1.1099999999999</v>
       </c>
       <c r="C72" t="n">
         <v>435.94</v>
@@ -14451,7 +14451,7 @@
         <v>25.82</v>
       </c>
       <c r="E72" t="n">
-        <v>390.6199999999999</v>
+        <v>20.63999999999959</v>
       </c>
       <c r="F72" t="n">
         <v>496.58</v>
@@ -14460,7 +14460,7 @@
         <v>24.87</v>
       </c>
       <c r="H72" t="n">
-        <v>3.21</v>
+        <v>0.8399999999999999</v>
       </c>
       <c r="I72" t="n">
         <v>3.14</v>
@@ -14469,7 +14469,7 @@
         <v>32.49</v>
       </c>
       <c r="K72" t="n">
-        <v>2.34</v>
+        <v>0.1199999999999996</v>
       </c>
       <c r="L72" t="n">
         <v>4.63</v>
@@ -14496,7 +14496,7 @@
         <v>150.8</v>
       </c>
       <c r="T72" t="n">
-        <v>2.940000000000001</v>
+        <v>0.1300000000000001</v>
       </c>
       <c r="U72" t="n">
         <v>4.88</v>
@@ -14505,7 +14505,7 @@
         <v>49.69</v>
       </c>
       <c r="W72" t="n">
-        <v>23.66999999999999</v>
+        <v>8.359999999999991</v>
       </c>
       <c r="X72" t="n">
         <v>18.08</v>
@@ -14520,7 +14520,7 @@
       <c r="AB72" t="inlineStr"/>
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="n">
-        <v>7.220000000000001</v>
+        <v>0.4299999999999997</v>
       </c>
       <c r="AE72" t="n">
         <v>15.25</v>
@@ -14571,7 +14571,7 @@
         <v>1254.78</v>
       </c>
       <c r="AY72" t="n">
-        <v>3.73</v>
+        <v>1.059999999999997</v>
       </c>
       <c r="AZ72" t="n">
         <v>6.28</v>
@@ -14589,7 +14589,7 @@
         <v>2141.82</v>
       </c>
       <c r="BE72" t="n">
-        <v>8.809999999999999</v>
+        <v>1.459999999999996</v>
       </c>
       <c r="BF72" t="n">
         <v>11.09</v>
@@ -14637,7 +14637,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>687.0999999999999</v>
+        <v>336.1900000000003</v>
       </c>
       <c r="C73" t="n">
         <v>1299.13</v>
@@ -14655,7 +14655,7 @@
         <v>26.01</v>
       </c>
       <c r="H73" t="n">
-        <v>5.11</v>
+        <v>0.2200000000000002</v>
       </c>
       <c r="I73" t="n">
         <v>8.699999999999999</v>
@@ -14664,7 +14664,7 @@
         <v>9.43</v>
       </c>
       <c r="K73" t="n">
-        <v>0.9800000000000004</v>
+        <v>0.1200000000000006</v>
       </c>
       <c r="L73" t="n">
         <v>8.69</v>
@@ -14691,7 +14691,7 @@
         <v>178.64</v>
       </c>
       <c r="T73" t="n">
-        <v>6.19</v>
+        <v>0.3099999999999992</v>
       </c>
       <c r="U73" t="n">
         <v>13.3</v>
@@ -14715,7 +14715,7 @@
       <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="inlineStr"/>
       <c r="AD73" t="n">
-        <v>6.509999999999998</v>
+        <v>6.079999999999998</v>
       </c>
       <c r="AE73" t="n">
         <v>37.72</v>
@@ -14841,7 +14841,7 @@
         <v>24.02</v>
       </c>
       <c r="E74" t="n">
-        <v>73.2800000000002</v>
+        <v>35.80000000000064</v>
       </c>
       <c r="F74" t="n">
         <v>2497.09</v>
@@ -14850,7 +14850,7 @@
         <v>25.89</v>
       </c>
       <c r="H74" t="n">
-        <v>0.2299999999999978</v>
+        <v>0.009999999999997594</v>
       </c>
       <c r="I74" t="n">
         <v>15.84</v>
@@ -14859,7 +14859,7 @@
         <v>21.29</v>
       </c>
       <c r="K74" t="n">
-        <v>0.3700000000000001</v>
+        <v>0.07999999999999963</v>
       </c>
       <c r="L74" t="n">
         <v>10.29</v>
@@ -14895,7 +14895,7 @@
         <v>36.61</v>
       </c>
       <c r="W74" t="n">
-        <v>42.09999999999999</v>
+        <v>20.81999999999999</v>
       </c>
       <c r="X74" t="n">
         <v>117.23</v>
@@ -14910,7 +14910,7 @@
       <c r="AB74" t="inlineStr"/>
       <c r="AC74" t="inlineStr"/>
       <c r="AD74" t="n">
-        <v>23.64000000000001</v>
+        <v>4.110000000000012</v>
       </c>
       <c r="AE74" t="n">
         <v>67.91</v>
@@ -14940,7 +14940,7 @@
         <v>1299.88</v>
       </c>
       <c r="AP74" t="n">
-        <v>3.630000000000003</v>
+        <v>0.410000000000005</v>
       </c>
       <c r="AQ74" t="n">
         <v>78.22</v>
@@ -14979,7 +14979,7 @@
         <v>2377.85</v>
       </c>
       <c r="BE74" t="n">
-        <v>20.87</v>
+        <v>11.19</v>
       </c>
       <c r="BF74" t="n">
         <v>64.45</v>
@@ -15027,7 +15027,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>342.54</v>
+        <v>90.9399999999996</v>
       </c>
       <c r="C75" t="n">
         <v>3016.66</v>
@@ -15036,7 +15036,7 @@
         <v>21.76</v>
       </c>
       <c r="E75" t="n">
-        <v>390.96</v>
+        <v>154.0599999999986</v>
       </c>
       <c r="F75" t="n">
         <v>3509.61</v>
@@ -15045,7 +15045,7 @@
         <v>22.95</v>
       </c>
       <c r="H75" t="n">
-        <v>2.83</v>
+        <v>1.910000000000008</v>
       </c>
       <c r="I75" t="n">
         <v>23.22</v>
@@ -15054,7 +15054,7 @@
         <v>26.2</v>
       </c>
       <c r="K75" t="n">
-        <v>3.23</v>
+        <v>2.04</v>
       </c>
       <c r="L75" t="n">
         <v>15.23</v>
@@ -15081,7 +15081,7 @@
         <v>204.22</v>
       </c>
       <c r="T75" t="n">
-        <v>3.68</v>
+        <v>2.639999999999996</v>
       </c>
       <c r="U75" t="n">
         <v>31.15</v>
@@ -15105,7 +15105,7 @@
       <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" t="n">
-        <v>11.31</v>
+        <v>0.6899999999999906</v>
       </c>
       <c r="AE75" t="n">
         <v>99.93000000000001</v>
@@ -15135,7 +15135,7 @@
         <v>1343.78</v>
       </c>
       <c r="AP75" t="n">
-        <v>15.26</v>
+        <v>8.789999999999985</v>
       </c>
       <c r="AQ75" t="n">
         <v>109.78</v>
@@ -15156,7 +15156,7 @@
         <v>1407.92</v>
       </c>
       <c r="AY75" t="n">
-        <v>4.8</v>
+        <v>4.199999999999991</v>
       </c>
       <c r="AZ75" t="n">
         <v>38.82</v>
@@ -15222,7 +15222,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>323.66</v>
+        <v>44.02000000000015</v>
       </c>
       <c r="C76" t="n">
         <v>347.64</v>
@@ -15231,7 +15231,7 @@
         <v>1.49</v>
       </c>
       <c r="E76" t="n">
-        <v>388.6899999999999</v>
+        <v>71.0100000000001</v>
       </c>
       <c r="F76" t="n">
         <v>391.2</v>
@@ -15249,7 +15249,7 @@
         <v>-9.539999999999999</v>
       </c>
       <c r="K76" t="n">
-        <v>2.4</v>
+        <v>0.2799999999999998</v>
       </c>
       <c r="L76" t="n">
         <v>7.06</v>
@@ -15276,7 +15276,7 @@
         <v>158.03</v>
       </c>
       <c r="T76" t="n">
-        <v>3.74</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="U76" t="n">
         <v>4.03</v>
@@ -15285,7 +15285,7 @@
         <v>9.51</v>
       </c>
       <c r="W76" t="n">
-        <v>23.86</v>
+        <v>9.17</v>
       </c>
       <c r="X76" t="n">
         <v>11.86</v>
@@ -15300,7 +15300,7 @@
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
       <c r="AD76" t="n">
-        <v>12.26</v>
+        <v>0.2600000000000087</v>
       </c>
       <c r="AE76" t="n">
         <v>11.84</v>
@@ -15330,7 +15330,7 @@
         <v>1093.09</v>
       </c>
       <c r="AP76" t="n">
-        <v>10.11</v>
+        <v>0.5000000000000036</v>
       </c>
       <c r="AQ76" t="n">
         <v>16.24</v>
@@ -15351,7 +15351,7 @@
         <v>1211.32</v>
       </c>
       <c r="AY76" t="n">
-        <v>5.250000000000001</v>
+        <v>0.4500000000000011</v>
       </c>
       <c r="AZ76" t="n">
         <v>5.2</v>
@@ -15417,7 +15417,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>99.02999999999997</v>
+        <v>10.98999999999967</v>
       </c>
       <c r="C77" t="n">
         <v>1053.1</v>
@@ -15426,7 +15426,7 @@
         <v>4.4</v>
       </c>
       <c r="E77" t="n">
-        <v>122.2200000000003</v>
+        <v>51.21000000000019</v>
       </c>
       <c r="F77" t="n">
         <v>1225.61</v>
@@ -15471,7 +15471,7 @@
         <v>176.91</v>
       </c>
       <c r="T77" t="n">
-        <v>1.300000000000001</v>
+        <v>1.120000000000001</v>
       </c>
       <c r="U77" t="n">
         <v>11.18</v>
@@ -15495,7 +15495,7 @@
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="n">
-        <v>2.239999999999998</v>
+        <v>0.3399999999999996</v>
       </c>
       <c r="AE77" t="n">
         <v>33.98</v>
@@ -15525,7 +15525,7 @@
         <v>1161.02</v>
       </c>
       <c r="AP77" t="n">
-        <v>3.269999999999989</v>
+        <v>2.769999999999985</v>
       </c>
       <c r="AQ77" t="n">
         <v>43.98</v>
@@ -15612,7 +15612,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>718.3100000000002</v>
+        <v>366.2100000000005</v>
       </c>
       <c r="C78" t="n">
         <v>1871.78</v>
@@ -15621,7 +15621,7 @@
         <v>5.51</v>
       </c>
       <c r="E78" t="n">
-        <v>829.5300000000002</v>
+        <v>411.6599999999992</v>
       </c>
       <c r="F78" t="n">
         <v>2176.21</v>
@@ -15639,7 +15639,7 @@
         <v>-2.91</v>
       </c>
       <c r="K78" t="n">
-        <v>3.770000000000001</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="L78" t="n">
         <v>19.12</v>
@@ -15666,7 +15666,7 @@
         <v>181.78</v>
       </c>
       <c r="T78" t="n">
-        <v>8.68</v>
+        <v>3.659999999999996</v>
       </c>
       <c r="U78" t="n">
         <v>18.97</v>
@@ -15675,7 +15675,7 @@
         <v>-4.29</v>
       </c>
       <c r="W78" t="n">
-        <v>37.71000000000001</v>
+        <v>18.10999999999999</v>
       </c>
       <c r="X78" t="n">
         <v>89.75</v>
@@ -15759,7 +15759,7 @@
         <v>2321.47</v>
       </c>
       <c r="BE78" t="n">
-        <v>18.27999999999999</v>
+        <v>15.83999999999999</v>
       </c>
       <c r="BF78" t="n">
         <v>52.42</v>
@@ -15825,7 +15825,7 @@
         <v>9.4</v>
       </c>
       <c r="H79" t="n">
-        <v>1.629999999999999</v>
+        <v>1.509999999999995</v>
       </c>
       <c r="I79" t="n">
         <v>20.64</v>
@@ -15834,7 +15834,7 @@
         <v>0.58</v>
       </c>
       <c r="K79" t="n">
-        <v>4.869999999999998</v>
+        <v>0.1099999999999961</v>
       </c>
       <c r="L79" t="n">
         <v>19.68</v>
@@ -15885,7 +15885,7 @@
       <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr"/>
       <c r="AD79" t="n">
-        <v>10.81</v>
+        <v>10.76999999999996</v>
       </c>
       <c r="AE79" t="n">
         <v>89.91</v>
@@ -15915,7 +15915,7 @@
         <v>1229.01</v>
       </c>
       <c r="AP79" t="n">
-        <v>15.75</v>
+        <v>12.30999999999996</v>
       </c>
       <c r="AQ79" t="n">
         <v>108.56</v>
@@ -15936,7 +15936,7 @@
         <v>1375.91</v>
       </c>
       <c r="AY79" t="n">
-        <v>5.08</v>
+        <v>4.599999999999996</v>
       </c>
       <c r="AZ79" t="n">
         <v>33.1</v>
@@ -16002,7 +16002,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>354.0400000000001</v>
+        <v>29.96000000000009</v>
       </c>
       <c r="C80" t="n">
         <v>441.36</v>
@@ -16011,7 +16011,7 @@
         <v>36.19</v>
       </c>
       <c r="E80" t="n">
-        <v>418.48</v>
+        <v>36.66000000000003</v>
       </c>
       <c r="F80" t="n">
         <v>516.75</v>
@@ -16020,7 +16020,7 @@
         <v>35.34</v>
       </c>
       <c r="H80" t="n">
-        <v>6.970000000000001</v>
+        <v>0.630000000000011</v>
       </c>
       <c r="I80" t="n">
         <v>9.32</v>
@@ -16029,7 +16029,7 @@
         <v>15.92</v>
       </c>
       <c r="K80" t="n">
-        <v>2.680000000000001</v>
+        <v>0.370000000000011</v>
       </c>
       <c r="L80" t="n">
         <v>3.31</v>
@@ -16065,7 +16065,7 @@
         <v>7.42</v>
       </c>
       <c r="W80" t="n">
-        <v>28.33</v>
+        <v>5.370000000000001</v>
       </c>
       <c r="X80" t="n">
         <v>24.66</v>
@@ -16086,7 +16086,7 @@
         <v>288.42</v>
       </c>
       <c r="AD80" t="n">
-        <v>12.27</v>
+        <v>1.459999999999999</v>
       </c>
       <c r="AE80" t="n">
         <v>14.86</v>
@@ -16203,7 +16203,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>92.12999999999988</v>
+        <v>2.249999999999613</v>
       </c>
       <c r="C81" t="n">
         <v>1341.96</v>
@@ -16212,7 +16212,7 @@
         <v>33.9</v>
       </c>
       <c r="E81" t="n">
-        <v>101.2300000000002</v>
+        <v>27.91000000000013</v>
       </c>
       <c r="F81" t="n">
         <v>1579.44</v>
@@ -16221,7 +16221,7 @@
         <v>33.61</v>
       </c>
       <c r="H81" t="n">
-        <v>3.4</v>
+        <v>1.229999999999993</v>
       </c>
       <c r="I81" t="n">
         <v>21.44</v>
@@ -16230,7 +16230,7 @@
         <v>-6.98</v>
       </c>
       <c r="K81" t="n">
-        <v>1.739999999999998</v>
+        <v>0.1599999999999939</v>
       </c>
       <c r="L81" t="n">
         <v>5.58</v>
@@ -16266,7 +16266,7 @@
         <v>20.1</v>
       </c>
       <c r="W81" t="n">
-        <v>8.609999999999985</v>
+        <v>3.239999999999984</v>
       </c>
       <c r="X81" t="n">
         <v>84.94</v>
@@ -16287,7 +16287,7 @@
         <v>326.03</v>
       </c>
       <c r="AD81" t="n">
-        <v>3.130000000000003</v>
+        <v>0.2100000000000048</v>
       </c>
       <c r="AE81" t="n">
         <v>44.48</v>
@@ -16404,7 +16404,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>98.75999999999999</v>
+        <v>6.630000000000109</v>
       </c>
       <c r="C82" t="n">
         <v>2339.16</v>
@@ -16413,7 +16413,7 @@
         <v>31.97</v>
       </c>
       <c r="E82" t="n">
-        <v>123.2699999999998</v>
+        <v>22.03999999999959</v>
       </c>
       <c r="F82" t="n">
         <v>2753.56</v>
@@ -16458,7 +16458,7 @@
         <v>156.32</v>
       </c>
       <c r="T82" t="n">
-        <v>6.490000000000002</v>
+        <v>3.130000000000002</v>
       </c>
       <c r="U82" t="n">
         <v>19.54</v>
@@ -16467,7 +16467,7 @@
         <v>12.75</v>
       </c>
       <c r="W82" t="n">
-        <v>10.10000000000002</v>
+        <v>1.490000000000034</v>
       </c>
       <c r="X82" t="n">
         <v>149.46</v>
@@ -16488,7 +16488,7 @@
         <v>338.75</v>
       </c>
       <c r="AD82" t="n">
-        <v>7.069999999999986</v>
+        <v>0.5999999999999752</v>
       </c>
       <c r="AE82" t="n">
         <v>77.3</v>
@@ -16518,7 +16518,7 @@
         <v>1393.09</v>
       </c>
       <c r="AP82" t="n">
-        <v>7.609999999999999</v>
+        <v>0.109999999999999</v>
       </c>
       <c r="AQ82" t="n">
         <v>85.43000000000001</v>
@@ -16557,7 +16557,7 @@
         <v>2695.72</v>
       </c>
       <c r="BE82" t="n">
-        <v>2.960000000000012</v>
+        <v>0.2600000000000131</v>
       </c>
       <c r="BF82" t="n">
         <v>66.58</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>338.25</v>
+        <v>219.5999999999997</v>
       </c>
       <c r="C83" t="n">
         <v>3358.79</v>
@@ -16614,7 +16614,7 @@
         <v>27.16</v>
       </c>
       <c r="E83" t="n">
-        <v>396.39</v>
+        <v>207.0000000000014</v>
       </c>
       <c r="F83" t="n">
         <v>3998.61</v>
@@ -16623,7 +16623,7 @@
         <v>28.64</v>
       </c>
       <c r="H83" t="n">
-        <v>2.44</v>
+        <v>0.08000000000000029</v>
       </c>
       <c r="I83" t="n">
         <v>62.1</v>
@@ -16632,7 +16632,7 @@
         <v>2.71</v>
       </c>
       <c r="K83" t="n">
-        <v>2.16</v>
+        <v>1.8</v>
       </c>
       <c r="L83" t="n">
         <v>9.220000000000001</v>
@@ -16668,7 +16668,7 @@
         <v>22.8</v>
       </c>
       <c r="W83" t="n">
-        <v>22.7</v>
+        <v>8.129999999999882</v>
       </c>
       <c r="X83" t="n">
         <v>230.56</v>
@@ -16689,7 +16689,7 @@
         <v>353.32</v>
       </c>
       <c r="AD83" t="n">
-        <v>11.15</v>
+        <v>0.1400000000000312</v>
       </c>
       <c r="AE83" t="n">
         <v>118.31</v>
@@ -16719,7 +16719,7 @@
         <v>1497.86</v>
       </c>
       <c r="AP83" t="n">
-        <v>13.08</v>
+        <v>0.2500000000000022</v>
       </c>
       <c r="AQ83" t="n">
         <v>127.8</v>
@@ -16740,7 +16740,7 @@
         <v>1616.75</v>
       </c>
       <c r="AY83" t="n">
-        <v>4.51</v>
+        <v>2.109999999999988</v>
       </c>
       <c r="AZ83" t="n">
         <v>38.45</v>
@@ -16758,7 +16758,7 @@
         <v>2852.61</v>
       </c>
       <c r="BE83" t="n">
-        <v>10.02</v>
+        <v>6.279999999999949</v>
       </c>
       <c r="BF83" t="n">
         <v>89.59999999999999</v>
@@ -16815,7 +16815,7 @@
         <v>30.69</v>
       </c>
       <c r="E84" t="n">
-        <v>264.92</v>
+        <v>13.83999999999941</v>
       </c>
       <c r="F84" t="n">
         <v>528.4</v>
@@ -16824,7 +16824,7 @@
         <v>33.3</v>
       </c>
       <c r="H84" t="n">
-        <v>1.56</v>
+        <v>0.3</v>
       </c>
       <c r="I84" t="n">
         <v>3.65</v>
@@ -16869,7 +16869,7 @@
         <v>43.35</v>
       </c>
       <c r="W84" t="n">
-        <v>14.52</v>
+        <v>1.920000000000019</v>
       </c>
       <c r="X84" t="n">
         <v>34.94</v>
@@ -16890,7 +16890,7 @@
         <v>282.32</v>
       </c>
       <c r="AD84" t="n">
-        <v>7.020000000000001</v>
+        <v>2.659999999999925</v>
       </c>
       <c r="AE84" t="n">
         <v>16.62</v>
@@ -16920,7 +16920,7 @@
         <v>1159.9</v>
       </c>
       <c r="AP84" t="n">
-        <v>7.569999999999999</v>
+        <v>1.379999999999997</v>
       </c>
       <c r="AQ84" t="n">
         <v>17.78</v>
@@ -16941,7 +16941,7 @@
         <v>1286.64</v>
       </c>
       <c r="AY84" t="n">
-        <v>2.78</v>
+        <v>0.07000000000000872</v>
       </c>
       <c r="AZ84" t="n">
         <v>6.23</v>
@@ -17016,7 +17016,7 @@
         <v>29.66</v>
       </c>
       <c r="E85" t="n">
-        <v>259.48</v>
+        <v>245.6400000000006</v>
       </c>
       <c r="F85" t="n">
         <v>870.89</v>
@@ -17025,7 +17025,7 @@
         <v>31.69</v>
       </c>
       <c r="H85" t="n">
-        <v>1.52</v>
+        <v>1.22</v>
       </c>
       <c r="I85" t="n">
         <v>5.83</v>
@@ -17271,7 +17271,7 @@
         <v>43.13</v>
       </c>
       <c r="W86" t="n">
-        <v>5.369999999999992</v>
+        <v>4.969999999999993</v>
       </c>
       <c r="X86" t="n">
         <v>84.20999999999999</v>
@@ -17292,7 +17292,7 @@
         <v>292.69</v>
       </c>
       <c r="AD86" t="n">
-        <v>0.5600000000000023</v>
+        <v>0.08000000000000893</v>
       </c>
       <c r="AE86" t="n">
         <v>32.43</v>
@@ -17343,7 +17343,7 @@
         <v>1341.93</v>
       </c>
       <c r="AY86" t="n">
-        <v>2.5</v>
+        <v>0.7799999999999998</v>
       </c>
       <c r="AZ86" t="n">
         <v>14.62</v>
@@ -17409,7 +17409,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>41.79000000000019</v>
+        <v>4.59000000000076</v>
       </c>
       <c r="C87" t="n">
         <v>1281.41</v>
@@ -17418,7 +17418,7 @@
         <v>25.45</v>
       </c>
       <c r="E87" t="n">
-        <v>37.5900000000002</v>
+        <v>12.76000000000033</v>
       </c>
       <c r="F87" t="n">
         <v>1541.94</v>
@@ -17436,7 +17436,7 @@
         <v>41.2</v>
       </c>
       <c r="K87" t="n">
-        <v>0.6400000000000001</v>
+        <v>0.2800000000000002</v>
       </c>
       <c r="L87" t="n">
         <v>4.35</v>
@@ -17463,7 +17463,7 @@
         <v>132.36</v>
       </c>
       <c r="T87" t="n">
-        <v>0.4999999999999982</v>
+        <v>0.07999999999999519</v>
       </c>
       <c r="U87" t="n">
         <v>14.59</v>
@@ -17472,7 +17472,7 @@
         <v>41.65</v>
       </c>
       <c r="W87" t="n">
-        <v>19.57000000000001</v>
+        <v>3.760000000000036</v>
       </c>
       <c r="X87" t="n">
         <v>111.92</v>
@@ -17493,7 +17493,7 @@
         <v>299.53</v>
       </c>
       <c r="AD87" t="n">
-        <v>1.200000000000003</v>
+        <v>0.1599999999999774</v>
       </c>
       <c r="AE87" t="n">
         <v>44.25</v>
@@ -17523,7 +17523,7 @@
         <v>1253.35</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.670000000000003</v>
+        <v>1.150000000000023</v>
       </c>
       <c r="AQ87" t="n">
         <v>46.79</v>
@@ -17562,7 +17562,7 @@
         <v>2461.96</v>
       </c>
       <c r="BE87" t="n">
-        <v>2.950000000000001</v>
+        <v>1.390000000000002</v>
       </c>
       <c r="BF87" t="n">
         <v>38.23</v>
@@ -17610,7 +17610,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>241.27</v>
+        <v>148.509999999998</v>
       </c>
       <c r="C88" t="n">
         <v>1627.46</v>
@@ -17619,7 +17619,7 @@
         <v>25.34</v>
       </c>
       <c r="E88" t="n">
-        <v>284.3900000000001</v>
+        <v>208.519999999999</v>
       </c>
       <c r="F88" t="n">
         <v>1951.92</v>
@@ -17628,7 +17628,7 @@
         <v>27.83</v>
       </c>
       <c r="H88" t="n">
-        <v>1.58</v>
+        <v>0.7000000000000042</v>
       </c>
       <c r="I88" t="n">
         <v>12.92</v>
@@ -17637,7 +17637,7 @@
         <v>38.03</v>
       </c>
       <c r="K88" t="n">
-        <v>3.21</v>
+        <v>1.73</v>
       </c>
       <c r="L88" t="n">
         <v>4.64</v>
@@ -17664,7 +17664,7 @@
         <v>139.35</v>
       </c>
       <c r="T88" t="n">
-        <v>1.59</v>
+        <v>0.4300000000000135</v>
       </c>
       <c r="U88" t="n">
         <v>17.93</v>
@@ -17694,7 +17694,7 @@
         <v>306.23</v>
       </c>
       <c r="AD88" t="n">
-        <v>7.779999999999994</v>
+        <v>5.38000000000001</v>
       </c>
       <c r="AE88" t="n">
         <v>54.76</v>
@@ -17724,7 +17724,7 @@
         <v>1331.14</v>
       </c>
       <c r="AP88" t="n">
-        <v>8.980000000000004</v>
+        <v>3.07999999999996</v>
       </c>
       <c r="AQ88" t="n">
         <v>56.55</v>
@@ -17745,7 +17745,7 @@
         <v>1456.9</v>
       </c>
       <c r="AY88" t="n">
-        <v>2.849999999999998</v>
+        <v>0.5699999999999961</v>
       </c>
       <c r="AZ88" t="n">
         <v>23.63</v>
@@ -17763,7 +17763,7 @@
         <v>2592.03</v>
       </c>
       <c r="BE88" t="n">
-        <v>9.700000000000003</v>
+        <v>2.579999999999996</v>
       </c>
       <c r="BF88" t="n">
         <v>46.23</v>
@@ -17874,7 +17874,7 @@
         <v>45.05</v>
       </c>
       <c r="W89" t="n">
-        <v>9.640000000000001</v>
+        <v>5.880000000000081</v>
       </c>
       <c r="X89" t="n">
         <v>157.11</v>
@@ -17925,7 +17925,7 @@
         <v>1356.23</v>
       </c>
       <c r="AP89" t="n">
-        <v>8.399999999999999</v>
+        <v>1.089999999999999</v>
       </c>
       <c r="AQ89" t="n">
         <v>65.98</v>
@@ -17946,7 +17946,7 @@
         <v>1467.67</v>
       </c>
       <c r="AY89" t="n">
-        <v>2.650000000000002</v>
+        <v>0.370000000000009</v>
       </c>
       <c r="AZ89" t="n">
         <v>28.02</v>
@@ -17964,7 +17964,7 @@
         <v>2620.62</v>
       </c>
       <c r="BE89" t="n">
-        <v>7.599999999999994</v>
+        <v>0.8499999999999925</v>
       </c>
       <c r="BF89" t="n">
         <v>54.71</v>
@@ -18030,7 +18030,7 @@
         <v>28.6</v>
       </c>
       <c r="H90" t="n">
-        <v>0.2999999999999989</v>
+        <v>0.149999999999999</v>
       </c>
       <c r="I90" t="n">
         <v>18.05</v>
@@ -18066,7 +18066,7 @@
         <v>149.62</v>
       </c>
       <c r="T90" t="n">
-        <v>1.169999999999996</v>
+        <v>1.169999999999988</v>
       </c>
       <c r="U90" t="n">
         <v>24.61</v>
@@ -18075,7 +18075,7 @@
         <v>50.52</v>
       </c>
       <c r="W90" t="n">
-        <v>13.28999999999999</v>
+        <v>3.64999999999999</v>
       </c>
       <c r="X90" t="n">
         <v>182.79</v>
@@ -18096,7 +18096,7 @@
         <v>321.99</v>
       </c>
       <c r="AD90" t="n">
-        <v>1.25</v>
+        <v>0.0899999999999892</v>
       </c>
       <c r="AE90" t="n">
         <v>75.39</v>
@@ -18147,7 +18147,7 @@
         <v>1498.43</v>
       </c>
       <c r="AY90" t="n">
-        <v>0.4999999999999969</v>
+        <v>0.1299999999999879</v>
       </c>
       <c r="AZ90" t="n">
         <v>32.31</v>
@@ -18165,7 +18165,7 @@
         <v>2687.33</v>
       </c>
       <c r="BE90" t="n">
-        <v>5.690000000000005</v>
+        <v>3.99000000000002</v>
       </c>
       <c r="BF90" t="n">
         <v>64.37</v>
@@ -18213,7 +18213,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>251.8300000000004</v>
+        <v>219.5900000000004</v>
       </c>
       <c r="C91" t="n">
         <v>2605.31</v>
@@ -18222,7 +18222,7 @@
         <v>27.09</v>
       </c>
       <c r="E91" t="n">
-        <v>304.0499999999997</v>
+        <v>246.9700000000008</v>
       </c>
       <c r="F91" t="n">
         <v>3130.66</v>
@@ -18231,7 +18231,7 @@
         <v>28.57</v>
       </c>
       <c r="H91" t="n">
-        <v>1.970000000000002</v>
+        <v>1.220000000000006</v>
       </c>
       <c r="I91" t="n">
         <v>21.06</v>
@@ -18276,7 +18276,7 @@
         <v>49.76</v>
       </c>
       <c r="W91" t="n">
-        <v>19.66</v>
+        <v>2.72000000000002</v>
       </c>
       <c r="X91" t="n">
         <v>209.66</v>
@@ -18297,7 +18297,7 @@
         <v>322.5</v>
       </c>
       <c r="AD91" t="n">
-        <v>9.410000000000011</v>
+        <v>7.310000000000038</v>
       </c>
       <c r="AE91" t="n">
         <v>84.48</v>
@@ -18327,7 +18327,7 @@
         <v>1437.52</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.369999999999989</v>
+        <v>0.2299999999999813</v>
       </c>
       <c r="AQ91" t="n">
         <v>84.89</v>
@@ -18348,7 +18348,7 @@
         <v>1562.73</v>
       </c>
       <c r="AY91" t="n">
-        <v>0.8200000000000029</v>
+        <v>0.3200000000000061</v>
       </c>
       <c r="AZ91" t="n">
         <v>37.23</v>
@@ -18441,7 +18441,7 @@
         <v>45.05</v>
       </c>
       <c r="K92" t="n">
-        <v>5.74</v>
+        <v>4.74</v>
       </c>
       <c r="L92" t="n">
         <v>8.449999999999999</v>
@@ -18468,7 +18468,7 @@
         <v>149.95</v>
       </c>
       <c r="T92" t="n">
-        <v>2.699999999999999</v>
+        <v>2.459999999999991</v>
       </c>
       <c r="U92" t="n">
         <v>32.51</v>
@@ -18477,7 +18477,7 @@
         <v>48.24</v>
       </c>
       <c r="W92" t="n">
-        <v>6.95000000000001</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="X92" t="n">
         <v>235.58</v>
@@ -18528,7 +18528,7 @@
         <v>1452.72</v>
       </c>
       <c r="AP92" t="n">
-        <v>9.910000000000011</v>
+        <v>6.710000000000072</v>
       </c>
       <c r="AQ92" t="n">
         <v>96.04000000000001</v>
@@ -18549,7 +18549,7 @@
         <v>1567.23</v>
       </c>
       <c r="AY92" t="n">
-        <v>3.370000000000001</v>
+        <v>1.58999999999998</v>
       </c>
       <c r="AZ92" t="n">
         <v>43.24</v>
@@ -18567,7 +18567,7 @@
         <v>2779.6</v>
       </c>
       <c r="BE92" t="n">
-        <v>0.9799999999999969</v>
+        <v>0.3200000000000003</v>
       </c>
       <c r="BF92" t="n">
         <v>80.90000000000001</v>
@@ -18615,7 +18615,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>35.96000000000049</v>
+        <v>10.47000000000119</v>
       </c>
       <c r="C93" t="n">
         <v>3268.42</v>
@@ -18633,7 +18633,7 @@
         <v>27.69</v>
       </c>
       <c r="H93" t="n">
-        <v>0.7099999999999969</v>
+        <v>0.1799999999999988</v>
       </c>
       <c r="I93" t="n">
         <v>27.47</v>
@@ -18678,7 +18678,7 @@
         <v>48.92</v>
       </c>
       <c r="W93" t="n">
-        <v>36.29999999999998</v>
+        <v>21.23999999999996</v>
       </c>
       <c r="X93" t="n">
         <v>270.58</v>
@@ -18699,7 +18699,7 @@
         <v>334.62</v>
       </c>
       <c r="AD93" t="n">
-        <v>11.53999999999999</v>
+        <v>0.5400000000000342</v>
       </c>
       <c r="AE93" t="n">
         <v>110.09</v>
@@ -18768,7 +18768,7 @@
         <v>2825.77</v>
       </c>
       <c r="BE93" t="n">
-        <v>6.060000000000002</v>
+        <v>4.120000000000005</v>
       </c>
       <c r="BF93" t="n">
         <v>90.69</v>
@@ -18816,7 +18816,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>599.2799999999997</v>
+        <v>531.9099999999958</v>
       </c>
       <c r="C94" t="n">
         <v>3625.24</v>
@@ -18825,7 +18825,7 @@
         <v>25.34</v>
       </c>
       <c r="E94" t="n">
-        <v>113.9099999999999</v>
+        <v>17.27999999999962</v>
       </c>
       <c r="F94" t="n">
         <v>4402.31</v>
@@ -18834,7 +18834,7 @@
         <v>27.21</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2100000000000031</v>
+        <v>0.0300000000000043</v>
       </c>
       <c r="I94" t="n">
         <v>30.84</v>
@@ -18843,7 +18843,7 @@
         <v>37.8</v>
       </c>
       <c r="K94" t="n">
-        <v>3.470000000000001</v>
+        <v>2.870000000000005</v>
       </c>
       <c r="L94" t="n">
         <v>11.37</v>
@@ -18879,7 +18879,7 @@
         <v>45.83</v>
       </c>
       <c r="W94" t="n">
-        <v>30.85</v>
+        <v>1.500000000000032</v>
       </c>
       <c r="X94" t="n">
         <v>326.1</v>
@@ -18900,7 +18900,7 @@
         <v>330.17</v>
       </c>
       <c r="AD94" t="n">
-        <v>4.000000000000009</v>
+        <v>0.7099999999999858</v>
       </c>
       <c r="AE94" t="n">
         <v>134.83</v>
@@ -18951,7 +18951,7 @@
         <v>1553.3</v>
       </c>
       <c r="AY94" t="n">
-        <v>1.970000000000002</v>
+        <v>0.720000000000006</v>
       </c>
       <c r="AZ94" t="n">
         <v>54.22</v>
@@ -19017,7 +19017,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>662.2</v>
+        <v>62.9200000000003</v>
       </c>
       <c r="C95" t="n">
         <v>476.76</v>
@@ -19026,7 +19026,7 @@
         <v>-47.76</v>
       </c>
       <c r="E95" t="n">
-        <v>298.98</v>
+        <v>36.60000000000097</v>
       </c>
       <c r="F95" t="n">
         <v>568.91</v>
@@ -19035,7 +19035,7 @@
         <v>15.9</v>
       </c>
       <c r="H95" t="n">
-        <v>2.52</v>
+        <v>2.039999999999986</v>
       </c>
       <c r="I95" t="n">
         <v>4.11</v>
@@ -19071,7 +19071,7 @@
         <v>130.79</v>
       </c>
       <c r="T95" t="n">
-        <v>3.600000000000001</v>
+        <v>0.6600000000000015</v>
       </c>
       <c r="U95" t="n">
         <v>7.57</v>
@@ -19080,7 +19080,7 @@
         <v>40.45</v>
       </c>
       <c r="W95" t="n">
-        <v>20.2</v>
+        <v>17.19999999999994</v>
       </c>
       <c r="X95" t="n">
         <v>34.77</v>
@@ -19101,7 +19101,7 @@
         <v>313.12</v>
       </c>
       <c r="AD95" t="n">
-        <v>8.609999999999999</v>
+        <v>0.6099999999999826</v>
       </c>
       <c r="AE95" t="n">
         <v>18.08</v>
@@ -19131,7 +19131,7 @@
         <v>1312.36</v>
       </c>
       <c r="AP95" t="n">
-        <v>10.23</v>
+        <v>6.150000000000002</v>
       </c>
       <c r="AQ95" t="n">
         <v>20.15</v>
@@ -19152,7 +19152,7 @@
         <v>1567.02</v>
       </c>
       <c r="AY95" t="n">
-        <v>3.99</v>
+        <v>0.5799999999999861</v>
       </c>
       <c r="AZ95" t="n">
         <v>9.199999999999999</v>
@@ -19170,7 +19170,7 @@
         <v>2773.61</v>
       </c>
       <c r="BE95" t="n">
-        <v>7.199999999999999</v>
+        <v>5.400000000000002</v>
       </c>
       <c r="BF95" t="n">
         <v>15.79</v>
@@ -19218,7 +19218,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>175.28</v>
+        <v>49.4399999999994</v>
       </c>
       <c r="C96" t="n">
         <v>782.77</v>
@@ -19227,7 +19227,7 @@
         <v>18.21</v>
       </c>
       <c r="E96" t="n">
-        <v>219.6899999999999</v>
+        <v>34.61999999999981</v>
       </c>
       <c r="F96" t="n">
         <v>932.9400000000001</v>
@@ -19272,7 +19272,7 @@
         <v>136.33</v>
       </c>
       <c r="T96" t="n">
-        <v>1.390000000000001</v>
+        <v>0.7299999999999995</v>
       </c>
       <c r="U96" t="n">
         <v>12.39</v>
@@ -19302,7 +19302,7 @@
         <v>323.16</v>
       </c>
       <c r="AD96" t="n">
-        <v>4.200000000000003</v>
+        <v>2.980000000000037</v>
       </c>
       <c r="AE96" t="n">
         <v>27.84</v>
@@ -19353,7 +19353,7 @@
         <v>1577.76</v>
       </c>
       <c r="AY96" t="n">
-        <v>2.77</v>
+        <v>0.1700000000000161</v>
       </c>
       <c r="AZ96" t="n">
         <v>14.86</v>
@@ -19371,7 +19371,7 @@
         <v>2791.01</v>
       </c>
       <c r="BE96" t="n">
-        <v>6.010000000000002</v>
+        <v>0.1600000000000001</v>
       </c>
       <c r="BF96" t="n">
         <v>25.4</v>
@@ -19419,7 +19419,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>75.12000000000009</v>
+        <v>25.68000000000069</v>
       </c>
       <c r="C97" t="n">
         <v>983.16</v>
@@ -19428,7 +19428,7 @@
         <v>17.4</v>
       </c>
       <c r="E97" t="n">
-        <v>83.58000000000007</v>
+        <v>14.34000000000044</v>
       </c>
       <c r="F97" t="n">
         <v>1188.41</v>
@@ -19446,7 +19446,7 @@
         <v>23.44</v>
       </c>
       <c r="K97" t="n">
-        <v>0.4599999999999997</v>
+        <v>0.01999999999999851</v>
       </c>
       <c r="L97" t="n">
         <v>9.48</v>
@@ -19473,7 +19473,7 @@
         <v>128.61</v>
       </c>
       <c r="T97" t="n">
-        <v>1.989999999999998</v>
+        <v>0.599999999999997</v>
       </c>
       <c r="U97" t="n">
         <v>17.09</v>
@@ -19503,7 +19503,7 @@
         <v>309.02</v>
       </c>
       <c r="AD97" t="n">
-        <v>6.559999999999997</v>
+        <v>2.359999999999994</v>
       </c>
       <c r="AE97" t="n">
         <v>32.39</v>
@@ -19554,7 +19554,7 @@
         <v>1544</v>
       </c>
       <c r="AY97" t="n">
-        <v>1.480000000000002</v>
+        <v>0.7299999999999998</v>
       </c>
       <c r="AZ97" t="n">
         <v>20.58</v>
@@ -19638,7 +19638,7 @@
         <v>13.53</v>
       </c>
       <c r="H98" t="n">
-        <v>2.34</v>
+        <v>0.7799999999999978</v>
       </c>
       <c r="I98" t="n">
         <v>11.65</v>
@@ -19647,7 +19647,7 @@
         <v>17.2</v>
       </c>
       <c r="K98" t="n">
-        <v>0.1999999999999993</v>
+        <v>0.07000000000000048</v>
       </c>
       <c r="L98" t="n">
         <v>11.45</v>
@@ -19674,7 +19674,7 @@
         <v>132.68</v>
       </c>
       <c r="T98" t="n">
-        <v>3.220000000000001</v>
+        <v>0.03000000000000913</v>
       </c>
       <c r="U98" t="n">
         <v>21.94</v>
@@ -19683,7 +19683,7 @@
         <v>59.45</v>
       </c>
       <c r="W98" t="n">
-        <v>15.14</v>
+        <v>2.319999999999979</v>
       </c>
       <c r="X98" t="n">
         <v>83.42</v>
@@ -19704,7 +19704,7 @@
         <v>303</v>
       </c>
       <c r="AD98" t="n">
-        <v>9.049999999999997</v>
+        <v>0.1300000000000061</v>
       </c>
       <c r="AE98" t="n">
         <v>41.44</v>
@@ -19734,7 +19734,7 @@
         <v>1343.44</v>
       </c>
       <c r="AP98" t="n">
-        <v>8.600000000000001</v>
+        <v>0.8300000000000129</v>
       </c>
       <c r="AQ98" t="n">
         <v>49.71</v>
@@ -19755,7 +19755,7 @@
         <v>1584.88</v>
       </c>
       <c r="AY98" t="n">
-        <v>3.259999999999998</v>
+        <v>0.299999999999994</v>
       </c>
       <c r="AZ98" t="n">
         <v>25.5</v>
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>266.8699999999999</v>
+        <v>117.4700000000003</v>
       </c>
       <c r="C99" t="n">
         <v>1566.3</v>
@@ -19830,7 +19830,7 @@
         <v>13.86</v>
       </c>
       <c r="E99" t="n">
-        <v>317.49</v>
+        <v>186.9699999999996</v>
       </c>
       <c r="F99" t="n">
         <v>1875.01</v>
@@ -19848,7 +19848,7 @@
         <v>21.34</v>
       </c>
       <c r="K99" t="n">
-        <v>1.290000000000001</v>
+        <v>0.4900000000000042</v>
       </c>
       <c r="L99" t="n">
         <v>13.02</v>
@@ -19875,7 +19875,7 @@
         <v>141.24</v>
       </c>
       <c r="T99" t="n">
-        <v>2.739999999999998</v>
+        <v>0.8499999999999797</v>
       </c>
       <c r="U99" t="n">
         <v>26.1</v>
@@ -19905,7 +19905,7 @@
         <v>317.38</v>
       </c>
       <c r="AD99" t="n">
-        <v>8.190000000000005</v>
+        <v>5.439999999999993</v>
       </c>
       <c r="AE99" t="n">
         <v>51.45</v>
@@ -19935,7 +19935,7 @@
         <v>1442.01</v>
       </c>
       <c r="AP99" t="n">
-        <v>8.57</v>
+        <v>1.729999999999982</v>
       </c>
       <c r="AQ99" t="n">
         <v>61.43</v>
@@ -19956,7 +19956,7 @@
         <v>1643.56</v>
       </c>
       <c r="AY99" t="n">
-        <v>0.8000000000000043</v>
+        <v>0.2000000000000162</v>
       </c>
       <c r="AZ99" t="n">
         <v>30.54</v>
@@ -19974,7 +19974,7 @@
         <v>2613.51</v>
       </c>
       <c r="BE99" t="n">
-        <v>7.75</v>
+        <v>3.710000000000024</v>
       </c>
       <c r="BF99" t="n">
         <v>45.9</v>
@@ -20031,7 +20031,7 @@
         <v>11.79</v>
       </c>
       <c r="E100" t="n">
-        <v>316.55</v>
+        <v>31.69000000000011</v>
       </c>
       <c r="F100" t="n">
         <v>2201.32</v>
@@ -20040,7 +20040,7 @@
         <v>11.96</v>
       </c>
       <c r="H100" t="n">
-        <v>2.229999999999999</v>
+        <v>2.029999999999995</v>
       </c>
       <c r="I100" t="n">
         <v>17.67</v>
@@ -20049,7 +20049,7 @@
         <v>20.45</v>
       </c>
       <c r="K100" t="n">
-        <v>1.07</v>
+        <v>0.1799999999999973</v>
       </c>
       <c r="L100" t="n">
         <v>15.39</v>
@@ -20085,7 +20085,7 @@
         <v>52.64</v>
       </c>
       <c r="W100" t="n">
-        <v>1.529999999999989</v>
+        <v>0.7499999999999896</v>
       </c>
       <c r="X100" t="n">
         <v>124.58</v>
@@ -20223,7 +20223,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>9.960000000000036</v>
+        <v>5.319999999999709</v>
       </c>
       <c r="C101" t="n">
         <v>2109.68</v>
@@ -20286,7 +20286,7 @@
         <v>48.12</v>
       </c>
       <c r="W101" t="n">
-        <v>2.300000000000011</v>
+        <v>0.02000000000003244</v>
       </c>
       <c r="X101" t="n">
         <v>141.7</v>
@@ -20307,7 +20307,7 @@
         <v>321.17</v>
       </c>
       <c r="AD101" t="n">
-        <v>6.840000000000003</v>
+        <v>0.3300000000000458</v>
       </c>
       <c r="AE101" t="n">
         <v>70.14</v>
@@ -20337,7 +20337,7 @@
         <v>1491.07</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.9900000000000162</v>
+        <v>0.2900000000000276</v>
       </c>
       <c r="AQ101" t="n">
         <v>83.67</v>
@@ -20358,7 +20358,7 @@
         <v>1748.86</v>
       </c>
       <c r="AY101" t="n">
-        <v>0.490000000000002</v>
+        <v>0.04000000000001699</v>
       </c>
       <c r="AZ101" t="n">
         <v>40.96</v>
@@ -20376,7 +20376,7 @@
         <v>2940.62</v>
       </c>
       <c r="BE101" t="n">
-        <v>0.6400000000000006</v>
+        <v>0.07999999999999821</v>
       </c>
       <c r="BF101" t="n">
         <v>61.76</v>
@@ -20424,7 +20424,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>11.9500000000001</v>
+        <v>1.990000000000064</v>
       </c>
       <c r="C102" t="n">
         <v>2407.4</v>
@@ -20433,7 +20433,7 @@
         <v>10</v>
       </c>
       <c r="E102" t="n">
-        <v>337.8299999999999</v>
+        <v>245.6300000000003</v>
       </c>
       <c r="F102" t="n">
         <v>2885.96</v>
@@ -20442,7 +20442,7 @@
         <v>10.05</v>
       </c>
       <c r="H102" t="n">
-        <v>0.3399999999999959</v>
+        <v>0.07999999999998811</v>
       </c>
       <c r="I102" t="n">
         <v>23.45</v>
@@ -20478,7 +20478,7 @@
         <v>146.93</v>
       </c>
       <c r="T102" t="n">
-        <v>0.4000000000000017</v>
+        <v>0.06000000000000449</v>
       </c>
       <c r="U102" t="n">
         <v>40.02</v>
@@ -20487,7 +20487,7 @@
         <v>48.22</v>
       </c>
       <c r="W102" t="n">
-        <v>0.8099999999999987</v>
+        <v>0.01999999999994428</v>
       </c>
       <c r="X102" t="n">
         <v>164.76</v>
@@ -20508,7 +20508,7 @@
         <v>322.89</v>
       </c>
       <c r="AD102" t="n">
-        <v>4.150000000000007</v>
+        <v>1.319999999999929</v>
       </c>
       <c r="AE102" t="n">
         <v>80.44</v>
@@ -20538,7 +20538,7 @@
         <v>1480.78</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.569999999999979</v>
+        <v>0.2799999999999513</v>
       </c>
       <c r="AQ102" t="n">
         <v>95.81</v>
@@ -20559,7 +20559,7 @@
         <v>1678.47</v>
       </c>
       <c r="AY102" t="n">
-        <v>0.4800000000000004</v>
+        <v>0.09999999999997641</v>
       </c>
       <c r="AZ102" t="n">
         <v>46.78</v>
@@ -20577,7 +20577,7 @@
         <v>3004.82</v>
       </c>
       <c r="BE102" t="n">
-        <v>4.400000000000006</v>
+        <v>2.680000000000007</v>
       </c>
       <c r="BF102" t="n">
         <v>70.18000000000001</v>
@@ -20625,7 +20625,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>14.02999999999969</v>
+        <v>0.08999999999952624</v>
       </c>
       <c r="C103" t="n">
         <v>2703.39</v>
@@ -20643,7 +20643,7 @@
         <v>9.859999999999999</v>
       </c>
       <c r="H103" t="n">
-        <v>0.27</v>
+        <v>0.06000000000000802</v>
       </c>
       <c r="I103" t="n">
         <v>26.39</v>
@@ -20652,7 +20652,7 @@
         <v>20.17</v>
       </c>
       <c r="K103" t="n">
-        <v>0.870000000000001</v>
+        <v>0.350000000000005</v>
       </c>
       <c r="L103" t="n">
         <v>19.75</v>
@@ -20679,7 +20679,7 @@
         <v>150.25</v>
       </c>
       <c r="T103" t="n">
-        <v>3.659999999999997</v>
+        <v>3.079999999999981</v>
       </c>
       <c r="U103" t="n">
         <v>44.48</v>
@@ -20688,7 +20688,7 @@
         <v>42.52</v>
       </c>
       <c r="W103" t="n">
-        <v>7.060000000000002</v>
+        <v>5.380000000000084</v>
       </c>
       <c r="X103" t="n">
         <v>189.12</v>
@@ -20739,7 +20739,7 @@
         <v>1519.41</v>
       </c>
       <c r="AP103" t="n">
-        <v>0.9900000000000198</v>
+        <v>0.1400000000000895</v>
       </c>
       <c r="AQ103" t="n">
         <v>108.2</v>
@@ -20760,7 +20760,7 @@
         <v>1765.4</v>
       </c>
       <c r="AY103" t="n">
-        <v>5.080000000000005</v>
+        <v>3.840000000000019</v>
       </c>
       <c r="AZ103" t="n">
         <v>52.58</v>
@@ -20778,7 +20778,7 @@
         <v>3106.46</v>
       </c>
       <c r="BE103" t="n">
-        <v>4.269999999999982</v>
+        <v>0.5099999999999767</v>
       </c>
       <c r="BF103" t="n">
         <v>79.09</v>
@@ -20826,7 +20826,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>17.27000000000038</v>
+        <v>0.9800000000020468</v>
       </c>
       <c r="C104" t="n">
         <v>3012.86</v>
@@ -20835,7 +20835,7 @@
         <v>8.279999999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>40.86000000000018</v>
+        <v>14.11000000000018</v>
       </c>
       <c r="F104" t="n">
         <v>3641.54</v>
@@ -20844,7 +20844,7 @@
         <v>9.529999999999999</v>
       </c>
       <c r="H104" t="n">
-        <v>0.970000000000002</v>
+        <v>0.3099999999999858</v>
       </c>
       <c r="I104" t="n">
         <v>30.08</v>
@@ -20853,7 +20853,7 @@
         <v>20.66</v>
       </c>
       <c r="K104" t="n">
-        <v>0.519999999999998</v>
+        <v>0.03999999999999404</v>
       </c>
       <c r="L104" t="n">
         <v>21.96</v>
@@ -20889,7 +20889,7 @@
         <v>43.28</v>
       </c>
       <c r="W104" t="n">
-        <v>15.29999999999999</v>
+        <v>1.989999999999983</v>
       </c>
       <c r="X104" t="n">
         <v>222.54</v>
@@ -20910,7 +20910,7 @@
         <v>327.94</v>
       </c>
       <c r="AD104" t="n">
-        <v>9.299999999999999</v>
+        <v>5.940000000000043</v>
       </c>
       <c r="AE104" t="n">
         <v>108.67</v>
@@ -20940,7 +20940,7 @@
         <v>1553.54</v>
       </c>
       <c r="AP104" t="n">
-        <v>4.28999999999998</v>
+        <v>2.039999999999837</v>
       </c>
       <c r="AQ104" t="n">
         <v>120.96</v>
@@ -20961,7 +20961,7 @@
         <v>1779.17</v>
       </c>
       <c r="AY104" t="n">
-        <v>4.639999999999993</v>
+        <v>0.0399999999999876</v>
       </c>
       <c r="AZ104" t="n">
         <v>59.42</v>
@@ -20979,7 +20979,7 @@
         <v>3145.98</v>
       </c>
       <c r="BE104" t="n">
-        <v>1.790000000000022</v>
+        <v>0.7700000000000684</v>
       </c>
       <c r="BF104" t="n">
         <v>88.84</v>
@@ -21027,7 +21027,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>107.9699999999998</v>
+        <v>85.22999999999605</v>
       </c>
       <c r="C105" t="n">
         <v>3330.16</v>
@@ -21036,7 +21036,7 @@
         <v>7.3</v>
       </c>
       <c r="E105" t="n">
-        <v>108.2599999999999</v>
+        <v>25.06999999999917</v>
       </c>
       <c r="F105" t="n">
         <v>4044.38</v>
@@ -21045,7 +21045,7 @@
         <v>8.42</v>
       </c>
       <c r="H105" t="n">
-        <v>3.66</v>
+        <v>1.19</v>
       </c>
       <c r="I105" t="n">
         <v>34.79</v>
@@ -21054,7 +21054,7 @@
         <v>20.51</v>
       </c>
       <c r="K105" t="n">
-        <v>4.130000000000001</v>
+        <v>2.050000000000009</v>
       </c>
       <c r="L105" t="n">
         <v>20.28</v>
@@ -21081,7 +21081,7 @@
         <v>150.27</v>
       </c>
       <c r="T105" t="n">
-        <v>1.459999999999996</v>
+        <v>0.06999999999998896</v>
       </c>
       <c r="U105" t="n">
         <v>55.54</v>
@@ -21090,7 +21090,7 @@
         <v>39.13</v>
       </c>
       <c r="W105" t="n">
-        <v>33</v>
+        <v>5.480000000000057</v>
       </c>
       <c r="X105" t="n">
         <v>278.35</v>
@@ -21111,7 +21111,7 @@
         <v>325.76</v>
       </c>
       <c r="AD105" t="n">
-        <v>16.09</v>
+        <v>0.009999999999968701</v>
       </c>
       <c r="AE105" t="n">
         <v>126</v>
@@ -21162,7 +21162,7 @@
         <v>1752.18</v>
       </c>
       <c r="AY105" t="n">
-        <v>3.300000000000008</v>
+        <v>3.220000000000033</v>
       </c>
       <c r="AZ105" t="n">
         <v>57.96</v>
@@ -21180,7 +21180,7 @@
         <v>3136.57</v>
       </c>
       <c r="BE105" t="n">
-        <v>3.499999999999991</v>
+        <v>0.429999999999924</v>
       </c>
       <c r="BF105" t="n">
         <v>98.93000000000001</v>
@@ -21228,7 +21228,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>269.7500000000001</v>
+        <v>71.08000000000089</v>
       </c>
       <c r="C106" t="n">
         <v>444.17</v>
@@ -21237,7 +21237,7 @@
         <v>3.49</v>
       </c>
       <c r="E106" t="n">
-        <v>322.26</v>
+        <v>54.1300000000015</v>
       </c>
       <c r="F106" t="n">
         <v>537.92</v>
@@ -21246,7 +21246,7 @@
         <v>4.71</v>
       </c>
       <c r="H106" t="n">
-        <v>2.49</v>
+        <v>0.5000000000000042</v>
       </c>
       <c r="I106" t="n">
         <v>4.33</v>
@@ -21282,7 +21282,7 @@
         <v>139.08</v>
       </c>
       <c r="T106" t="n">
-        <v>3.460000000000001</v>
+        <v>1.790000000000038</v>
       </c>
       <c r="U106" t="n">
         <v>7.05</v>
@@ -21291,7 +21291,7 @@
         <v>8.289999999999999</v>
       </c>
       <c r="W106" t="n">
-        <v>18.65</v>
+        <v>0.9499999999999886</v>
       </c>
       <c r="X106" t="n">
         <v>30.67</v>
@@ -21312,7 +21312,7 @@
         <v>318.69</v>
       </c>
       <c r="AD106" t="n">
-        <v>7.920000000000002</v>
+        <v>1.130000000000001</v>
       </c>
       <c r="AE106" t="n">
         <v>17.11</v>
@@ -21342,7 +21342,7 @@
         <v>1424.51</v>
       </c>
       <c r="AP106" t="n">
-        <v>10.22</v>
+        <v>0.4199999999999529</v>
       </c>
       <c r="AQ106" t="n">
         <v>20.46</v>
@@ -21363,7 +21363,7 @@
         <v>1661.91</v>
       </c>
       <c r="AY106" t="n">
-        <v>4.36</v>
+        <v>1.059999999999993</v>
       </c>
       <c r="AZ106" t="n">
         <v>8.52</v>
@@ -21381,7 +21381,7 @@
         <v>2949.8</v>
       </c>
       <c r="BE106" t="n">
-        <v>8.640000000000001</v>
+        <v>0.01000000000010193</v>
       </c>
       <c r="BF106" t="n">
         <v>14.46</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>234.6899999999999</v>
+        <v>1.829999999998705</v>
       </c>
       <c r="C107" t="n">
         <v>736.25</v>
@@ -21438,7 +21438,7 @@
         <v>5.34</v>
       </c>
       <c r="E107" t="n">
-        <v>291.1800000000001</v>
+        <v>77.18000000000001</v>
       </c>
       <c r="F107" t="n">
         <v>879.88</v>
@@ -21492,7 +21492,7 @@
         <v>-6.32</v>
       </c>
       <c r="W107" t="n">
-        <v>9.020000000000003</v>
+        <v>7.120000000000026</v>
       </c>
       <c r="X107" t="n">
         <v>50.47</v>
@@ -21513,7 +21513,7 @@
         <v>314.84</v>
       </c>
       <c r="AD107" t="n">
-        <v>6.039999999999999</v>
+        <v>3.779999999999998</v>
       </c>
       <c r="AE107" t="n">
         <v>26.26</v>
@@ -21543,7 +21543,7 @@
         <v>1447.04</v>
       </c>
       <c r="AP107" t="n">
-        <v>10.12</v>
+        <v>2.35000000000001</v>
       </c>
       <c r="AQ107" t="n">
         <v>31.72</v>
@@ -21564,7 +21564,7 @@
         <v>1635.97</v>
       </c>
       <c r="AY107" t="n">
-        <v>1.96</v>
+        <v>0.900000000000007</v>
       </c>
       <c r="AZ107" t="n">
         <v>11.81</v>
@@ -21582,7 +21582,7 @@
         <v>2934.18</v>
       </c>
       <c r="BE107" t="n">
-        <v>6.389999999999997</v>
+        <v>1.249999999999988</v>
       </c>
       <c r="BF107" t="n">
         <v>22.6</v>
@@ -21630,7 +21630,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>14.40000000000009</v>
+        <v>12.57000000000138</v>
       </c>
       <c r="C108" t="n">
         <v>1039.24</v>
@@ -21648,7 +21648,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="H108" t="n">
-        <v>2.31</v>
+        <v>0.7100000000000044</v>
       </c>
       <c r="I108" t="n">
         <v>8.82</v>
@@ -21684,7 +21684,7 @@
         <v>142.13</v>
       </c>
       <c r="T108" t="n">
-        <v>4.280000000000001</v>
+        <v>0.6800000000000033</v>
       </c>
       <c r="U108" t="n">
         <v>13.46</v>
@@ -21693,7 +21693,7 @@
         <v>-11.62</v>
       </c>
       <c r="W108" t="n">
-        <v>10.09</v>
+        <v>1.069999999999997</v>
       </c>
       <c r="X108" t="n">
         <v>66.78</v>
@@ -21744,7 +21744,7 @@
         <v>1412.08</v>
       </c>
       <c r="AP108" t="n">
-        <v>9.670000000000002</v>
+        <v>4.969999999999981</v>
       </c>
       <c r="AQ108" t="n">
         <v>42.57</v>
@@ -21765,7 +21765,7 @@
         <v>1591.88</v>
       </c>
       <c r="AY108" t="n">
-        <v>4.459999999999997</v>
+        <v>0.5399999999999969</v>
       </c>
       <c r="AZ108" t="n">
         <v>16.94</v>
@@ -21831,7 +21831,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>136.38</v>
+        <v>78.77999999999962</v>
       </c>
       <c r="C109" t="n">
         <v>1331.21</v>
@@ -21840,7 +21840,7 @@
         <v>12.55</v>
       </c>
       <c r="E109" t="n">
-        <v>154.1000000000002</v>
+        <v>147.500000000001</v>
       </c>
       <c r="F109" t="n">
         <v>1584.05</v>
@@ -21849,7 +21849,7 @@
         <v>11.56</v>
       </c>
       <c r="H109" t="n">
-        <v>1.87</v>
+        <v>0.3599999999999981</v>
       </c>
       <c r="I109" t="n">
         <v>11.24</v>
@@ -21858,7 +21858,7 @@
         <v>-0.97</v>
       </c>
       <c r="K109" t="n">
-        <v>3.41</v>
+        <v>2.490000000000004</v>
       </c>
       <c r="L109" t="n">
         <v>10.63</v>
@@ -21885,7 +21885,7 @@
         <v>143</v>
       </c>
       <c r="T109" t="n">
-        <v>1.689999999999998</v>
+        <v>0.3299999999999916</v>
       </c>
       <c r="U109" t="n">
         <v>16.76</v>
@@ -21894,7 +21894,7 @@
         <v>-14.1</v>
       </c>
       <c r="W109" t="n">
-        <v>2.489999999999991</v>
+        <v>0.349999999999997</v>
       </c>
       <c r="X109" t="n">
         <v>85.2</v>
@@ -21915,7 +21915,7 @@
         <v>325.11</v>
       </c>
       <c r="AD109" t="n">
-        <v>2.99</v>
+        <v>0.5499999999999994</v>
       </c>
       <c r="AE109" t="n">
         <v>41.75</v>
@@ -21966,7 +21966,7 @@
         <v>1608.54</v>
       </c>
       <c r="AY109" t="n">
-        <v>2.160000000000004</v>
+        <v>1.08000000000001</v>
       </c>
       <c r="AZ109" t="n">
         <v>21.17</v>
@@ -21984,7 +21984,7 @@
         <v>2934.08</v>
       </c>
       <c r="BE109" t="n">
-        <v>1.849999999999998</v>
+        <v>0.2299999999999796</v>
       </c>
       <c r="BF109" t="n">
         <v>39.35</v>
@@ -22032,7 +22032,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>260.4300000000001</v>
+        <v>2.070000000000192</v>
       </c>
       <c r="C110" t="n">
         <v>1743.42</v>
@@ -22041,7 +22041,7 @@
         <v>11.17</v>
       </c>
       <c r="E110" t="n">
-        <v>315.2199999999998</v>
+        <v>8.66999999999922</v>
       </c>
       <c r="F110" t="n">
         <v>2048.05</v>
@@ -22050,7 +22050,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="H110" t="n">
-        <v>2.74</v>
+        <v>0.510000000000002</v>
       </c>
       <c r="I110" t="n">
         <v>14.55</v>
@@ -22086,7 +22086,7 @@
         <v>152.51</v>
       </c>
       <c r="T110" t="n">
-        <v>2.759999999999998</v>
+        <v>0.06000000000000516</v>
       </c>
       <c r="U110" t="n">
         <v>22.52</v>
@@ -22095,7 +22095,7 @@
         <v>-11.62</v>
       </c>
       <c r="W110" t="n">
-        <v>17.37</v>
+        <v>10.62000000000003</v>
       </c>
       <c r="X110" t="n">
         <v>108.64</v>
@@ -22116,7 +22116,7 @@
         <v>352.32</v>
       </c>
       <c r="AD110" t="n">
-        <v>10.83</v>
+        <v>6.190000000000003</v>
       </c>
       <c r="AE110" t="n">
         <v>52.51</v>
@@ -22146,7 +22146,7 @@
         <v>1471.69</v>
       </c>
       <c r="AP110" t="n">
-        <v>10.25000000000001</v>
+        <v>0.2100000000000191</v>
       </c>
       <c r="AQ110" t="n">
         <v>68.54000000000001</v>
@@ -22167,7 +22167,7 @@
         <v>1702.61</v>
       </c>
       <c r="AY110" t="n">
-        <v>4.370000000000001</v>
+        <v>0.04999999999999272</v>
       </c>
       <c r="AZ110" t="n">
         <v>27.41</v>
@@ -22185,7 +22185,7 @@
         <v>3105.29</v>
       </c>
       <c r="BE110" t="n">
-        <v>7.369999999999997</v>
+        <v>3.210000000000043</v>
       </c>
       <c r="BF110" t="n">
         <v>49.16</v>
@@ -22233,7 +22233,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>7.32999999999987</v>
+        <v>3.189999999999486</v>
       </c>
       <c r="C111" t="n">
         <v>2038.29</v>
@@ -22251,7 +22251,7 @@
         <v>9.15</v>
       </c>
       <c r="H111" t="n">
-        <v>2.580000000000002</v>
+        <v>0.8400000000000019</v>
       </c>
       <c r="I111" t="n">
         <v>17.21</v>
@@ -22296,7 +22296,7 @@
         <v>-12.04</v>
       </c>
       <c r="W111" t="n">
-        <v>15.72</v>
+        <v>0.839999999999991</v>
       </c>
       <c r="X111" t="n">
         <v>124.63</v>
@@ -22347,7 +22347,7 @@
         <v>1484.39</v>
       </c>
       <c r="AP111" t="n">
-        <v>5.509999999999978</v>
+        <v>0.2799999999999629</v>
       </c>
       <c r="AQ111" t="n">
         <v>80.09</v>
@@ -22368,7 +22368,7 @@
         <v>1726.76</v>
       </c>
       <c r="AY111" t="n">
-        <v>0.05999999999999872</v>
+        <v>0.010000000000006</v>
       </c>
       <c r="AZ111" t="n">
         <v>30.88</v>
@@ -22434,7 +22434,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>26.8599999999999</v>
+        <v>4.870000000000289</v>
       </c>
       <c r="C112" t="n">
         <v>2342.63</v>
@@ -22443,7 +22443,7 @@
         <v>11.75</v>
       </c>
       <c r="E112" t="n">
-        <v>23.0300000000002</v>
+        <v>1.1899999999996</v>
       </c>
       <c r="F112" t="n">
         <v>2731.87</v>
@@ -22488,7 +22488,7 @@
         <v>152.85</v>
       </c>
       <c r="T112" t="n">
-        <v>2.039999999999996</v>
+        <v>0.3599999999999901</v>
       </c>
       <c r="U112" t="n">
         <v>28.62</v>
@@ -22497,7 +22497,7 @@
         <v>-10.11</v>
       </c>
       <c r="W112" t="n">
-        <v>4.339999999999998</v>
+        <v>2.660000000000016</v>
       </c>
       <c r="X112" t="n">
         <v>144.53</v>
@@ -22548,7 +22548,7 @@
         <v>1483.36</v>
       </c>
       <c r="AP112" t="n">
-        <v>6.620000000000005</v>
+        <v>0.8300000000000651</v>
       </c>
       <c r="AQ112" t="n">
         <v>92.01000000000001</v>
@@ -22569,7 +22569,7 @@
         <v>1705.21</v>
       </c>
       <c r="AY112" t="n">
-        <v>1.340000000000003</v>
+        <v>1.15</v>
       </c>
       <c r="AZ112" t="n">
         <v>35.42</v>
@@ -22587,7 +22587,7 @@
         <v>3104.81</v>
       </c>
       <c r="BE112" t="n">
-        <v>0.9100000000000037</v>
+        <v>0.2299999999999969</v>
       </c>
       <c r="BF112" t="n">
         <v>65.87</v>
@@ -22635,7 +22635,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>288.4499999999998</v>
+        <v>224.9899999999994</v>
       </c>
       <c r="C113" t="n">
         <v>2678</v>
@@ -22644,7 +22644,7 @@
         <v>12</v>
       </c>
       <c r="E113" t="n">
-        <v>10.12999999999971</v>
+        <v>0.4700000000003099</v>
       </c>
       <c r="F113" t="n">
         <v>3120.03</v>
@@ -22662,7 +22662,7 @@
         <v>-3.78</v>
       </c>
       <c r="K113" t="n">
-        <v>0.9199999999999982</v>
+        <v>0.5999999999999908</v>
       </c>
       <c r="L113" t="n">
         <v>18.77</v>
@@ -22689,7 +22689,7 @@
         <v>155.56</v>
       </c>
       <c r="T113" t="n">
-        <v>4.580000000000005</v>
+        <v>0.6200000000000359</v>
       </c>
       <c r="U113" t="n">
         <v>32.75</v>
@@ -22749,7 +22749,7 @@
         <v>1488.11</v>
       </c>
       <c r="AP113" t="n">
-        <v>5.339999999999985</v>
+        <v>2.009999999999901</v>
       </c>
       <c r="AQ113" t="n">
         <v>106.54</v>
@@ -22770,7 +22770,7 @@
         <v>1717.73</v>
       </c>
       <c r="AY113" t="n">
-        <v>5.659999999999997</v>
+        <v>0.6599999999999782</v>
       </c>
       <c r="AZ113" t="n">
         <v>40.43</v>
@@ -22845,7 +22845,7 @@
         <v>12.74</v>
       </c>
       <c r="E114" t="n">
-        <v>36.55000000000007</v>
+        <v>4.50000000000103</v>
       </c>
       <c r="F114" t="n">
         <v>3519.69</v>
@@ -22854,7 +22854,7 @@
         <v>9.789999999999999</v>
       </c>
       <c r="H114" t="n">
-        <v>0.7900000000000031</v>
+        <v>0.1099999999999999</v>
       </c>
       <c r="I114" t="n">
         <v>26.24</v>
@@ -22899,7 +22899,7 @@
         <v>-12.17</v>
       </c>
       <c r="W114" t="n">
-        <v>9.970000000000017</v>
+        <v>0.6400000000000401</v>
       </c>
       <c r="X114" t="n">
         <v>192.74</v>
@@ -22920,7 +22920,7 @@
         <v>360.67</v>
       </c>
       <c r="AD114" t="n">
-        <v>4.409999999999989</v>
+        <v>0.4900000000000224</v>
       </c>
       <c r="AE114" t="n">
         <v>90.58</v>
@@ -22989,7 +22989,7 @@
         <v>3168.27</v>
       </c>
       <c r="BE114" t="n">
-        <v>0.9099999999999966</v>
+        <v>0.7500000000000284</v>
       </c>
       <c r="BF114" t="n">
         <v>83.88</v>
@@ -23046,7 +23046,7 @@
         <v>12.49</v>
       </c>
       <c r="E115" t="n">
-        <v>17.88999999999993</v>
+        <v>1.59999999999928</v>
       </c>
       <c r="F115" t="n">
         <v>3939.16</v>
@@ -23055,7 +23055,7 @@
         <v>9.48</v>
       </c>
       <c r="H115" t="n">
-        <v>0.8799999999999955</v>
+        <v>0.08999999999999231</v>
       </c>
       <c r="I115" t="n">
         <v>29.86</v>
@@ -23064,7 +23064,7 @@
         <v>-3.05</v>
       </c>
       <c r="K115" t="n">
-        <v>23.9</v>
+        <v>21.33999999999999</v>
       </c>
       <c r="L115" t="n">
         <v>19.31</v>
@@ -23091,7 +23091,7 @@
         <v>160.29</v>
       </c>
       <c r="T115" t="n">
-        <v>5.18</v>
+        <v>2.140000000000036</v>
       </c>
       <c r="U115" t="n">
         <v>41.51</v>
@@ -23100,7 +23100,7 @@
         <v>-12.43</v>
       </c>
       <c r="W115" t="n">
-        <v>23.01999999999999</v>
+        <v>1.799999999999874</v>
       </c>
       <c r="X115" t="n">
         <v>235.14</v>
@@ -23121,7 +23121,7 @@
         <v>364.93</v>
       </c>
       <c r="AD115" t="n">
-        <v>2.320000000000011</v>
+        <v>0.849999999999997</v>
       </c>
       <c r="AE115" t="n">
         <v>106.1</v>
@@ -23151,7 +23151,7 @@
         <v>1522.59</v>
       </c>
       <c r="AP115" t="n">
-        <v>5.39999999999999</v>
+        <v>2.47999999999991</v>
       </c>
       <c r="AQ115" t="n">
         <v>133.14</v>
@@ -23172,7 +23172,7 @@
         <v>1730.66</v>
       </c>
       <c r="AY115" t="n">
-        <v>48.45</v>
+        <v>45.05</v>
       </c>
       <c r="AZ115" t="n">
         <v>50.57</v>
@@ -23238,7 +23238,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>124.3699999999999</v>
+        <v>85.73000000000049</v>
       </c>
       <c r="C116" t="n">
         <v>3727.37</v>
@@ -23247,7 +23247,7 @@
         <v>12.27</v>
       </c>
       <c r="E116" t="n">
-        <v>133.0100000000001</v>
+        <v>77.74000000000106</v>
       </c>
       <c r="F116" t="n">
         <v>4391</v>
@@ -23256,7 +23256,7 @@
         <v>9.550000000000001</v>
       </c>
       <c r="H116" t="n">
-        <v>4.36</v>
+        <v>3.210000000000029</v>
       </c>
       <c r="I116" t="n">
         <v>34.32</v>
@@ -23301,7 +23301,7 @@
         <v>-5.52</v>
       </c>
       <c r="W116" t="n">
-        <v>30.11</v>
+        <v>0.9000000000000652</v>
       </c>
       <c r="X116" t="n">
         <v>274.62</v>
@@ -23322,7 +23322,7 @@
         <v>373.24</v>
       </c>
       <c r="AD116" t="n">
-        <v>16.95</v>
+        <v>7.669999999999957</v>
       </c>
       <c r="AE116" t="n">
         <v>124.94</v>
@@ -23391,7 +23391,7 @@
         <v>3292.23</v>
       </c>
       <c r="BE116" t="n">
-        <v>4.809999999999999</v>
+        <v>4.52999999999997</v>
       </c>
       <c r="BF116" t="n">
         <v>103.91</v>
@@ -23439,7 +23439,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>300.7599999999999</v>
+        <v>61.67999999999989</v>
       </c>
       <c r="C117" t="n">
         <v>541.92</v>
@@ -23448,7 +23448,7 @@
         <v>20.55</v>
       </c>
       <c r="E117" t="n">
-        <v>349.99</v>
+        <v>4.629999999999427</v>
       </c>
       <c r="F117" t="n">
         <v>633.1</v>
@@ -23493,7 +23493,7 @@
         <v>155.6</v>
       </c>
       <c r="T117" t="n">
-        <v>2.5</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="U117" t="n">
         <v>6.94</v>
@@ -23502,7 +23502,7 @@
         <v>-2.25</v>
       </c>
       <c r="W117" t="n">
-        <v>18.69</v>
+        <v>3.609999999999914</v>
       </c>
       <c r="X117" t="n">
         <v>35.25</v>
@@ -23553,7 +23553,7 @@
         <v>1557.8</v>
       </c>
       <c r="AP117" t="n">
-        <v>11.33</v>
+        <v>2.690000000000003</v>
       </c>
       <c r="AQ117" t="n">
         <v>23.68</v>
@@ -23592,7 +23592,7 @@
         <v>3251.8</v>
       </c>
       <c r="BE117" t="n">
-        <v>7.75</v>
+        <v>2.940000000000001</v>
       </c>
       <c r="BF117" t="n">
         <v>15.16</v>
@@ -23640,7 +23640,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>211</v>
+        <v>34.61000000000001</v>
       </c>
       <c r="C118" t="n">
         <v>897.1</v>
@@ -23649,7 +23649,7 @@
         <v>19.6</v>
       </c>
       <c r="E118" t="n">
-        <v>250.6999999999999</v>
+        <v>29.09000000000057</v>
       </c>
       <c r="F118" t="n">
         <v>1041.5</v>
@@ -23694,7 +23694,7 @@
         <v>162.5</v>
       </c>
       <c r="T118" t="n">
-        <v>1.9</v>
+        <v>0.1599999999999999</v>
       </c>
       <c r="U118" t="n">
         <v>10.4</v>
@@ -23703,7 +23703,7 @@
         <v>8.1</v>
       </c>
       <c r="W118" t="n">
-        <v>11</v>
+        <v>6.490000000000021</v>
       </c>
       <c r="X118" t="n">
         <v>58.4</v>
@@ -23754,7 +23754,7 @@
         <v>1665.6</v>
       </c>
       <c r="AP118" t="n">
-        <v>6.900000000000006</v>
+        <v>1.330000000000004</v>
       </c>
       <c r="AQ118" t="n">
         <v>36.7</v>
@@ -23793,7 +23793,7 @@
         <v>3411.9</v>
       </c>
       <c r="BE118" t="n">
-        <v>6.900000000000002</v>
+        <v>1.02</v>
       </c>
       <c r="BF118" t="n">
         <v>23.5</v>
@@ -23841,7 +23841,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>56.40000000000009</v>
+        <v>21.79000000000008</v>
       </c>
       <c r="C119" t="n">
         <v>1128.7</v>
@@ -23850,7 +23850,7 @@
         <v>17.4</v>
       </c>
       <c r="E119" t="n">
-        <v>70.20000000000019</v>
+        <v>2.76000000000019</v>
       </c>
       <c r="F119" t="n">
         <v>1307.8</v>
@@ -23895,7 +23895,7 @@
         <v>147.3</v>
       </c>
       <c r="T119" t="n">
-        <v>2.299999999999999</v>
+        <v>0.399999999999999</v>
       </c>
       <c r="U119" t="n">
         <v>12.3</v>
@@ -23955,7 +23955,7 @@
         <v>1509.8</v>
       </c>
       <c r="AP119" t="n">
-        <v>3.299999999999994</v>
+        <v>1.96999999999999</v>
       </c>
       <c r="AQ119" t="n">
         <v>45.1</v>
@@ -24042,7 +24042,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>60.2999999999999</v>
+        <v>3.899999999999807</v>
       </c>
       <c r="C120" t="n">
         <v>1440.7</v>
@@ -24051,7 +24051,7 @@
         <v>17.3</v>
       </c>
       <c r="E120" t="n">
-        <v>44.69999999999982</v>
+        <v>8.219999999999629</v>
       </c>
       <c r="F120" t="n">
         <v>1665.5</v>
@@ -24096,7 +24096,7 @@
         <v>148.5</v>
       </c>
       <c r="T120" t="n">
-        <v>3</v>
+        <v>0.300000000000002</v>
       </c>
       <c r="U120" t="n">
         <v>15.2</v>
@@ -24177,7 +24177,7 @@
         <v>1764.3</v>
       </c>
       <c r="AY120" t="n">
-        <v>3.399999999999999</v>
+        <v>1.099999999999998</v>
       </c>
       <c r="AZ120" t="n">
         <v>19.3</v>
@@ -24243,7 +24243,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>446.0000000000001</v>
+        <v>374.0000000000008</v>
       </c>
       <c r="C121" t="n">
         <v>1798.7</v>
@@ -24252,7 +24252,7 @@
         <v>15.6</v>
       </c>
       <c r="E121" t="n">
-        <v>520.6000000000001</v>
+        <v>341.8000000000009</v>
       </c>
       <c r="F121" t="n">
         <v>2072.2</v>
@@ -24261,7 +24261,7 @@
         <v>13.2</v>
       </c>
       <c r="H121" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I121" t="n">
         <v>17</v>
@@ -24270,7 +24270,7 @@
         <v>25.1</v>
       </c>
       <c r="K121" t="n">
-        <v>3.799999999999998</v>
+        <v>2.199999999999994</v>
       </c>
       <c r="L121" t="n">
         <v>12.4</v>
@@ -24297,7 +24297,7 @@
         <v>152.1</v>
       </c>
       <c r="T121" t="n">
-        <v>2.8</v>
+        <v>1.499999999999995</v>
       </c>
       <c r="U121" t="n">
         <v>17.5</v>
@@ -24306,7 +24306,7 @@
         <v>-6.7</v>
       </c>
       <c r="W121" t="n">
-        <v>20.9</v>
+        <v>11.7</v>
       </c>
       <c r="X121" t="n">
         <v>114.4</v>
@@ -24327,7 +24327,7 @@
         <v>343.1</v>
       </c>
       <c r="AD121" t="n">
-        <v>12.6</v>
+        <v>9.800000000000004</v>
       </c>
       <c r="AE121" t="n">
         <v>55.7</v>
@@ -24357,7 +24357,7 @@
         <v>1542.9</v>
       </c>
       <c r="AP121" t="n">
-        <v>20</v>
+        <v>13.6</v>
       </c>
       <c r="AQ121" t="n">
         <v>69.2</v>
@@ -24378,7 +24378,7 @@
         <v>1783.9</v>
       </c>
       <c r="AY121" t="n">
-        <v>3.900000000000001</v>
+        <v>0.5000000000000018</v>
       </c>
       <c r="AZ121" t="n">
         <v>23.7</v>
@@ -24396,7 +24396,7 @@
         <v>3259.5</v>
       </c>
       <c r="BE121" t="n">
-        <v>10.1</v>
+        <v>8.500000000000005</v>
       </c>
       <c r="BF121" t="n">
         <v>46.4</v>
@@ -24579,7 +24579,7 @@
         <v>845.1</v>
       </c>
       <c r="AY122" t="n">
-        <v>1.000000000000001</v>
+        <v>0.4999999999999993</v>
       </c>
       <c r="AZ122" t="n">
         <v>7.8</v>
@@ -24864,7 +24864,7 @@
         <v>13.9</v>
       </c>
       <c r="H124" t="n">
-        <v>1.300000000000001</v>
+        <v>0.1000000000000072</v>
       </c>
       <c r="I124" t="n">
         <v>11.3</v>
@@ -24873,7 +24873,7 @@
         <v>29.9</v>
       </c>
       <c r="K124" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="L124" t="n">
         <v>10.8</v>
@@ -24900,7 +24900,7 @@
         <v>65.90000000000001</v>
       </c>
       <c r="T124" t="n">
-        <v>0.8000000000000007</v>
+        <v>0.2000000000000011</v>
       </c>
       <c r="U124" t="n">
         <v>8.4</v>
@@ -24909,7 +24909,7 @@
         <v>12</v>
       </c>
       <c r="W124" t="n">
-        <v>2.200000000000003</v>
+        <v>0.8000000000000038</v>
       </c>
       <c r="X124" t="n">
         <v>51.2</v>
@@ -24960,7 +24960,7 @@
         <v>681.5</v>
       </c>
       <c r="AP124" t="n">
-        <v>5.399999999999999</v>
+        <v>1.399999999999983</v>
       </c>
       <c r="AQ124" t="n">
         <v>45.5</v>
@@ -24981,7 +24981,7 @@
         <v>865.6</v>
       </c>
       <c r="AY124" t="n">
-        <v>1.1</v>
+        <v>0.3000000000000082</v>
       </c>
       <c r="AZ124" t="n">
         <v>10.3</v>
@@ -24999,7 +24999,7 @@
         <v>1428.2</v>
       </c>
       <c r="BE124" t="n">
-        <v>3</v>
+        <v>0.6000000000000081</v>
       </c>
       <c r="BF124" t="n">
         <v>27.3</v>
@@ -25065,7 +25065,7 @@
         <v>12</v>
       </c>
       <c r="H125" t="n">
-        <v>0.3999999999999981</v>
+        <v>0.2999999999999909</v>
       </c>
       <c r="I125" t="n">
         <v>12.9</v>
@@ -25110,7 +25110,7 @@
         <v>9.6</v>
       </c>
       <c r="W125" t="n">
-        <v>1.199999999999999</v>
+        <v>0.3999999999999952</v>
       </c>
       <c r="X125" t="n">
         <v>59</v>
@@ -25161,7 +25161,7 @@
         <v>689.5</v>
       </c>
       <c r="AP125" t="n">
-        <v>5.100000000000001</v>
+        <v>0.7000000000000064</v>
       </c>
       <c r="AQ125" t="n">
         <v>50.3</v>
@@ -25248,7 +25248,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>5.399999999999977</v>
+        <v>1.19999999999996</v>
       </c>
       <c r="C126" t="n">
         <v>1451</v>
@@ -25257,7 +25257,7 @@
         <v>13.9</v>
       </c>
       <c r="E126" t="n">
-        <v>11.7999999999999</v>
+        <v>2.999999999999888</v>
       </c>
       <c r="F126" t="n">
         <v>1644.2</v>
@@ -25302,7 +25302,7 @@
         <v>67.40000000000001</v>
       </c>
       <c r="T126" t="n">
-        <v>0.6000000000000014</v>
+        <v>0.2000000000000099</v>
       </c>
       <c r="U126" t="n">
         <v>9.9</v>
@@ -25311,7 +25311,7 @@
         <v>7.6</v>
       </c>
       <c r="W126" t="n">
-        <v>5.699999999999999</v>
+        <v>2.500000000000011</v>
       </c>
       <c r="X126" t="n">
         <v>77.5</v>
@@ -25332,7 +25332,7 @@
         <v>153.9</v>
       </c>
       <c r="AD126" t="n">
-        <v>2.599999999999994</v>
+        <v>1.400000000000006</v>
       </c>
       <c r="AE126" t="n">
         <v>41.6</v>
@@ -25362,7 +25362,7 @@
         <v>696.1</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.199999999999996</v>
+        <v>0.7999999999999836</v>
       </c>
       <c r="AQ126" t="n">
         <v>55.9</v>
@@ -25383,7 +25383,7 @@
         <v>874.7</v>
       </c>
       <c r="AY126" t="n">
-        <v>0.2999999999999989</v>
+        <v>0.0999999999999969</v>
       </c>
       <c r="AZ126" t="n">
         <v>12.6</v>
@@ -25449,7 +25449,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>70.90000000000001</v>
+        <v>61.90000000000015</v>
       </c>
       <c r="C127" t="n">
         <v>1630.5</v>
@@ -25458,7 +25458,7 @@
         <v>15.1</v>
       </c>
       <c r="E127" t="n">
-        <v>66.90000000000009</v>
+        <v>46.10000000000053</v>
       </c>
       <c r="F127" t="n">
         <v>1861.7</v>
@@ -25476,7 +25476,7 @@
         <v>30.9</v>
       </c>
       <c r="K127" t="n">
-        <v>3.100000000000001</v>
+        <v>2.300000000000005</v>
       </c>
       <c r="L127" t="n">
         <v>13.6</v>
@@ -25503,7 +25503,7 @@
         <v>62.4</v>
       </c>
       <c r="T127" t="n">
-        <v>1.5</v>
+        <v>0.09999999999998721</v>
       </c>
       <c r="U127" t="n">
         <v>11.5</v>
@@ -25512,7 +25512,7 @@
         <v>7.5</v>
       </c>
       <c r="W127" t="n">
-        <v>8.5</v>
+        <v>2.800000000000001</v>
       </c>
       <c r="X127" t="n">
         <v>101.5</v>
@@ -25533,7 +25533,7 @@
         <v>149.6</v>
       </c>
       <c r="AD127" t="n">
-        <v>5.9</v>
+        <v>1.000000000000009</v>
       </c>
       <c r="AE127" t="n">
         <v>48.8</v>
@@ -25563,7 +25563,7 @@
         <v>706.1</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.900000000000002</v>
+        <v>0.4000000000000119</v>
       </c>
       <c r="AQ127" t="n">
         <v>63.6</v>
@@ -25584,7 +25584,7 @@
         <v>891.8</v>
       </c>
       <c r="AY127" t="n">
-        <v>0.3</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="AZ127" t="n">
         <v>13.9</v>
@@ -25602,7 +25602,7 @@
         <v>1496.6</v>
       </c>
       <c r="BE127" t="n">
-        <v>1.500000000000001</v>
+        <v>0.2999999999999964</v>
       </c>
       <c r="BF127" t="n">
         <v>37.5</v>
@@ -25650,7 +25650,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>128.8</v>
+        <v>57.90000000000001</v>
       </c>
       <c r="C128" t="n">
         <v>214.2</v>
@@ -25659,7 +25659,7 @@
         <v>0.5</v>
       </c>
       <c r="E128" t="n">
-        <v>146.6</v>
+        <v>24.59999999999971</v>
       </c>
       <c r="F128" t="n">
         <v>242.9</v>
@@ -25668,7 +25668,7 @@
         <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>1.2</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="I128" t="n">
         <v>2.3</v>
@@ -25704,7 +25704,7 @@
         <v>50.3</v>
       </c>
       <c r="T128" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="U128" t="n">
         <v>1.5</v>
@@ -25713,7 +25713,7 @@
         <v>0</v>
       </c>
       <c r="W128" t="n">
-        <v>6.6</v>
+        <v>0.9999999999999969</v>
       </c>
       <c r="X128" t="n">
         <v>9.5</v>
@@ -25734,7 +25734,7 @@
         <v>127.4</v>
       </c>
       <c r="AD128" t="n">
-        <v>3.299999999999999</v>
+        <v>1.299999999999981</v>
       </c>
       <c r="AE128" t="n">
         <v>6.7</v>
@@ -25764,7 +25764,7 @@
         <v>643.1</v>
       </c>
       <c r="AP128" t="n">
-        <v>4.600000000000001</v>
+        <v>0.7999999999999969</v>
       </c>
       <c r="AQ128" t="n">
         <v>10</v>
@@ -25785,7 +25785,7 @@
         <v>859.8</v>
       </c>
       <c r="AY128" t="n">
-        <v>1.1</v>
+        <v>0.7999999999999967</v>
       </c>
       <c r="AZ128" t="n">
         <v>1.9</v>
@@ -25803,7 +25803,7 @@
         <v>1389.7</v>
       </c>
       <c r="BE128" t="n">
-        <v>2.6</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="BF128" t="n">
         <v>5.5</v>
@@ -25869,7 +25869,7 @@
         <v>-1.9</v>
       </c>
       <c r="H129" t="n">
-        <v>1.2</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="I129" t="n">
         <v>3.6</v>
@@ -25878,7 +25878,7 @@
         <v>12.5</v>
       </c>
       <c r="K129" t="n">
-        <v>1.4</v>
+        <v>0.5999999999999994</v>
       </c>
       <c r="L129" t="n">
         <v>5.1</v>
@@ -25905,7 +25905,7 @@
         <v>53.1</v>
       </c>
       <c r="T129" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.8999999999999972</v>
       </c>
       <c r="U129" t="n">
         <v>2.3</v>
@@ -25914,7 +25914,7 @@
         <v>-4.2</v>
       </c>
       <c r="W129" t="n">
-        <v>5.1</v>
+        <v>0.3000000000000052</v>
       </c>
       <c r="X129" t="n">
         <v>16.2</v>
@@ -26004,7 +26004,7 @@
         <v>1386.2</v>
       </c>
       <c r="BE129" t="n">
-        <v>0.5</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="BF129" t="n">
         <v>8.5</v>
@@ -26052,7 +26052,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>129.3</v>
+        <v>113.3</v>
       </c>
       <c r="C130" t="n">
         <v>460.4</v>
@@ -26061,7 +26061,7 @@
         <v>-3</v>
       </c>
       <c r="E130" t="n">
-        <v>147</v>
+        <v>141.8</v>
       </c>
       <c r="F130" t="n">
         <v>523.3</v>
@@ -26070,7 +26070,7 @@
         <v>-2.2</v>
       </c>
       <c r="H130" t="n">
-        <v>1.199999999999999</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="I130" t="n">
         <v>4.8</v>
@@ -26115,7 +26115,7 @@
         <v>-12.1</v>
       </c>
       <c r="W130" t="n">
-        <v>2.300000000000002</v>
+        <v>1</v>
       </c>
       <c r="X130" t="n">
         <v>23</v>
@@ -26136,7 +26136,7 @@
         <v>131.9</v>
       </c>
       <c r="AD130" t="n">
-        <v>3.400000000000002</v>
+        <v>2.599999999999998</v>
       </c>
       <c r="AE130" t="n">
         <v>13.3</v>
@@ -26166,7 +26166,7 @@
         <v>639.6</v>
       </c>
       <c r="AP130" t="n">
-        <v>4.599999999999998</v>
+        <v>3.800000000000001</v>
       </c>
       <c r="AQ130" t="n">
         <v>20.6</v>
@@ -26187,7 +26187,7 @@
         <v>852.8</v>
       </c>
       <c r="AY130" t="n">
-        <v>1</v>
+        <v>0.6000000000000005</v>
       </c>
       <c r="AZ130" t="n">
         <v>3.9</v>
@@ -26205,7 +26205,7 @@
         <v>1400.2</v>
       </c>
       <c r="BE130" t="n">
-        <v>2.800000000000001</v>
+        <v>0.8000000000000009</v>
       </c>
       <c r="BF130" t="n">
         <v>11.5</v>
@@ -26280,7 +26280,7 @@
         <v>8.9</v>
       </c>
       <c r="K131" t="n">
-        <v>0.3999999999999995</v>
+        <v>0.09999999999999801</v>
       </c>
       <c r="L131" t="n">
         <v>6.4</v>
@@ -26307,7 +26307,7 @@
         <v>56.7</v>
       </c>
       <c r="T131" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.3999999999999995</v>
       </c>
       <c r="U131" t="n">
         <v>3.8</v>
@@ -26316,7 +26316,7 @@
         <v>-11.6</v>
       </c>
       <c r="W131" t="n">
-        <v>7.100000000000001</v>
+        <v>0.1999999999999948</v>
       </c>
       <c r="X131" t="n">
         <v>28.9</v>
@@ -26337,7 +26337,7 @@
         <v>131.6</v>
       </c>
       <c r="AD131" t="n">
-        <v>3.399999999999999</v>
+        <v>0.199999999999998</v>
       </c>
       <c r="AE131" t="n">
         <v>16.8</v>
@@ -26454,7 +26454,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>603.6999999999999</v>
+        <v>534.5000000000001</v>
       </c>
       <c r="C132" t="n">
         <v>731</v>
@@ -26472,7 +26472,7 @@
         <v>-2.2</v>
       </c>
       <c r="H132" t="n">
-        <v>3.499999999999999</v>
+        <v>3.099999999999991</v>
       </c>
       <c r="I132" t="n">
         <v>7.3</v>
@@ -26481,7 +26481,7 @@
         <v>5.8</v>
       </c>
       <c r="K132" t="n">
-        <v>3</v>
+        <v>2.000000000000006</v>
       </c>
       <c r="L132" t="n">
         <v>7.7</v>
@@ -26508,7 +26508,7 @@
         <v>56.6</v>
       </c>
       <c r="T132" t="n">
-        <v>0.6000000000000005</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="U132" t="n">
         <v>4.6</v>
@@ -26517,7 +26517,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="W132" t="n">
-        <v>4</v>
+        <v>1.300000000000008</v>
       </c>
       <c r="X132" t="n">
         <v>34.5</v>
@@ -26538,7 +26538,7 @@
         <v>131.3</v>
       </c>
       <c r="AD132" t="n">
-        <v>0.3999999999999986</v>
+        <v>2.581268532253489e-15</v>
       </c>
       <c r="AE132" t="n">
         <v>20.4</v>
@@ -26568,7 +26568,7 @@
         <v>652.3</v>
       </c>
       <c r="AP132" t="n">
-        <v>23.2</v>
+        <v>20.4</v>
       </c>
       <c r="AQ132" t="n">
         <v>31.2</v>
@@ -26607,7 +26607,7 @@
         <v>1441.5</v>
       </c>
       <c r="BE132" t="n">
-        <v>13.3</v>
+        <v>11.3</v>
       </c>
       <c r="BF132" t="n">
         <v>17.9</v>
@@ -26664,7 +26664,7 @@
         <v>-2.5</v>
       </c>
       <c r="E133" t="n">
-        <v>119.4000000000001</v>
+        <v>113.8000000000001</v>
       </c>
       <c r="F133" t="n">
         <v>827.7</v>
@@ -26709,7 +26709,7 @@
         <v>48.7</v>
       </c>
       <c r="T133" t="n">
-        <v>0.1999999999999993</v>
+        <v>0.1999999999999984</v>
       </c>
       <c r="U133" t="n">
         <v>4.8</v>
@@ -26739,7 +26739,7 @@
         <v>111.6</v>
       </c>
       <c r="AD133" t="n">
-        <v>2.500000000000004</v>
+        <v>1.100000000000006</v>
       </c>
       <c r="AE133" t="n">
         <v>20.4</v>
@@ -26790,7 +26790,7 @@
         <v>696.7</v>
       </c>
       <c r="AY133" t="n">
-        <v>0.8000000000000007</v>
+        <v>3.497202527569243e-15</v>
       </c>
       <c r="AZ133" t="n">
         <v>6</v>
@@ -26883,7 +26883,7 @@
         <v>18.2</v>
       </c>
       <c r="K134" t="n">
-        <v>0.5</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="L134" t="n">
         <v>4.9</v>
@@ -26919,7 +26919,7 @@
         <v>-13.8</v>
       </c>
       <c r="W134" t="n">
-        <v>1.400000000000006</v>
+        <v>0.6000000000000087</v>
       </c>
       <c r="X134" t="n">
         <v>49.4</v>
@@ -27057,7 +27057,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>107.6999999999999</v>
+        <v>80.09999999999988</v>
       </c>
       <c r="C135" t="n">
         <v>940.4</v>
@@ -27066,7 +27066,7 @@
         <v>-3.3</v>
       </c>
       <c r="E135" t="n">
-        <v>124.1999999999998</v>
+        <v>92.60000000000021</v>
       </c>
       <c r="F135" t="n">
         <v>1073.7</v>
@@ -27075,7 +27075,7 @@
         <v>-2</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0.1000000000000006</v>
       </c>
       <c r="I135" t="n">
         <v>7.5</v>
@@ -27084,7 +27084,7 @@
         <v>15.4</v>
       </c>
       <c r="K135" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="L135" t="n">
         <v>4.5</v>
@@ -27111,7 +27111,7 @@
         <v>49.4</v>
       </c>
       <c r="T135" t="n">
-        <v>0.7999999999999989</v>
+        <v>0.3999999999999968</v>
       </c>
       <c r="U135" t="n">
         <v>6.3</v>
@@ -27120,7 +27120,7 @@
         <v>-14.9</v>
       </c>
       <c r="W135" t="n">
-        <v>1.399999999999991</v>
+        <v>0.1999999999999735</v>
       </c>
       <c r="X135" t="n">
         <v>59</v>
@@ -27141,7 +27141,7 @@
         <v>112.8</v>
       </c>
       <c r="AD135" t="n">
-        <v>0.7000000000000002</v>
+        <v>0.1000000000000068</v>
       </c>
       <c r="AE135" t="n">
         <v>29.1</v>
@@ -27171,7 +27171,7 @@
         <v>560.7</v>
       </c>
       <c r="AP135" t="n">
-        <v>4.199999999999996</v>
+        <v>2.999999999999979</v>
       </c>
       <c r="AQ135" t="n">
         <v>38.8</v>
@@ -27192,7 +27192,7 @@
         <v>728.2</v>
       </c>
       <c r="AY135" t="n">
-        <v>1</v>
+        <v>0.1999999999999957</v>
       </c>
       <c r="AZ135" t="n">
         <v>7.7</v>
@@ -27210,7 +27210,7 @@
         <v>1271.6</v>
       </c>
       <c r="BE135" t="n">
-        <v>2.5</v>
+        <v>1.299999999999984</v>
       </c>
       <c r="BF135" t="n">
         <v>23.5</v>
@@ -27276,7 +27276,7 @@
         <v>-1.5</v>
       </c>
       <c r="H136" t="n">
-        <v>0.5</v>
+        <v>0.09999999999999959</v>
       </c>
       <c r="I136" t="n">
         <v>8.4</v>
@@ -27312,7 +27312,7 @@
         <v>50.1</v>
       </c>
       <c r="T136" t="n">
-        <v>0.6000000000000014</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="U136" t="n">
         <v>6.6</v>
@@ -27321,7 +27321,7 @@
         <v>-19.5</v>
       </c>
       <c r="W136" t="n">
-        <v>10.00000000000001</v>
+        <v>6.200000000000072</v>
       </c>
       <c r="X136" t="n">
         <v>70.09999999999999</v>
@@ -27342,7 +27342,7 @@
         <v>113</v>
       </c>
       <c r="AD136" t="n">
-        <v>2.200000000000002</v>
+        <v>0.8999999999999855</v>
       </c>
       <c r="AE136" t="n">
         <v>32.9</v>
@@ -27477,7 +27477,7 @@
         <v>-1.6</v>
       </c>
       <c r="H137" t="n">
-        <v>0.3000000000000009</v>
+        <v>0.2000000000000013</v>
       </c>
       <c r="I137" t="n">
         <v>9.6</v>
@@ -27513,7 +27513,7 @@
         <v>50.7</v>
       </c>
       <c r="T137" t="n">
-        <v>0.9999999999999987</v>
+        <v>0.3999999999999936</v>
       </c>
       <c r="U137" t="n">
         <v>7.4</v>
@@ -27573,7 +27573,7 @@
         <v>581.4</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.899999999999999</v>
+        <v>0.3999999999999777</v>
       </c>
       <c r="AQ137" t="n">
         <v>48.6</v>
@@ -27594,7 +27594,7 @@
         <v>720.4</v>
       </c>
       <c r="AY137" t="n">
-        <v>1.1</v>
+        <v>0.6999999999999997</v>
       </c>
       <c r="AZ137" t="n">
         <v>9.4</v>
@@ -27612,7 +27612,7 @@
         <v>1268</v>
       </c>
       <c r="BE137" t="n">
-        <v>0.9000000000000057</v>
+        <v>1.409983241273949e-14</v>
       </c>
       <c r="BF137" t="n">
         <v>29.1</v>
@@ -27660,7 +27660,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>22.2999999999999</v>
+        <v>3.19999999999979</v>
       </c>
       <c r="C138" t="n">
         <v>1316.2</v>
@@ -27685,7 +27685,7 @@
         <v>6.5</v>
       </c>
       <c r="K138" t="n">
-        <v>0.9000000000000006</v>
+        <v>0.5000000000000056</v>
       </c>
       <c r="L138" t="n">
         <v>4.1</v>
@@ -27712,7 +27712,7 @@
         <v>50.1</v>
       </c>
       <c r="T138" t="n">
-        <v>1.2</v>
+        <v>0.2000000000000013</v>
       </c>
       <c r="U138" t="n">
         <v>8.6</v>
@@ -27721,7 +27721,7 @@
         <v>-17.3</v>
       </c>
       <c r="W138" t="n">
-        <v>10.1</v>
+        <v>0.3000000000000185</v>
       </c>
       <c r="X138" t="n">
         <v>120.3</v>
@@ -27770,7 +27770,7 @@
         <v>599.8</v>
       </c>
       <c r="AP138" t="n">
-        <v>0.8999999999999986</v>
+        <v>1.376676550535194e-14</v>
       </c>
       <c r="AQ138" t="n">
         <v>55.3</v>
@@ -27809,7 +27809,7 @@
         <v>1326</v>
       </c>
       <c r="BE138" t="n">
-        <v>0.6999999999999975</v>
+        <v>0.09999999999997489</v>
       </c>
       <c r="BF138" t="n">
         <v>32.7</v>
@@ -27857,7 +27857,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>106.6</v>
+        <v>74.70000000000073</v>
       </c>
       <c r="C139" t="n">
         <v>190.1</v>
@@ -27866,7 +27866,7 @@
         <v>9.9</v>
       </c>
       <c r="E139" t="n">
-        <v>122.6</v>
+        <v>75.79999999999995</v>
       </c>
       <c r="F139" t="n">
         <v>216.2</v>
@@ -27905,7 +27905,7 @@
         <v>45.2</v>
       </c>
       <c r="T139" t="n">
-        <v>1</v>
+        <v>0.3999999999999961</v>
       </c>
       <c r="U139" t="n">
         <v>1.1</v>
@@ -27914,7 +27914,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="W139" t="n">
-        <v>6.799999999999999</v>
+        <v>0.9999999999999536</v>
       </c>
       <c r="X139" t="n">
         <v>11.7</v>
@@ -27959,7 +27959,7 @@
         <v>516</v>
       </c>
       <c r="AP139" t="n">
-        <v>4.699999999999999</v>
+        <v>1.99999999999999</v>
       </c>
       <c r="AQ139" t="n">
         <v>8.1</v>
@@ -27980,7 +27980,7 @@
         <v>448.4</v>
       </c>
       <c r="AY139" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="AZ139" t="n">
         <v>1.5</v>
@@ -27998,7 +27998,7 @@
         <v>884.5</v>
       </c>
       <c r="BE139" t="n">
-        <v>3</v>
+        <v>1.400000000000027</v>
       </c>
       <c r="BF139" t="n">
         <v>5</v>
@@ -28090,7 +28090,7 @@
         <v>50.7</v>
       </c>
       <c r="T140" t="n">
-        <v>0.7999999999999998</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="U140" t="n">
         <v>2</v>
@@ -28099,7 +28099,7 @@
         <v>-9.1</v>
       </c>
       <c r="W140" t="n">
-        <v>5.800000000000001</v>
+        <v>2.900000000000039</v>
       </c>
       <c r="X140" t="n">
         <v>19.1</v>
@@ -28144,7 +28144,7 @@
         <v>540.5</v>
       </c>
       <c r="AP140" t="n">
-        <v>4.5</v>
+        <v>0.6999999999999988</v>
       </c>
       <c r="AQ140" t="n">
         <v>13.2</v>
@@ -28165,7 +28165,7 @@
         <v>472.5</v>
       </c>
       <c r="AY140" t="n">
-        <v>1.1</v>
+        <v>8.326672684688674e-17</v>
       </c>
       <c r="AZ140" t="n">
         <v>2.5</v>
@@ -28183,7 +28183,7 @@
         <v>923.1</v>
       </c>
       <c r="BE140" t="n">
-        <v>2.699999999999999</v>
+        <v>0.3999999999999968</v>
       </c>
       <c r="BF140" t="n">
         <v>8.199999999999999</v>
@@ -28227,7 +28227,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>5</v>
+        <v>1.099999999999994</v>
       </c>
       <c r="C141" t="n">
         <v>421.5</v>
@@ -28236,7 +28236,7 @@
         <v>8.1</v>
       </c>
       <c r="E141" t="n">
-        <v>4.300000000000011</v>
+        <v>1.900000000000005</v>
       </c>
       <c r="F141" t="n">
         <v>479.1</v>
@@ -28275,7 +28275,7 @@
         <v>52.6</v>
       </c>
       <c r="T141" t="n">
-        <v>0.7000000000000002</v>
+        <v>0.6999999999999991</v>
       </c>
       <c r="U141" t="n">
         <v>2.6</v>
@@ -28284,7 +28284,7 @@
         <v>-13.3</v>
       </c>
       <c r="W141" t="n">
-        <v>5.699999999999999</v>
+        <v>1.499999999999988</v>
       </c>
       <c r="X141" t="n">
         <v>25.2</v>
@@ -28329,7 +28329,7 @@
         <v>540.3</v>
       </c>
       <c r="AP141" t="n">
-        <v>4.199999999999999</v>
+        <v>2.800000000000001</v>
       </c>
       <c r="AQ141" t="n">
         <v>17.7</v>
@@ -28350,7 +28350,7 @@
         <v>475.7</v>
       </c>
       <c r="AY141" t="n">
-        <v>0.8000000000000003</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="AZ141" t="n">
         <v>3.4</v>
@@ -28368,7 +28368,7 @@
         <v>933.5</v>
       </c>
       <c r="BE141" t="n">
-        <v>2.6</v>
+        <v>1.800000000000006</v>
       </c>
       <c r="BF141" t="n">
         <v>11.1</v>
@@ -28412,7 +28412,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>97.10000000000002</v>
+        <v>88.80000000000004</v>
       </c>
       <c r="C142" t="n">
         <v>533.4</v>
@@ -28421,7 +28421,7 @@
         <v>5.5</v>
       </c>
       <c r="E142" t="n">
-        <v>109.7</v>
+        <v>99.69999999999999</v>
       </c>
       <c r="F142" t="n">
         <v>606.4</v>
@@ -28433,7 +28433,7 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>0.1000000000000001</v>
+        <v>1.249000902703301e-16</v>
       </c>
       <c r="L142" t="n">
         <v>2.4</v>
@@ -28514,7 +28514,7 @@
         <v>538.1</v>
       </c>
       <c r="AP142" t="n">
-        <v>3.900000000000002</v>
+        <v>0.4000000000000021</v>
       </c>
       <c r="AQ142" t="n">
         <v>22.2</v>
@@ -28535,7 +28535,7 @@
         <v>465.8</v>
       </c>
       <c r="AY142" t="n">
-        <v>0.7000000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="AZ142" t="n">
         <v>4.2</v>
@@ -28618,7 +28618,7 @@
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>0.2999999999999998</v>
+        <v>0.1999999999999994</v>
       </c>
       <c r="L143" t="n">
         <v>2.6</v>
@@ -28782,7 +28782,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>95.90000000000009</v>
+        <v>15.50000000000057</v>
       </c>
       <c r="C144" t="n">
         <v>749</v>
@@ -28791,7 +28791,7 @@
         <v>4.1</v>
       </c>
       <c r="E144" t="n">
-        <v>114.5</v>
+        <v>32.09999999999996</v>
       </c>
       <c r="F144" t="n">
         <v>848.7</v>
@@ -28803,7 +28803,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>0.1999999999999997</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="L144" t="n">
         <v>3.1</v>
@@ -28839,7 +28839,7 @@
         <v>-15.7</v>
       </c>
       <c r="W144" t="n">
-        <v>3.600000000000001</v>
+        <v>1.000000000000007</v>
       </c>
       <c r="X144" t="n">
         <v>42.6</v>
@@ -28884,7 +28884,7 @@
         <v>514.6</v>
       </c>
       <c r="AP144" t="n">
-        <v>4.199999999999996</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="AQ144" t="n">
         <v>30</v>
@@ -28905,7 +28905,7 @@
         <v>449.1</v>
       </c>
       <c r="AY144" t="n">
-        <v>0.8999999999999995</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="AZ144" t="n">
         <v>5.7</v>
@@ -28988,7 +28988,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>0.2000000000000007</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="L145" t="n">
         <v>3.5</v>
@@ -29015,7 +29015,7 @@
         <v>52.8</v>
       </c>
       <c r="T145" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.7999999999999963</v>
       </c>
       <c r="U145" t="n">
         <v>5</v>
@@ -29024,7 +29024,7 @@
         <v>-15.3</v>
       </c>
       <c r="W145" t="n">
-        <v>8.300000000000004</v>
+        <v>0.3999999999999848</v>
       </c>
       <c r="X145" t="n">
         <v>49</v>
@@ -29090,7 +29090,7 @@
         <v>453.5</v>
       </c>
       <c r="AY145" t="n">
-        <v>0.8999999999999906</v>
+        <v>0.2999999999999909</v>
       </c>
       <c r="AZ145" t="n">
         <v>6.4</v>
@@ -29108,7 +29108,7 @@
         <v>889.5</v>
       </c>
       <c r="BE145" t="n">
-        <v>2.899999999999999</v>
+        <v>1.700000000000003</v>
       </c>
       <c r="BF145" t="n">
         <v>22.1</v>
@@ -29152,7 +29152,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>103.6000000000001</v>
+        <v>46.80000000000088</v>
       </c>
       <c r="C146" t="n">
         <v>963.8</v>
@@ -29161,7 +29161,7 @@
         <v>4.1</v>
       </c>
       <c r="E146" t="n">
-        <v>122.8</v>
+        <v>71.19999999999959</v>
       </c>
       <c r="F146" t="n">
         <v>1094.59999999999</v>
@@ -29173,7 +29173,7 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>0.1999999999999997</v>
+        <v>0.1999999999999967</v>
       </c>
       <c r="L146" t="n">
         <v>3.8</v>
@@ -29209,7 +29209,7 @@
         <v>-13.4</v>
       </c>
       <c r="W146" t="n">
-        <v>1.599999999999888</v>
+        <v>0.199999999999896</v>
       </c>
       <c r="X146" t="n">
         <v>55.3999999999999</v>
@@ -29275,7 +29275,7 @@
         <v>454.9</v>
       </c>
       <c r="AY146" t="n">
-        <v>0.8000000000000096</v>
+        <v>0.2000000000000278</v>
       </c>
       <c r="AZ146" t="n">
         <v>7.3</v>
@@ -29293,7 +29293,7 @@
         <v>894.8</v>
       </c>
       <c r="BE146" t="n">
-        <v>2.800000000000001</v>
+        <v>0.2000000000000011</v>
       </c>
       <c r="BF146" t="n">
         <v>25.1999999999999</v>
@@ -29358,7 +29358,7 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>0.4000000000000004</v>
+        <v>9.992007221626409e-16</v>
       </c>
       <c r="L147" t="n">
         <v>4.4</v>
@@ -29385,7 +29385,7 @@
         <v>54.2</v>
       </c>
       <c r="T147" t="n">
-        <v>0.6000000000000005</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="U147" t="n">
         <v>6.1</v>
@@ -29394,7 +29394,7 @@
         <v>-12.9</v>
       </c>
       <c r="W147" t="n">
-        <v>15.30000000000021</v>
+        <v>8.900000000000652</v>
       </c>
       <c r="X147" t="n">
         <v>64.7</v>
@@ -29439,7 +29439,7 @@
         <v>536.299999999999</v>
       </c>
       <c r="AP147" t="n">
-        <v>4.700000000000003</v>
+        <v>3.499999999999219</v>
       </c>
       <c r="AQ147" t="n">
         <v>43.6</v>
@@ -29478,7 +29478,7 @@
         <v>910.7</v>
       </c>
       <c r="BE147" t="n">
-        <v>2.800000000000001</v>
+        <v>2.399999999999999</v>
       </c>
       <c r="BF147" t="n">
         <v>28.6</v>
@@ -29522,7 +29522,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>29.09999999999991</v>
+        <v>5.30000000000009</v>
       </c>
       <c r="C148" t="n">
         <v>1174</v>
@@ -29543,7 +29543,7 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.1999999999999982</v>
       </c>
       <c r="L148" t="n">
         <v>4.2</v>
@@ -29570,7 +29570,7 @@
         <v>54.1</v>
       </c>
       <c r="T148" t="n">
-        <v>0.09999999999999964</v>
+        <v>0.09999999999999787</v>
       </c>
       <c r="U148" t="n">
         <v>7</v>
@@ -29579,7 +29579,7 @@
         <v>-11.4</v>
       </c>
       <c r="W148" t="n">
-        <v>12.8</v>
+        <v>0.6999999999995712</v>
       </c>
       <c r="X148" t="n">
         <v>78.59999999999999</v>
@@ -29645,7 +29645,7 @@
         <v>500.5</v>
       </c>
       <c r="AY148" t="n">
-        <v>1</v>
+        <v>0.2000000000000384</v>
       </c>
       <c r="AZ148" t="n">
         <v>8.800000000000001</v>
@@ -29707,7 +29707,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>38.7000000000001</v>
+        <v>4.300000000000103</v>
       </c>
       <c r="C149" t="n">
         <v>1302.7</v>
@@ -29716,7 +29716,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>40.09999999999999</v>
+        <v>4.899999999999952</v>
       </c>
       <c r="F149" t="n">
         <v>1509.4</v>
@@ -29728,7 +29728,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>1.2</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="L149" t="n">
         <v>6.4</v>
@@ -29755,7 +29755,7 @@
         <v>55.5</v>
       </c>
       <c r="T149" t="n">
-        <v>0.1000000000000001</v>
+        <v>4.579669976578771e-16</v>
       </c>
       <c r="U149" t="n">
         <v>7.5</v>
@@ -29764,7 +29764,7 @@
         <v>-15.7</v>
       </c>
       <c r="W149" t="n">
-        <v>10.9</v>
+        <v>10.20000000000043</v>
       </c>
       <c r="X149" t="n">
         <v>99.8</v>
@@ -29848,7 +29848,7 @@
         <v>969.9</v>
       </c>
       <c r="BE149" t="n">
-        <v>1.199999999999999</v>
+        <v>0.3999999999999992</v>
       </c>
       <c r="BF149" t="n">
         <v>35.4</v>
@@ -29892,7 +29892,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>109.9</v>
+        <v>47.69999999999941</v>
       </c>
       <c r="C150" t="n">
         <v>180.1</v>
@@ -29901,7 +29901,7 @@
         <v>-1.7</v>
       </c>
       <c r="E150" t="n">
-        <v>124.5</v>
+        <v>52.10000000000012</v>
       </c>
       <c r="F150" t="n">
         <v>206.2</v>
@@ -29940,7 +29940,7 @@
         <v>46.2</v>
       </c>
       <c r="T150" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.6999999999999984</v>
       </c>
       <c r="U150" t="n">
         <v>1.3</v>
@@ -29994,7 +29994,7 @@
         <v>503</v>
       </c>
       <c r="AP150" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ150" t="n">
         <v>8.1</v>
@@ -30015,7 +30015,7 @@
         <v>496</v>
       </c>
       <c r="AY150" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AZ150" t="n">
         <v>1.7</v>
@@ -30033,7 +30033,7 @@
         <v>899.7</v>
       </c>
       <c r="BE150" t="n">
-        <v>2.9</v>
+        <v>0.5000000000000036</v>
       </c>
       <c r="BF150" t="n">
         <v>4.9</v>
@@ -30077,7 +30077,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>107.3</v>
+        <v>36.10000000000009</v>
       </c>
       <c r="C151" t="n">
         <v>302</v>
@@ -30086,7 +30086,7 @@
         <v>3</v>
       </c>
       <c r="E151" t="n">
-        <v>121.3</v>
+        <v>36.89999999999999</v>
       </c>
       <c r="F151" t="n">
         <v>343.7</v>
@@ -30179,7 +30179,7 @@
         <v>507.1</v>
       </c>
       <c r="AP151" t="n">
-        <v>4.199999999999999</v>
+        <v>0.8999999999999995</v>
       </c>
       <c r="AQ151" t="n">
         <v>12.9</v>
@@ -30218,7 +30218,7 @@
         <v>908.2</v>
       </c>
       <c r="BE151" t="n">
-        <v>2.499999999999999</v>
+        <v>0.799999999999998</v>
       </c>
       <c r="BF151" t="n">
         <v>7.7</v>
@@ -30262,7 +30262,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>106.8</v>
+        <v>34.59999999999982</v>
       </c>
       <c r="C152" t="n">
         <v>418.9</v>
@@ -30271,7 +30271,7 @@
         <v>4.6</v>
       </c>
       <c r="E152" t="n">
-        <v>121.3</v>
+        <v>47.50000000000001</v>
       </c>
       <c r="F152" t="n">
         <v>475.7</v>
@@ -30310,7 +30310,7 @@
         <v>49.5</v>
       </c>
       <c r="T152" t="n">
-        <v>0.5</v>
+        <v>0.4999999999999983</v>
       </c>
       <c r="U152" t="n">
         <v>2.4</v>
@@ -30364,7 +30364,7 @@
         <v>515</v>
       </c>
       <c r="AP152" t="n">
-        <v>4.199999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="AQ152" t="n">
         <v>17.3</v>
@@ -30385,7 +30385,7 @@
         <v>501.4</v>
       </c>
       <c r="AY152" t="n">
-        <v>0.9000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="AZ152" t="n">
         <v>3.6</v>
@@ -30468,7 +30468,7 @@
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>1.3</v>
+        <v>0.09999999999999887</v>
       </c>
       <c r="L153" t="n">
         <v>2.7</v>
@@ -30495,7 +30495,7 @@
         <v>48.8</v>
       </c>
       <c r="T153" t="n">
-        <v>2.6</v>
+        <v>0.6000000000000033</v>
       </c>
       <c r="U153" t="n">
         <v>3</v>
@@ -30504,7 +30504,7 @@
         <v>-6.3</v>
       </c>
       <c r="W153" t="n">
-        <v>3.800000000000001</v>
+        <v>1.399999999999997</v>
       </c>
       <c r="X153" t="n">
         <v>30.5</v>
@@ -30570,7 +30570,7 @@
         <v>506.1</v>
       </c>
       <c r="AY153" t="n">
-        <v>2.8</v>
+        <v>0.3999999999999988</v>
       </c>
       <c r="AZ153" t="n">
         <v>4.5</v>
@@ -30588,7 +30588,7 @@
         <v>942.1</v>
       </c>
       <c r="BE153" t="n">
-        <v>0.6999999999999993</v>
+        <v>0.09999999999999332</v>
       </c>
       <c r="BF153" t="n">
         <v>13.3</v>
@@ -30632,7 +30632,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>62.40000000000016</v>
+        <v>18.90000000000022</v>
       </c>
       <c r="C154" t="n">
         <v>584.4</v>
@@ -30641,7 +30641,7 @@
         <v>6.1</v>
       </c>
       <c r="E154" t="n">
-        <v>71.70000000000005</v>
+        <v>22.9000000000001</v>
       </c>
       <c r="F154" t="n">
         <v>661.7</v>
@@ -30689,7 +30689,7 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="W154" t="n">
-        <v>2.900000000000002</v>
+        <v>0.3000000000000029</v>
       </c>
       <c r="X154" t="n">
         <v>34.8</v>
@@ -30734,7 +30734,7 @@
         <v>447.4</v>
       </c>
       <c r="AP154" t="n">
-        <v>2.899999999999999</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="AQ154" t="n">
         <v>22.6</v>
@@ -30755,7 +30755,7 @@
         <v>361.8</v>
       </c>
       <c r="AY154" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.400000000000001</v>
       </c>
       <c r="AZ154" t="n">
         <v>3.6</v>
@@ -30773,7 +30773,7 @@
         <v>735.7</v>
       </c>
       <c r="BE154" t="n">
-        <v>1.900000000000001</v>
+        <v>0.300000000000016</v>
       </c>
       <c r="BF154" t="n">
         <v>14</v>
@@ -30817,7 +30817,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>102.5</v>
+        <v>2.2999999999994</v>
       </c>
       <c r="C155" t="n">
         <v>688.9</v>
@@ -30826,7 +30826,7 @@
         <v>4.9</v>
       </c>
       <c r="E155" t="n">
-        <v>117.5</v>
+        <v>22.89999999999985</v>
       </c>
       <c r="F155" t="n">
         <v>781</v>
@@ -30919,7 +30919,7 @@
         <v>450.2</v>
       </c>
       <c r="AP155" t="n">
-        <v>4.100000000000001</v>
+        <v>0.6000000000000076</v>
       </c>
       <c r="AQ155" t="n">
         <v>27</v>
@@ -31002,7 +31002,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>93</v>
+        <v>29.40000000000114</v>
       </c>
       <c r="C156" t="n">
         <v>787</v>
@@ -31011,7 +31011,7 @@
         <v>3.7</v>
       </c>
       <c r="E156" t="n">
-        <v>106</v>
+        <v>14.40000000000035</v>
       </c>
       <c r="F156" t="n">
         <v>894.8</v>
@@ -31059,7 +31059,7 @@
         <v>-14</v>
       </c>
       <c r="W156" t="n">
-        <v>5.799999999999997</v>
+        <v>5.400000000000021</v>
       </c>
       <c r="X156" t="n">
         <v>49.6</v>
@@ -31104,7 +31104,7 @@
         <v>453.4</v>
       </c>
       <c r="AP156" t="n">
-        <v>3.700000000000003</v>
+        <v>0.3999999999999941</v>
       </c>
       <c r="AQ156" t="n">
         <v>31.1</v>
@@ -31143,7 +31143,7 @@
         <v>749.7</v>
       </c>
       <c r="BE156" t="n">
-        <v>2.400000000000002</v>
+        <v>2.000000000000006</v>
       </c>
       <c r="BF156" t="n">
         <v>18.6</v>
@@ -31187,7 +31187,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>734.4</v>
+        <v>463.7999999999992</v>
       </c>
       <c r="C157" t="n">
         <v>886.9</v>
@@ -31196,7 +31196,7 @@
         <v>4.1</v>
       </c>
       <c r="E157" t="n">
-        <v>844.9</v>
+        <v>535.3999999999997</v>
       </c>
       <c r="F157" t="n">
         <v>1009.5</v>
@@ -31208,7 +31208,7 @@
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>0.5</v>
+        <v>0.0999999999999996</v>
       </c>
       <c r="L157" t="n">
         <v>2.1</v>
@@ -31235,7 +31235,7 @@
         <v>45.9</v>
       </c>
       <c r="T157" t="n">
-        <v>0.5</v>
+        <v>0.09999999999999801</v>
       </c>
       <c r="U157" t="n">
         <v>4.4</v>
@@ -31289,7 +31289,7 @@
         <v>458.3</v>
       </c>
       <c r="AP157" t="n">
-        <v>3.5</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="AQ157" t="n">
         <v>35.5</v>
@@ -31310,7 +31310,7 @@
         <v>360</v>
       </c>
       <c r="AY157" t="n">
-        <v>0.5999999999999996</v>
+        <v>0.5999999999999961</v>
       </c>
       <c r="AZ157" t="n">
         <v>5.8</v>
@@ -31393,7 +31393,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>2.1</v>
+        <v>0.7000000000000004</v>
       </c>
       <c r="L158" t="n">
         <v>2.2</v>
@@ -31429,7 +31429,7 @@
         <v>-16.7</v>
       </c>
       <c r="W158" t="n">
-        <v>6.29999999999999</v>
+        <v>4.699999999999967</v>
       </c>
       <c r="X158" t="n">
         <v>56.5</v>
@@ -31474,7 +31474,7 @@
         <v>450.6</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.299999999999997</v>
+        <v>0.2999999999999978</v>
       </c>
       <c r="AQ158" t="n">
         <v>38.7</v>
@@ -31513,7 +31513,7 @@
         <v>745.6</v>
       </c>
       <c r="BE158" t="n">
-        <v>2.800000000000001</v>
+        <v>0.8000000000000131</v>
       </c>
       <c r="BF158" t="n">
         <v>23.5</v>
@@ -31578,7 +31578,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="L159" t="n">
         <v>2.8</v>
@@ -31605,7 +31605,7 @@
         <v>43.6</v>
       </c>
       <c r="T159" t="n">
-        <v>0.4000000000000004</v>
+        <v>1.956768080901838e-15</v>
       </c>
       <c r="U159" t="n">
         <v>5.2</v>
@@ -31659,7 +31659,7 @@
         <v>457.8</v>
       </c>
       <c r="AP159" t="n">
-        <v>4.100000000000001</v>
+        <v>0.2000000000000102</v>
       </c>
       <c r="AQ159" t="n">
         <v>42.8</v>
@@ -31680,7 +31680,7 @@
         <v>358.3</v>
       </c>
       <c r="AY159" t="n">
-        <v>0.4000000000000004</v>
+        <v>0.0999999999999989</v>
       </c>
       <c r="AZ159" t="n">
         <v>7</v>
@@ -31698,7 +31698,7 @@
         <v>752.2</v>
       </c>
       <c r="BE159" t="n">
-        <v>2</v>
+        <v>0.1999999999999931</v>
       </c>
       <c r="BF159" t="n">
         <v>25.9</v>
@@ -31742,7 +31742,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>69.89999999999998</v>
+        <v>20.29999999999995</v>
       </c>
       <c r="C160" t="n">
         <v>949</v>
@@ -31751,7 +31751,7 @@
         <v>-2.2</v>
       </c>
       <c r="E160" t="n">
-        <v>80.40000000000001</v>
+        <v>22.90000000000001</v>
       </c>
       <c r="F160" t="n">
         <v>1099.6</v>
@@ -31763,7 +31763,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="L160" t="n">
         <v>2.9</v>
@@ -31790,7 +31790,7 @@
         <v>42.3</v>
       </c>
       <c r="T160" t="n">
-        <v>0.3999999999999996</v>
+        <v>0.09999999999999876</v>
       </c>
       <c r="U160" t="n">
         <v>5.8</v>
@@ -31799,7 +31799,7 @@
         <v>-9.4</v>
       </c>
       <c r="W160" t="n">
-        <v>3.899999999999999</v>
+        <v>0.799999999999998</v>
       </c>
       <c r="X160" t="n">
         <v>64.2</v>
@@ -31844,7 +31844,7 @@
         <v>462.1</v>
       </c>
       <c r="AP160" t="n">
-        <v>2.099999999999999</v>
+        <v>0.3999999999999819</v>
       </c>
       <c r="AQ160" t="n">
         <v>47.1</v>
@@ -31865,7 +31865,7 @@
         <v>366.6</v>
       </c>
       <c r="AY160" t="n">
-        <v>0.5999999999999996</v>
+        <v>0.1000000000000003</v>
       </c>
       <c r="AZ160" t="n">
         <v>7.6</v>
@@ -31883,7 +31883,7 @@
         <v>755.4</v>
       </c>
       <c r="BE160" t="n">
-        <v>1.9</v>
+        <v>1.700000000000007</v>
       </c>
       <c r="BF160" t="n">
         <v>27.2</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>74.30000000000001</v>
+        <v>4.400000000000034</v>
       </c>
       <c r="C161" t="n">
         <v>120</v>
@@ -31936,7 +31936,7 @@
         <v>0.4</v>
       </c>
       <c r="E161" t="n">
-        <v>85.40000000000001</v>
+        <v>5</v>
       </c>
       <c r="F161" t="n">
         <v>139.1</v>
@@ -31975,7 +31975,7 @@
         <v>33.8</v>
       </c>
       <c r="T161" t="n">
-        <v>0.5</v>
+        <v>1.637578961322106e-15</v>
       </c>
       <c r="U161" t="n">
         <v>0.9</v>
@@ -31984,7 +31984,7 @@
         <v>12.5</v>
       </c>
       <c r="W161" t="n">
-        <v>3.6</v>
+        <v>1.200000000000006</v>
       </c>
       <c r="X161" t="n">
         <v>6.5</v>
@@ -32035,7 +32035,7 @@
         <v>390.6</v>
       </c>
       <c r="AP161" t="n">
-        <v>4.2</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="AQ161" t="n">
         <v>6.8</v>
@@ -32062,7 +32062,7 @@
         <v>319.8</v>
       </c>
       <c r="AY161" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.1000000000000011</v>
       </c>
       <c r="AZ161" t="n">
         <v>1.2</v>
@@ -32080,7 +32080,7 @@
         <v>623</v>
       </c>
       <c r="BE161" t="n">
-        <v>2.3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="BF161" t="n">
         <v>3.8</v>
@@ -32128,7 +32128,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>69.59999999999997</v>
+        <v>56.39999999999986</v>
       </c>
       <c r="C162" t="n">
         <v>199.2</v>
@@ -32137,7 +32137,7 @@
         <v>2.8</v>
       </c>
       <c r="E162" t="n">
-        <v>81.30000000000001</v>
+        <v>66.30000000000001</v>
       </c>
       <c r="F162" t="n">
         <v>230.9</v>
@@ -32176,7 +32176,7 @@
         <v>34.8</v>
       </c>
       <c r="T162" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.1999999999999975</v>
       </c>
       <c r="U162" t="n">
         <v>1.4</v>
@@ -32236,7 +32236,7 @@
         <v>398.8</v>
       </c>
       <c r="AP162" t="n">
-        <v>3.4</v>
+        <v>1.299999999999995</v>
       </c>
       <c r="AQ162" t="n">
         <v>11.1</v>
@@ -32263,7 +32263,7 @@
         <v>330.2</v>
       </c>
       <c r="AY162" t="n">
-        <v>0.5</v>
+        <v>0.0999999999999986</v>
       </c>
       <c r="AZ162" t="n">
         <v>1.9</v>
@@ -32281,7 +32281,7 @@
         <v>633.5</v>
       </c>
       <c r="BE162" t="n">
-        <v>2.100000000000001</v>
+        <v>0.900000000000001</v>
       </c>
       <c r="BF162" t="n">
         <v>6.2</v>
@@ -32338,7 +32338,7 @@
         <v>2.9</v>
       </c>
       <c r="E163" t="n">
-        <v>80.09999999999997</v>
+        <v>3.799999999999955</v>
       </c>
       <c r="F163" t="n">
         <v>312.6</v>
@@ -32350,7 +32350,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>0.1000000000000001</v>
+        <v>2.359223927328458e-16</v>
       </c>
       <c r="L163" t="n">
         <v>1.5</v>
@@ -32377,7 +32377,7 @@
         <v>33.1</v>
       </c>
       <c r="T163" t="n">
-        <v>0.2</v>
+        <v>9.159339953157541e-16</v>
       </c>
       <c r="U163" t="n">
         <v>1.9</v>
@@ -32386,7 +32386,7 @@
         <v>11.8</v>
       </c>
       <c r="W163" t="n">
-        <v>4.200000000000001</v>
+        <v>1.399999999999997</v>
       </c>
       <c r="X163" t="n">
         <v>15</v>
@@ -32446,7 +32446,7 @@
         <v>5.8</v>
       </c>
       <c r="AS163" t="n">
-        <v>3.900000000000002</v>
+        <v>2.300000000000002</v>
       </c>
       <c r="AT163" t="n">
         <v>14.4</v>
@@ -32464,7 +32464,7 @@
         <v>338.4</v>
       </c>
       <c r="AY163" t="n">
-        <v>0.3000000000000003</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="AZ163" t="n">
         <v>2.5</v>
@@ -32482,7 +32482,7 @@
         <v>647.6</v>
       </c>
       <c r="BE163" t="n">
-        <v>2.1</v>
+        <v>0.399999999999999</v>
       </c>
       <c r="BF163" t="n">
         <v>8.300000000000001</v>
@@ -32530,7 +32530,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>42.19999999999999</v>
+        <v>38.99999999999971</v>
       </c>
       <c r="C164" t="n">
         <v>348.2</v>
@@ -32539,7 +32539,7 @@
         <v>4.3</v>
       </c>
       <c r="E164" t="n">
-        <v>48.80000000000001</v>
+        <v>45.00000000000006</v>
       </c>
       <c r="F164" t="n">
         <v>400</v>
@@ -32551,7 +32551,7 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>1.1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="L164" t="n">
         <v>1.8</v>
@@ -32578,7 +32578,7 @@
         <v>34.5</v>
       </c>
       <c r="T164" t="n">
-        <v>0.2000000000000002</v>
+        <v>1.942890293094024e-16</v>
       </c>
       <c r="U164" t="n">
         <v>2.5</v>
@@ -32587,7 +32587,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="W164" t="n">
-        <v>3.399999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X164" t="n">
         <v>18.8</v>
@@ -32638,7 +32638,7 @@
         <v>415</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.699999999999999</v>
+        <v>0.09999999999999443</v>
       </c>
       <c r="AQ164" t="n">
         <v>18.5</v>
@@ -32647,7 +32647,7 @@
         <v>5.1</v>
       </c>
       <c r="AS164" t="n">
-        <v>3</v>
+        <v>0.299999999999998</v>
       </c>
       <c r="AT164" t="n">
         <v>18.2</v>
@@ -32665,7 +32665,7 @@
         <v>351.2</v>
       </c>
       <c r="AY164" t="n">
-        <v>2.4</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="AZ164" t="n">
         <v>3.2</v>
@@ -32683,7 +32683,7 @@
         <v>703.4</v>
       </c>
       <c r="BE164" t="n">
-        <v>1.1</v>
+        <v>0.7000000000000011</v>
       </c>
       <c r="BF164" t="n">
         <v>10.4</v>
@@ -32779,7 +32779,7 @@
         <v>33.4</v>
       </c>
       <c r="T165" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.1999999999999996</v>
       </c>
       <c r="U165" t="n">
         <v>2.5</v>
@@ -32788,7 +32788,7 @@
         <v>0</v>
       </c>
       <c r="W165" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="X165" t="n">
         <v>20.9</v>
@@ -32821,7 +32821,7 @@
         <v>126.8</v>
       </c>
       <c r="AJ165" t="n">
-        <v>0.3</v>
+        <v>2.775557561562891e-17</v>
       </c>
       <c r="AK165" t="n">
         <v>0.5</v>
@@ -32932,7 +32932,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>43</v>
+        <v>27.39999999999987</v>
       </c>
       <c r="C166" t="n">
         <v>434.2</v>
@@ -32941,7 +32941,7 @@
         <v>2.9</v>
       </c>
       <c r="E166" t="n">
-        <v>49.69999999999993</v>
+        <v>40.49999999999989</v>
       </c>
       <c r="F166" t="n">
         <v>495</v>
@@ -32953,7 +32953,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>0.2000000000000001</v>
+        <v>3.33066907387547e-16</v>
       </c>
       <c r="L166" t="n">
         <v>2.1</v>
@@ -33022,7 +33022,7 @@
         <v>117</v>
       </c>
       <c r="AJ166" t="n">
-        <v>0.3</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="AK166" t="n">
         <v>0.5</v>
@@ -33040,7 +33040,7 @@
         <v>364.8</v>
       </c>
       <c r="AP166" t="n">
-        <v>0.6999999999999988</v>
+        <v>0.09999999999999715</v>
       </c>
       <c r="AQ166" t="n">
         <v>22.2</v>
@@ -33085,7 +33085,7 @@
         <v>578.9</v>
       </c>
       <c r="BE166" t="n">
-        <v>0.9000000000000004</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BF166" t="n">
         <v>11.5</v>
@@ -33154,7 +33154,7 @@
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999944</v>
       </c>
       <c r="L167" t="n">
         <v>2</v>
@@ -33181,7 +33181,7 @@
         <v>32.3</v>
       </c>
       <c r="T167" t="n">
-        <v>0.1000000000000001</v>
+        <v>4.85722573273506e-16</v>
       </c>
       <c r="U167" t="n">
         <v>2.9</v>
@@ -33223,7 +33223,7 @@
         <v>118.5</v>
       </c>
       <c r="AJ167" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AK167" t="n">
         <v>0.4</v>
@@ -33241,7 +33241,7 @@
         <v>355.3</v>
       </c>
       <c r="AP167" t="n">
-        <v>0.3000000000000012</v>
+        <v>0.1000000000000069</v>
       </c>
       <c r="AQ167" t="n">
         <v>25</v>
@@ -33286,7 +33286,7 @@
         <v>567.2</v>
       </c>
       <c r="BE167" t="n">
-        <v>1.5</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BF167" t="n">
         <v>12.7</v>
@@ -33334,7 +33334,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>39.60000000000002</v>
+        <v>27.60000000000002</v>
       </c>
       <c r="C168" t="n">
         <v>522.1</v>
@@ -33343,7 +33343,7 @@
         <v>2.2</v>
       </c>
       <c r="E168" t="n">
-        <v>44</v>
+        <v>31.19999999999936</v>
       </c>
       <c r="F168" t="n">
         <v>594.2</v>
@@ -33355,7 +33355,7 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="L168" t="n">
         <v>2</v>
@@ -33382,7 +33382,7 @@
         <v>33.5</v>
       </c>
       <c r="T168" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.09999999999999865</v>
       </c>
       <c r="U168" t="n">
         <v>3.4</v>
@@ -33391,7 +33391,7 @@
         <v>0</v>
       </c>
       <c r="W168" t="n">
-        <v>1.800000000000001</v>
+        <v>1.000000000000005</v>
       </c>
       <c r="X168" t="n">
         <v>25.2</v>
@@ -33442,7 +33442,7 @@
         <v>354.4</v>
       </c>
       <c r="AP168" t="n">
-        <v>2.300000000000001</v>
+        <v>1.199999999999994</v>
       </c>
       <c r="AQ168" t="n">
         <v>28</v>
@@ -33451,7 +33451,7 @@
         <v>3.7</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.599999999999998</v>
+        <v>0.799999999999998</v>
       </c>
       <c r="AT168" t="n">
         <v>23.2</v>
@@ -33487,7 +33487,7 @@
         <v>562</v>
       </c>
       <c r="BE168" t="n">
-        <v>1.000000000000002</v>
+        <v>0.1000000000000035</v>
       </c>
       <c r="BF168" t="n">
         <v>14.2</v>
@@ -33583,7 +33583,7 @@
         <v>33</v>
       </c>
       <c r="T169" t="n">
-        <v>0.1999999999999997</v>
+        <v>4.718447854656915e-16</v>
       </c>
       <c r="U169" t="n">
         <v>3.7</v>
@@ -33592,7 +33592,7 @@
         <v>2.8</v>
       </c>
       <c r="W169" t="n">
-        <v>1.499999999999996</v>
+        <v>0.09999999999999298</v>
       </c>
       <c r="X169" t="n">
         <v>26.6</v>
@@ -33625,7 +33625,7 @@
         <v>114.2</v>
       </c>
       <c r="AJ169" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AK169" t="n">
         <v>0.5</v>
@@ -33652,7 +33652,7 @@
         <v>4.1</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.700000000000003</v>
+        <v>0.100000000000005</v>
       </c>
       <c r="AT169" t="n">
         <v>24.4</v>
@@ -33670,7 +33670,7 @@
         <v>280.5</v>
       </c>
       <c r="AY169" t="n">
-        <v>0.1000000000000006</v>
+        <v>9.853229343548264e-16</v>
       </c>
       <c r="AZ169" t="n">
         <v>3.8</v>
@@ -33688,7 +33688,7 @@
         <v>555.1</v>
       </c>
       <c r="BE169" t="n">
-        <v>0.5999999999999961</v>
+        <v>0.09999999999999021</v>
       </c>
       <c r="BF169" t="n">
         <v>15.3</v>
@@ -33736,7 +33736,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>24</v>
+        <v>9.400000000000089</v>
       </c>
       <c r="C170" t="n">
         <v>618.4</v>
@@ -33745,7 +33745,7 @@
         <v>2.2</v>
       </c>
       <c r="E170" t="n">
-        <v>30.59999999999991</v>
+        <v>11.59999999999991</v>
       </c>
       <c r="F170" t="n">
         <v>705.7</v>
@@ -33784,7 +33784,7 @@
         <v>34.4</v>
       </c>
       <c r="T170" t="n">
-        <v>0.1000000000000001</v>
+        <v>4.996003610813204e-16</v>
       </c>
       <c r="U170" t="n">
         <v>11.5</v>
@@ -33793,7 +33793,7 @@
         <v>187.5</v>
       </c>
       <c r="W170" t="n">
-        <v>1.100000000000001</v>
+        <v>1.000000000000008</v>
       </c>
       <c r="X170" t="n">
         <v>22.6</v>
@@ -33826,7 +33826,7 @@
         <v>120.7</v>
       </c>
       <c r="AJ170" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AK170" t="n">
         <v>0.5</v>
@@ -33844,7 +33844,7 @@
         <v>366.7</v>
       </c>
       <c r="AP170" t="n">
-        <v>0.9999999999999969</v>
+        <v>0.3999999999999959</v>
       </c>
       <c r="AQ170" t="n">
         <v>34.5</v>
@@ -33853,7 +33853,7 @@
         <v>7.1</v>
       </c>
       <c r="AS170" t="n">
-        <v>0.8000000000000007</v>
+        <v>0.4999999999999858</v>
       </c>
       <c r="AT170" t="n">
         <v>20.4</v>
@@ -33871,7 +33871,7 @@
         <v>385.9</v>
       </c>
       <c r="AY170" t="n">
-        <v>0.2999999999999998</v>
+        <v>0.1999999999999962</v>
       </c>
       <c r="AZ170" t="n">
         <v>11.7</v>
